--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar Survey" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="127">
   <si>
     <t>NO</t>
   </si>
@@ -382,6 +382,30 @@
   </si>
   <si>
     <t>Hotel 1</t>
+  </si>
+  <si>
+    <t>Hotel 3</t>
+  </si>
+  <si>
+    <t>Hotel 4</t>
+  </si>
+  <si>
+    <t>Hotel 5</t>
+  </si>
+  <si>
+    <t>Hotel 6</t>
+  </si>
+  <si>
+    <t>Hotel 7</t>
+  </si>
+  <si>
+    <t>Hotel 8</t>
+  </si>
+  <si>
+    <t>Hotel 9</t>
+  </si>
+  <si>
+    <t>Hotel 10</t>
   </si>
 </sst>
 </file>
@@ -392,7 +416,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,13 +447,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -608,11 +625,13 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -639,22 +658,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1244,10 +1263,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N66"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,11 +1278,11 @@
     <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="9" width="9.140625" style="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="8" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="33" t="s">
         <v>79</v>
       </c>
@@ -1275,8 +1294,16 @@
       <c r="H1" s="33"/>
       <c r="I1" s="33"/>
       <c r="J1" s="33"/>
-    </row>
-    <row r="2" spans="1:14" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="33" t="s">
         <v>80</v>
       </c>
@@ -1288,8 +1315,16 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
-    </row>
-    <row r="4" spans="1:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+    </row>
+    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1314,18 +1349,42 @@
       <c r="H4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="R4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="S4" s="12"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>73</v>
       </c>
@@ -1349,15 +1408,47 @@
       </c>
       <c r="H5" s="8">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="16">
         <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
-      </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" ref="K5:Q5" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="25">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="27"/>
@@ -1372,16 +1463,48 @@
         <v>8</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:I53" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <f t="shared" ref="H6:Q53" ca="1" si="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8"/>
-    </row>
-    <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="26">
@@ -1400,16 +1523,48 @@
         <v>8</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -1424,17 +1579,49 @@
         <v>77</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="25"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -1449,16 +1636,48 @@
         <v>8</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="27"/>
@@ -1473,16 +1692,48 @@
         <v>77</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="26">
@@ -1501,16 +1752,48 @@
         <v>8</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -1525,16 +1808,48 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="27"/>
@@ -1549,16 +1864,48 @@
         <v>8</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="26">
@@ -1577,16 +1924,48 @@
         <v>8</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="27"/>
@@ -1601,16 +1980,48 @@
         <v>77</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I15" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="26">
@@ -1629,16 +2040,48 @@
         <v>77</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -1653,16 +2096,48 @@
         <v>77</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I17" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -1677,16 +2152,48 @@
         <v>77</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="27"/>
@@ -1701,16 +2208,48 @@
         <v>77</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I19" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q19" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="26">
@@ -1729,16 +2268,48 @@
         <v>8</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="25">
+        <f t="shared" ref="K20:Q34" ca="1" si="2">RANDBETWEEN(0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P20" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -1753,16 +2324,48 @@
         <v>77</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q21" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -1777,16 +2380,48 @@
         <v>8</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q22" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -1801,16 +2436,48 @@
         <v>8</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q23" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -1825,16 +2492,48 @@
         <v>8</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J24" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -1849,16 +2548,48 @@
         <v>77</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -1873,16 +2604,48 @@
         <v>8</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="25"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -1897,16 +2660,48 @@
         <v>8</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R27" s="25"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="27"/>
@@ -1921,16 +2716,48 @@
         <v>77</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I28" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="8"/>
-    </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="2">
@@ -1949,16 +2776,48 @@
         <v>77</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="26">
@@ -1977,16 +2836,48 @@
         <v>77</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I30" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J30" s="8"/>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
@@ -2001,19 +2892,51 @@
         <v>77</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J31" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="25">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R31" s="25"/>
+      <c r="S31" s="22">
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
         <v>74</v>
       </c>
@@ -2036,16 +2959,48 @@
         <v>77</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I32" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J32" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R32" s="25"/>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -2060,16 +3015,48 @@
         <v>8</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="8"/>
-    </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R33" s="25"/>
+    </row>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -2084,16 +3071,48 @@
         <v>8</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J34" s="8"/>
-    </row>
-    <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" s="25">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="25"/>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -2108,16 +3127,48 @@
         <v>77</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I35" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J35" s="8"/>
-    </row>
-    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="25">
+        <f t="shared" ref="K35:Q50" ca="1" si="3">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M35" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P35" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="25"/>
+    </row>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="27"/>
@@ -2132,16 +3183,48 @@
         <v>77</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J36" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M36" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="25"/>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="26">
@@ -2160,16 +3243,48 @@
         <v>8</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="8"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J37" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R37" s="25"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -2184,16 +3299,48 @@
         <v>77</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L38" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M38" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="25"/>
+    </row>
+    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
       <c r="C39" s="27"/>
@@ -2208,16 +3355,48 @@
         <v>77</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="8"/>
-    </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J39" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P39" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="25"/>
+    </row>
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
       <c r="C40" s="26">
@@ -2236,16 +3415,48 @@
         <v>8</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J40" s="8"/>
-    </row>
-    <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="25"/>
+    </row>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
@@ -2260,16 +3471,48 @@
         <v>77</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="8"/>
-    </row>
-    <row r="42" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J41" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K41" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L41" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P41" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R41" s="25"/>
+    </row>
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
       <c r="C42" s="27"/>
@@ -2284,16 +3527,48 @@
         <v>8</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="8"/>
-    </row>
-    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R42" s="25"/>
+    </row>
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
       <c r="C43" s="26">
@@ -2312,16 +3587,48 @@
         <v>77</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="8"/>
-    </row>
-    <row r="44" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K43" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L43" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="25"/>
+    </row>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
       <c r="C44" s="27"/>
@@ -2336,16 +3643,48 @@
         <v>77</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J44" s="8"/>
-    </row>
-    <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="M44" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="25"/>
+    </row>
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
       <c r="C45" s="26">
@@ -2364,16 +3703,48 @@
         <v>8</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I45" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J45" s="8"/>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J45" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L45" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N45" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="25"/>
+    </row>
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
       <c r="C46" s="31"/>
@@ -2388,16 +3759,48 @@
         <v>77</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I46" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J46" s="8"/>
-    </row>
-    <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L46" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="25"/>
+    </row>
+    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
       <c r="C47" s="31"/>
@@ -2412,16 +3815,48 @@
         <v>77</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="8"/>
-    </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L47" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N47" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="25"/>
+    </row>
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
       <c r="C48" s="31"/>
@@ -2436,16 +3871,48 @@
         <v>77</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="8"/>
-    </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L48" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N48" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="R48" s="25"/>
+    </row>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
       <c r="C49" s="27"/>
@@ -2460,16 +3927,48 @@
         <v>77</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I49" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J49" s="8"/>
-    </row>
-    <row r="50" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L49" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N49" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R49" s="25"/>
+    </row>
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
       <c r="C50" s="26">
@@ -2488,16 +3987,48 @@
         <v>8</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J50" s="8"/>
-    </row>
-    <row r="51" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J50" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L50" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q50" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R50" s="25"/>
+    </row>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="27"/>
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
@@ -2512,19 +4043,51 @@
         <v>8</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="8"/>
-      <c r="K51" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J51" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K51" s="25">
+        <f t="shared" ref="K51:Q53" ca="1" si="4">RANDBETWEEN(0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P51" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="25"/>
+      <c r="S51" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
         <v>75</v>
       </c>
@@ -2547,16 +4110,48 @@
         <v>8</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J52" s="8"/>
-    </row>
-    <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K52" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N52" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P52" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R52" s="25"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="32"/>
       <c r="B53" s="32"/>
       <c r="C53" s="2">
@@ -2575,19 +4170,51 @@
         <v>8</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="8"/>
-      <c r="K53" s="22">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="25">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M53" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P53" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="25">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="25"/>
+      <c r="S53" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="11"/>
@@ -2597,8 +4224,16 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="11"/>
@@ -2608,8 +4243,16 @@
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="11"/>
@@ -2619,8 +4262,16 @@
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="11"/>
@@ -2630,8 +4281,16 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="11"/>
@@ -2641,8 +4300,16 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="11"/>
@@ -2652,8 +4319,16 @@
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -2663,8 +4338,16 @@
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -2674,8 +4357,16 @@
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -2685,8 +4376,16 @@
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -2696,8 +4395,16 @@
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -2707,8 +4414,16 @@
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="11"/>
@@ -2718,8 +4433,16 @@
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
@@ -2729,14 +4452,22 @@
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B5:B31"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:R2"/>
     <mergeCell ref="D50:D51"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="A5:A31"/>
@@ -2777,7 +4508,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2793,31 +4524,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="M1" s="36" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="M1" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="37"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -2965,16 +4696,16 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="37"/>
+      <c r="O9" s="39"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="39"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -2992,10 +4723,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="35"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -3007,10 +4738,10 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="35"/>
+      <c r="I12" s="36"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -3022,10 +4753,10 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="35"/>
+      <c r="I13" s="36"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -3037,10 +4768,10 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="35"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -3052,10 +4783,10 @@
       <c r="P14" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="37" t="s">
+      <c r="N16" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="37"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M17" s="18" t="s">
@@ -3104,10 +4835,10 @@
       <c r="P21" s="4"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="34"/>
+      <c r="O23" s="37"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="18" t="s">

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -634,11 +634,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -648,15 +657,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,66 +1265,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-    </row>
-    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-    </row>
-    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+    </row>
+    <row r="4" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1384,17 +1384,17 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="26">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28" t="s">
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1407,52 +1407,42 @@
         <v>8</v>
       </c>
       <c r="H5" s="8">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="16">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="25">
-        <f ca="1">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="25">
-        <f t="shared" ref="K5:Q5" ca="1" si="0">RANDBETWEEN(0,1)</f>
         <v>1</v>
       </c>
       <c r="L5" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" s="25">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="O5" s="25">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="P5" s="25">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="25">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="29"/>
+    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1463,54 +1453,44 @@
         <v>8</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" ref="H6:Q53" ca="1" si="1">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L6" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N6" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="26">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="27">
         <v>2</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="31" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1523,52 +1503,42 @@
         <v>8</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O7" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="P7" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="30"/>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1579,53 +1549,43 @@
         <v>77</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J8" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L8" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N8" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="P8" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="30"/>
+    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1636,52 +1596,42 @@
         <v>8</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K9" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O9" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P9" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="Q9" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="29"/>
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1692,54 +1642,44 @@
         <v>77</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K10" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L10" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N10" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O10" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="P10" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="Q10" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="26">
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="27">
         <v>3</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -1752,52 +1692,42 @@
         <v>8</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J11" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K11" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="L11" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M11" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="P11" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="Q11" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="30"/>
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -1808,52 +1738,42 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N12" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="P12" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="29"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -1864,54 +1784,44 @@
         <v>8</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J13" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M13" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="Q13" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="26">
+    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="27">
         <v>4</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -1924,52 +1834,42 @@
         <v>8</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L14" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N14" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O14" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="P14" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="29"/>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -1980,54 +1880,44 @@
         <v>77</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="L15" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M15" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="Q15" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="26">
+    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="27">
         <v>5</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -2040,52 +1930,42 @@
         <v>77</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I16" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K16" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="L16" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N16" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O16" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30"/>
+    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2096,52 +1976,42 @@
         <v>77</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J17" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M17" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="N17" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="Q17" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="R17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30"/>
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2152,52 +2022,42 @@
         <v>77</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J18" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="L18" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="P18" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="Q18" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="29"/>
+    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="32"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2208,54 +2068,44 @@
         <v>77</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K19" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="M19" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="O19" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="26">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27">
         <v>6</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="31" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2268,52 +2118,42 @@
         <v>8</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="25">
-        <f t="shared" ref="K20:Q34" ca="1" si="2">RANDBETWEEN(0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P20" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2324,52 +2164,42 @@
         <v>77</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N21" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O21" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="P21" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30"/>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2380,52 +2210,42 @@
         <v>8</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L22" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="P22" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30"/>
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2436,52 +2256,42 @@
         <v>8</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J23" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N23" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O23" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="P23" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2492,52 +2302,42 @@
         <v>8</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="M24" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="O24" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30"/>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2548,52 +2348,42 @@
         <v>77</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="O25" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30"/>
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2604,52 +2394,42 @@
         <v>8</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2660,52 +2440,42 @@
         <v>8</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I27" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="29"/>
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2716,50 +2486,40 @@
         <v>77</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J28" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K28" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L28" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="M28" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N28" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="P28" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="Q28" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="R28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2776,54 +2536,44 @@
         <v>77</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I29" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="P29" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="Q29" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="26">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="27">
         <v>8</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="31" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -2836,52 +2586,42 @@
         <v>77</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I30" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K30" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="L30" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="M30" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P30" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="29"/>
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -2892,43 +2632,33 @@
         <v>77</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I31" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P31" s="25">
-        <f ca="1">RANDBETWEEN(0,1)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="R31" s="25"/>
@@ -2936,17 +2666,17 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="26" t="s">
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="27">
         <v>9</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="31" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -2959,52 +2689,42 @@
         <v>77</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I32" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K32" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="L32" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="M32" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="O32" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P32" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30"/>
+    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -3015,52 +2735,42 @@
         <v>8</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K33" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="L33" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="N33" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O33" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -3071,52 +2781,42 @@
         <v>8</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K34" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="M34" s="25">
-        <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="O34" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="P34" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30"/>
+    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -3127,52 +2827,42 @@
         <v>77</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I35" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J35" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="25">
-        <f t="shared" ref="K35:Q50" ca="1" si="3">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O35" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q35" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="29"/>
+    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="32"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -3183,54 +2873,44 @@
         <v>77</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L36" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="N36" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="26">
+    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="27">
         <v>10</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="31" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -3243,52 +2923,42 @@
         <v>8</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L37" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="M37" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O37" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P37" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q37" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="30"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="33"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -3299,52 +2969,42 @@
         <v>77</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K38" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="M38" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="N38" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P38" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q38" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="29"/>
+    <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3355,54 +3015,44 @@
         <v>77</v>
       </c>
       <c r="H39" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L39" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M39" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="O39" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="P39" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q39" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="26">
+    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="27">
         <v>11</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="31" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3415,52 +3065,42 @@
         <v>8</v>
       </c>
       <c r="H40" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L40" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P40" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q40" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="33"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3471,52 +3111,42 @@
         <v>77</v>
       </c>
       <c r="H41" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I41" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K41" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="L41" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O41" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="P41" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="29"/>
+    <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="32"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3527,54 +3157,44 @@
         <v>8</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="N42" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="26">
+    <row r="43" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="27">
         <v>12</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="31" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3587,52 +3207,42 @@
         <v>77</v>
       </c>
       <c r="H43" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K43" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="L43" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P43" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="R43" s="25"/>
     </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="29"/>
+    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="32"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3643,54 +3253,44 @@
         <v>77</v>
       </c>
       <c r="H44" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K44" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L44" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="M44" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="O44" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P44" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="25"/>
     </row>
-    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="26">
+    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="27">
         <v>13</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="31" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3703,52 +3303,42 @@
         <v>8</v>
       </c>
       <c r="H45" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="K45" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="L45" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="N45" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O45" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P45" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" s="25"/>
     </row>
-    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30"/>
+    <row r="46" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3759,52 +3349,42 @@
         <v>77</v>
       </c>
       <c r="H46" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J46" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="N46" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O46" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q46" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R46" s="25"/>
     </row>
-    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="30"/>
+    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="33"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3815,52 +3395,42 @@
         <v>77</v>
       </c>
       <c r="H47" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L47" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M47" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="O47" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P47" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q47" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R47" s="25"/>
     </row>
-    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="30"/>
+    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="33"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3871,52 +3441,42 @@
         <v>77</v>
       </c>
       <c r="H48" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J48" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="L48" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="N48" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P48" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="Q48" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" s="25"/>
     </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="29"/>
+    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="32"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3927,54 +3487,44 @@
         <v>77</v>
       </c>
       <c r="H49" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="L49" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="O49" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="P49" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="25"/>
     </row>
-    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="26">
+    <row r="50" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="27">
         <v>14</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="31" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3987,52 +3537,42 @@
         <v>8</v>
       </c>
       <c r="H50" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="16">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="J50" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="M50" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" s="25">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="Q50" s="25">
-        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="29"/>
+    <row r="51" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="32"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -4043,55 +3583,45 @@
         <v>8</v>
       </c>
       <c r="H51" s="8">
-        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
       <c r="I51" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" s="25">
-        <f t="shared" ref="K51:Q53" ca="1" si="4">RANDBETWEEN(0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N51" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="O51" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="P51" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="26" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -4110,50 +3640,40 @@
         <v>8</v>
       </c>
       <c r="H52" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="25">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L52" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="M52" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="N52" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="O52" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="P52" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="Q52" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R52" s="25"/>
     </row>
-    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="32"/>
+    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -4170,51 +3690,41 @@
         <v>8</v>
       </c>
       <c r="H53" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="25">
-        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="K53" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="M53" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="N53" s="25">
-        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="O53" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P53" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="25">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="25"/>
       <c r="S53" s="22">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="11"/>
@@ -4233,7 +3743,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="11"/>
@@ -4252,7 +3762,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="11"/>
@@ -4271,7 +3781,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="11"/>
@@ -4290,7 +3800,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="11"/>
@@ -4309,7 +3819,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="11"/>
@@ -4328,7 +3838,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -4347,7 +3857,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -4366,7 +3876,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -4385,7 +3895,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -4404,7 +3914,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -4423,7 +3933,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="11"/>
@@ -4442,7 +3952,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
@@ -4463,6 +3973,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B5:B31"/>
@@ -4479,24 +4007,6 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4511,19 +4021,19 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="34" t="s">
         <v>99</v>
       </c>
@@ -4543,14 +4053,14 @@
       <c r="O1" s="38"/>
       <c r="P1" s="38"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
       <c r="N2" s="39" t="s">
         <v>107</v>
       </c>
       <c r="O2" s="39"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>81</v>
       </c>
@@ -4588,7 +4098,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -4617,7 +4127,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -4646,7 +4156,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -4675,7 +4185,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -4692,16 +4202,16 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N9" s="39" t="s">
         <v>108</v>
       </c>
       <c r="O9" s="39"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H10" s="35" t="s">
         <v>104</v>
       </c>
@@ -4722,7 +4232,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H11" s="36" t="s">
         <v>89</v>
       </c>
@@ -4737,7 +4247,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H12" s="36" t="s">
         <v>90</v>
       </c>
@@ -4752,7 +4262,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H13" s="36" t="s">
         <v>91</v>
       </c>
@@ -4767,7 +4277,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="H14" s="36" t="s">
         <v>92</v>
       </c>
@@ -4782,13 +4292,13 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="N16" s="39" t="s">
         <v>109</v>
       </c>
       <c r="O16" s="39"/>
     </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M17" s="18" t="s">
         <v>112</v>
       </c>
@@ -4802,7 +4312,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M18" s="8" t="s">
         <v>113</v>
       </c>
@@ -4810,7 +4320,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M19" s="8" t="s">
         <v>114</v>
       </c>
@@ -4818,7 +4328,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M20" s="8" t="s">
         <v>96</v>
       </c>
@@ -4826,7 +4336,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M21" s="8" t="s">
         <v>116</v>
       </c>
@@ -4834,13 +4344,13 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
       <c r="N23" s="37" t="s">
         <v>110</v>
       </c>
       <c r="O23" s="37"/>
     </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M24" s="18" t="s">
         <v>112</v>
       </c>
@@ -4854,7 +4364,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M25" s="8" t="s">
         <v>113</v>
       </c>
@@ -4862,7 +4372,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M26" s="8" t="s">
         <v>114</v>
       </c>
@@ -4870,7 +4380,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M27" s="8" t="s">
         <v>96</v>
       </c>
@@ -4878,7 +4388,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M28" s="8" t="s">
         <v>116</v>
       </c>

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -13,7 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Lembar Survey" sheetId="1" r:id="rId1"/>
-    <sheet name="Skema" sheetId="2" r:id="rId2"/>
+    <sheet name="PRINT SURVEY" sheetId="5" r:id="rId2"/>
+    <sheet name="Custom Pref" sheetId="3" r:id="rId3"/>
+    <sheet name="List Hotel Syariah Bandung" sheetId="4" r:id="rId4"/>
+    <sheet name="Skema" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="145">
   <si>
     <t>NO</t>
   </si>
@@ -406,6 +409,60 @@
   </si>
   <si>
     <t>Hotel 10</t>
+  </si>
+  <si>
+    <t>Index Produk</t>
+  </si>
+  <si>
+    <t>Index pelayanan</t>
+  </si>
+  <si>
+    <t>Makanan dan minuman halal</t>
+  </si>
+  <si>
+    <t>Nama Hotel</t>
+  </si>
+  <si>
+    <t>Jl. DR. Rubini No.4, Pasir Kaliki, Cicendo, Kota Bandung, Jawa Barat, Indonesia</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Ruby Hotel Syariah</t>
+  </si>
+  <si>
+    <t>Cinnamon Hotel Boutique Syariah</t>
+  </si>
+  <si>
+    <t>Jalan Dr. Setiabudhi No. 300, Ledeng, Cidadap, Ledeng, Cidadap, Kota Bandung, Jawa Barat 40154, Indonesia</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>(....................................................................)</t>
+  </si>
+  <si>
+    <t>Hotel Sebelas Syariah</t>
+  </si>
+  <si>
+    <t>Jalan Palasari No.32, Lengkong, Bandung, Jawa Barat, Indonesia, 40263</t>
+  </si>
+  <si>
+    <t>The Naripan Hotel</t>
+  </si>
+  <si>
+    <t>Jln Naripan 31 - 35 Bandung, Braga, Bandung, Jawa Barat, Indonesia, 40111</t>
+  </si>
+  <si>
+    <t>Favehotel Braga Bandung</t>
+  </si>
+  <si>
+    <t>Jalan Braga No. 99 - 101, Braga, Bandung, Jawa Barat, Indonesia, 40111</t>
+  </si>
+  <si>
+    <t>https://forms.gle/XGpv7zzypF7GRYrN9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +473,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +501,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -567,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,17 +708,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -657,6 +750,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1265,66 +1367,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-    </row>
-    <row r="2" spans="1:22" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-    </row>
-    <row r="4" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+    </row>
+    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1384,17 +1486,17 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31" t="s">
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1438,11 +1540,11 @@
       </c>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="32"/>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1484,13 +1586,13 @@
       </c>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="27">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="37">
         <v>2</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1503,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="H7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="16">
         <v>0</v>
       </c>
       <c r="J7" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="25">
         <v>0</v>
@@ -1534,11 +1636,11 @@
       </c>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="33"/>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1549,13 +1651,13 @@
         <v>77</v>
       </c>
       <c r="H8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="16">
         <v>0</v>
       </c>
       <c r="J8" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="25">
         <v>0</v>
@@ -1581,11 +1683,11 @@
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="33"/>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1627,11 +1729,11 @@
       </c>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="32"/>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1673,13 +1775,13 @@
       </c>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="27">
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="37">
         <v>3</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="39" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -1723,11 +1825,11 @@
       </c>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="33"/>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -1769,11 +1871,11 @@
       </c>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="32"/>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -1815,13 +1917,13 @@
       </c>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="27">
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="37">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="39" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -1865,11 +1967,11 @@
       </c>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="32"/>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -1911,13 +2013,13 @@
       </c>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="27">
+    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="37">
         <v>5</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="39" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -1961,11 +2063,11 @@
       </c>
       <c r="R16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="33"/>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2007,11 +2109,11 @@
       </c>
       <c r="R17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="33"/>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2053,11 +2155,11 @@
       </c>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="32"/>
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2099,13 +2201,13 @@
       </c>
       <c r="R19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="37">
         <v>6</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2149,11 +2251,11 @@
       </c>
       <c r="R20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="33"/>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2195,11 +2297,11 @@
       </c>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2241,11 +2343,11 @@
       </c>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="33"/>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2287,11 +2389,11 @@
       </c>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="33"/>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2333,11 +2435,11 @@
       </c>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="33"/>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2379,11 +2481,11 @@
       </c>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="33"/>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2425,11 +2527,11 @@
       </c>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="33"/>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2471,11 +2573,11 @@
       </c>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="32"/>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2517,9 +2619,9 @@
       </c>
       <c r="R28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2567,13 +2669,13 @@
       </c>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="27">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="37">
         <v>8</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="D30" s="39" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -2617,11 +2719,11 @@
       </c>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="32"/>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -2666,17 +2768,17 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="37">
         <v>9</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="39" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -2720,11 +2822,11 @@
       </c>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="33"/>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -2766,11 +2868,11 @@
       </c>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="33"/>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -2812,11 +2914,11 @@
       </c>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="33"/>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="41"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -2858,11 +2960,11 @@
       </c>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="32"/>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="40"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -2904,13 +3006,13 @@
       </c>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="27">
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="37">
         <v>10</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="39" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -2923,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="16">
         <v>0</v>
@@ -2954,11 +3056,11 @@
       </c>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="33"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="41"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -2969,7 +3071,7 @@
         <v>77</v>
       </c>
       <c r="H38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="16">
         <v>1</v>
@@ -3000,11 +3102,11 @@
       </c>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="32"/>
+    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3046,13 +3148,13 @@
       </c>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="27">
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="37">
         <v>11</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="39" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3096,11 +3198,11 @@
       </c>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="33"/>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="41"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3142,11 +3244,11 @@
       </c>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="32"/>
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="40"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3188,13 +3290,13 @@
       </c>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="27">
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="37">
         <v>12</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="39" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3238,11 +3340,11 @@
       </c>
       <c r="R43" s="25"/>
     </row>
-    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="32"/>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3284,13 +3386,13 @@
       </c>
       <c r="R44" s="25"/>
     </row>
-    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="27">
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="37">
         <v>13</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D45" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3334,11 +3436,11 @@
       </c>
       <c r="R45" s="25"/>
     </row>
-    <row r="46" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="33"/>
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="41"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3380,11 +3482,11 @@
       </c>
       <c r="R46" s="25"/>
     </row>
-    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="33"/>
+    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="41"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3426,11 +3528,11 @@
       </c>
       <c r="R47" s="25"/>
     </row>
-    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="33"/>
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="41"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3472,11 +3574,11 @@
       </c>
       <c r="R48" s="25"/>
     </row>
-    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="32"/>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3518,13 +3620,13 @@
       </c>
       <c r="R49" s="25"/>
     </row>
-    <row r="50" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="27">
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="37">
         <v>14</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="39" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3568,11 +3670,11 @@
       </c>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="32"/>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -3617,11 +3719,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="26" t="s">
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="43" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -3671,9 +3773,9 @@
       </c>
       <c r="R52" s="25"/>
     </row>
-    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -3724,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="11"/>
@@ -3743,7 +3845,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="11"/>
@@ -3762,7 +3864,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="11"/>
@@ -3781,7 +3883,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="11"/>
@@ -3800,7 +3902,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="11"/>
@@ -3819,7 +3921,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="11"/>
@@ -3838,7 +3940,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -3857,7 +3959,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -3876,7 +3978,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -3895,7 +3997,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -3914,7 +4016,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -3933,7 +4035,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="11"/>
@@ -3952,7 +4054,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
@@ -3973,24 +4075,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B5:B31"/>
@@ -4007,6 +4091,24 @@
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4015,52 +4117,2145 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="10" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
+    <col min="7" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+    </row>
+    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+    </row>
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1</v>
+      </c>
+      <c r="D5" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="29"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="29">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="37">
+        <v>2</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="29">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="29">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="29"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="21"/>
+    </row>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="29">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="29"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="29">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="29"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="37">
+        <v>3</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="29">
+        <v>7</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="29">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="29"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="29">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="37">
+        <v>4</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="29">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="29">
+        <v>11</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="37">
+        <v>5</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="29">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="29">
+        <v>13</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="29">
+        <v>14</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="29">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="37">
+        <v>6</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="29">
+        <v>16</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="29">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="29">
+        <v>18</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="29">
+        <v>19</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="29">
+        <v>20</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="29">
+        <v>21</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="29">
+        <v>22</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="29">
+        <v>23</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="29">
+        <v>24</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+    </row>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="29">
+        <v>7</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="29">
+        <v>25</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+    </row>
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="37">
+        <v>8</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="29">
+        <v>26</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="29"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+    </row>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="29">
+        <v>27</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="29"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="12"/>
+    </row>
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="37">
+        <v>9</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="29">
+        <v>28</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="29"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+    </row>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="29">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="29"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+    </row>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="29">
+        <v>30</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="29"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+    </row>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="29">
+        <v>31</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="29"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+    </row>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="29">
+        <v>32</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="29"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+    </row>
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="37">
+        <v>10</v>
+      </c>
+      <c r="D37" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="29">
+        <v>33</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="29"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="29">
+        <v>34</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="29"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+    </row>
+    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="29">
+        <v>35</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="29"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+    </row>
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="37">
+        <v>11</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="29">
+        <v>36</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="29"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+    </row>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="29">
+        <v>37</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="29"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+    </row>
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="29">
+        <v>38</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="29"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+    </row>
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="37">
+        <v>12</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="29">
+        <v>39</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="29"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+    </row>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="29">
+        <v>40</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G44" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="29"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+    </row>
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="37">
+        <v>13</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" s="29">
+        <v>41</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="29"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+    </row>
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="29">
+        <v>42</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="29"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+    </row>
+    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="29">
+        <v>43</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="29"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+    </row>
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="29">
+        <v>44</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="29"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+    </row>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="29">
+        <v>45</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="11"/>
+      <c r="R49" s="11"/>
+    </row>
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="37">
+        <v>14</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="29">
+        <v>46</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+    </row>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="29">
+        <v>47</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="11"/>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="12"/>
+    </row>
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="29">
+        <v>15</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="29">
+        <v>48</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+    </row>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="29">
+        <v>16</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="29">
+        <v>49</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="12"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="11"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+    </row>
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="11"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="11"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="11"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="11"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="11"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="11"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="11"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="11"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="11"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="11"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="A32:A51"/>
+    <mergeCell ref="B32:B51"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="26">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="26">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="26">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="26">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="26">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="26">
+        <v>25</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="26">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="26">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A8:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="M1" s="38" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="M1" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O2" s="50"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>81</v>
       </c>
@@ -4098,7 +6293,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -4127,7 +6322,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -4156,7 +6351,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -4185,7 +6380,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -4202,20 +6397,20 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N9" s="39" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="39"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H10" s="35" t="s">
+      <c r="O9" s="50"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H10" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="35"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -4232,11 +6427,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H11" s="36" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H11" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="36"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -4247,11 +6442,11 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H12" s="36" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="36"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -4262,11 +6457,11 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H13" s="36" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="36"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -4277,11 +6472,11 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H14" s="36" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="36"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -4292,13 +6487,13 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N16" s="39" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="39"/>
-    </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M17" s="18" t="s">
         <v>112</v>
       </c>
@@ -4312,7 +6507,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M18" s="8" t="s">
         <v>113</v>
       </c>
@@ -4320,7 +6515,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M19" s="8" t="s">
         <v>114</v>
       </c>
@@ -4328,7 +6523,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M20" s="8" t="s">
         <v>96</v>
       </c>
@@ -4336,7 +6531,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M21" s="8" t="s">
         <v>116</v>
       </c>
@@ -4344,13 +6539,13 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="N23" s="37" t="s">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="37"/>
-    </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="48"/>
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="18" t="s">
         <v>112</v>
       </c>
@@ -4364,7 +6559,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M25" s="8" t="s">
         <v>113</v>
       </c>
@@ -4372,7 +6567,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M26" s="8" t="s">
         <v>114</v>
       </c>
@@ -4380,7 +6575,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M27" s="8" t="s">
         <v>96</v>
       </c>
@@ -4388,7 +6583,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M28" s="8" t="s">
         <v>116</v>
       </c>

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar Survey" sheetId="1" r:id="rId1"/>
-    <sheet name="PRINT SURVEY" sheetId="5" r:id="rId2"/>
-    <sheet name="Custom Pref" sheetId="3" r:id="rId3"/>
-    <sheet name="List Hotel Syariah Bandung" sheetId="4" r:id="rId4"/>
-    <sheet name="Skema" sheetId="2" r:id="rId5"/>
+    <sheet name="Hitung hitung" sheetId="6" r:id="rId2"/>
+    <sheet name="PRINT SURVEY" sheetId="5" r:id="rId3"/>
+    <sheet name="Custom Pref" sheetId="3" r:id="rId4"/>
+    <sheet name="List Hotel Syariah Bandung" sheetId="4" r:id="rId5"/>
+    <sheet name="Skema" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="151">
   <si>
     <t>NO</t>
   </si>
@@ -381,30 +382,6 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Hotel 2</t>
-  </si>
-  <si>
-    <t>Hotel 1</t>
-  </si>
-  <si>
-    <t>Hotel 3</t>
-  </si>
-  <si>
-    <t>Hotel 4</t>
-  </si>
-  <si>
-    <t>Hotel 5</t>
-  </si>
-  <si>
-    <t>Hotel 6</t>
-  </si>
-  <si>
-    <t>Hotel 7</t>
-  </si>
-  <si>
-    <t>Hotel 8</t>
-  </si>
-  <si>
     <t>Hotel 9</t>
   </si>
   <si>
@@ -463,15 +440,59 @@
   </si>
   <si>
     <t>https://forms.gle/XGpv7zzypF7GRYrN9</t>
+  </si>
+  <si>
+    <t>Grand Asrilia Hotel</t>
+  </si>
+  <si>
+    <t>Horison Hotel</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Yello Hotel Harmoni</t>
+  </si>
+  <si>
+    <t>Aston Pasteur</t>
+  </si>
+  <si>
+    <t>Aston Braga Hotel</t>
+  </si>
+  <si>
+    <t>Four Points by Sheraton Bandung</t>
+  </si>
+  <si>
+    <t>Hotel Hilton</t>
+  </si>
+  <si>
+    <t>Shakti Hotel Bandung</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Pref</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>Selisih</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -540,7 +561,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -633,12 +654,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -736,6 +766,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1365,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y45" sqref="Y45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1380,51 +1433,59 @@
     <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="17" width="9.140625" style="1"/>
+    <col min="8" max="8" width="28.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="1"/>
     <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1449,34 +1510,34 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q4" s="23" t="s">
         <v>118</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q4" s="23" t="s">
-        <v>126</v>
       </c>
       <c r="R4" s="23" t="s">
         <v>78</v>
@@ -1487,16 +1548,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="48">
+        <v>1</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1509,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="16">
         <v>1</v>
@@ -1524,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="25">
         <v>1</v>
@@ -1541,10 +1602,10 @@
       <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1558,13 +1619,13 @@
         <v>1</v>
       </c>
       <c r="I6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="25">
         <v>1</v>
@@ -1573,10 +1634,10 @@
         <v>1</v>
       </c>
       <c r="N6" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="25">
         <v>0</v>
@@ -1587,12 +1648,12 @@
       <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="37">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="48">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1608,25 +1669,25 @@
         <v>1</v>
       </c>
       <c r="I7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="25">
         <v>1</v>
       </c>
       <c r="K7" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="25">
         <v>1</v>
       </c>
       <c r="M7" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="25">
         <v>1</v>
       </c>
       <c r="O7" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" s="25">
         <v>0</v>
@@ -1637,10 +1698,10 @@
       <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1654,25 +1715,25 @@
         <v>1</v>
       </c>
       <c r="I8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="25">
         <v>0</v>
       </c>
       <c r="L8" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="25">
         <v>0</v>
       </c>
       <c r="O8" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="25">
         <v>1</v>
@@ -1684,10 +1745,10 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="41"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1719,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" s="25">
         <v>1</v>
@@ -1730,10 +1791,10 @@
       <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1753,16 +1814,16 @@
         <v>1</v>
       </c>
       <c r="K10" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="25">
         <v>1</v>
@@ -1776,12 +1837,12 @@
       <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="37">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="48">
         <v>3</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="50" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -1800,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="J11" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="25">
         <v>1</v>
@@ -1812,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="25">
         <v>1</v>
@@ -1826,10 +1887,10 @@
       <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -1840,10 +1901,10 @@
         <v>8</v>
       </c>
       <c r="H12" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="25">
         <v>0</v>
@@ -1852,13 +1913,13 @@
         <v>1</v>
       </c>
       <c r="L12" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="25">
         <v>1</v>
       </c>
       <c r="N12" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="25">
         <v>0</v>
@@ -1872,10 +1933,10 @@
       <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -1886,25 +1947,25 @@
         <v>8</v>
       </c>
       <c r="H13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="25">
         <v>1</v>
       </c>
       <c r="M13" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="25">
         <v>1</v>
@@ -1918,12 +1979,12 @@
       <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="37">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="48">
         <v>4</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="50" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -1936,16 +1997,16 @@
         <v>8</v>
       </c>
       <c r="H14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="25">
         <v>1</v>
       </c>
       <c r="K14" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="25">
         <v>1</v>
@@ -1957,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="25">
         <v>0</v>
@@ -1968,10 +2029,10 @@
       <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -1985,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="25">
         <v>1</v>
@@ -2000,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" s="25">
         <v>1</v>
@@ -2014,12 +2075,12 @@
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="37">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="48">
         <v>5</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -2035,16 +2096,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="25">
         <v>1</v>
       </c>
       <c r="K16" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="25">
         <v>1</v>
@@ -2053,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="25">
         <v>1</v>
@@ -2064,10 +2125,10 @@
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2078,16 +2139,16 @@
         <v>77</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="25">
         <v>0</v>
       </c>
       <c r="K17" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" s="25">
         <v>1</v>
@@ -2096,10 +2157,10 @@
         <v>1</v>
       </c>
       <c r="N17" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="25">
         <v>1</v>
@@ -2110,10 +2171,10 @@
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2130,22 +2191,22 @@
         <v>1</v>
       </c>
       <c r="J18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="25">
         <v>1</v>
       </c>
       <c r="M18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="25">
         <v>1</v>
@@ -2156,10 +2217,10 @@
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2170,7 +2231,7 @@
         <v>77</v>
       </c>
       <c r="H19" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="16">
         <v>1</v>
@@ -2185,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="25">
         <v>1</v>
@@ -2202,12 +2263,12 @@
       <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="37">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="48">
         <v>6</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="50" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2220,7 +2281,7 @@
         <v>8</v>
       </c>
       <c r="H20" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="16">
         <v>1</v>
@@ -2229,10 +2290,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="25">
         <v>1</v>
@@ -2252,10 +2313,10 @@
       <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2266,10 +2327,10 @@
         <v>77</v>
       </c>
       <c r="H21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" s="25">
         <v>0</v>
@@ -2278,7 +2339,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="25">
         <v>1</v>
@@ -2287,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" s="25">
         <v>0</v>
@@ -2298,10 +2359,10 @@
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2315,25 +2376,25 @@
         <v>1</v>
       </c>
       <c r="I22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="25">
         <v>1</v>
       </c>
       <c r="M22" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="25">
         <v>0</v>
@@ -2344,10 +2405,10 @@
       <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2358,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="H23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="25">
         <v>1</v>
@@ -2379,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" s="25">
         <v>0</v>
@@ -2390,10 +2451,10 @@
       <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2404,28 +2465,28 @@
         <v>8</v>
       </c>
       <c r="H24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="16">
         <v>1</v>
       </c>
       <c r="J24" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="25">
         <v>1</v>
       </c>
       <c r="M24" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="25">
         <v>1</v>
@@ -2436,10 +2497,10 @@
       <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2450,7 +2511,7 @@
         <v>77</v>
       </c>
       <c r="H25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="16">
         <v>1</v>
@@ -2459,19 +2520,19 @@
         <v>1</v>
       </c>
       <c r="K25" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="25">
         <v>1</v>
@@ -2482,10 +2543,10 @@
       <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2499,25 +2560,25 @@
         <v>1</v>
       </c>
       <c r="I26" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="25">
         <v>1</v>
       </c>
       <c r="M26" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="25">
         <v>1</v>
       </c>
       <c r="O26" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="25">
         <v>0</v>
@@ -2528,10 +2589,10 @@
       <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2545,13 +2606,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="25">
         <v>1</v>
       </c>
       <c r="K27" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" s="25">
         <v>1</v>
@@ -2574,10 +2635,10 @@
       <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2591,13 +2652,13 @@
         <v>1</v>
       </c>
       <c r="I28" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="25">
         <v>1</v>
       </c>
       <c r="K28" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="25">
         <v>1</v>
@@ -2606,10 +2667,10 @@
         <v>1</v>
       </c>
       <c r="N28" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="25">
         <v>1</v>
@@ -2620,8 +2681,8 @@
       <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2641,16 +2702,16 @@
         <v>1</v>
       </c>
       <c r="I29" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="25">
         <v>0</v>
       </c>
       <c r="L29" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="25">
         <v>0</v>
@@ -2670,12 +2731,12 @@
       <c r="R29" s="25"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="37">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="48">
         <v>8</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -2687,14 +2748,14 @@
       <c r="G30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="8">
-        <v>1</v>
+      <c r="H30" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I30" s="16">
         <v>1</v>
       </c>
       <c r="J30" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="25">
         <v>1</v>
@@ -2702,11 +2763,11 @@
       <c r="L30" s="25">
         <v>1</v>
       </c>
-      <c r="M30" s="25">
-        <v>0</v>
+      <c r="M30" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="N30" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="25">
         <v>1</v>
@@ -2720,10 +2781,10 @@
       <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -2733,14 +2794,14 @@
       <c r="G31" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="8">
-        <v>1</v>
+      <c r="H31" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I31" s="16">
         <v>0</v>
       </c>
       <c r="J31" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="25">
         <v>1</v>
@@ -2748,8 +2809,8 @@
       <c r="L31" s="25">
         <v>1</v>
       </c>
-      <c r="M31" s="25">
-        <v>1</v>
+      <c r="M31" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="N31" s="25">
         <v>1</v>
@@ -2769,16 +2830,16 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="48">
         <v>9</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="50" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -2791,7 +2852,7 @@
         <v>77</v>
       </c>
       <c r="H32" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="16">
         <v>0</v>
@@ -2806,13 +2867,13 @@
         <v>0</v>
       </c>
       <c r="M32" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" s="25">
         <v>0</v>
       </c>
       <c r="O32" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="25">
         <v>1</v>
@@ -2822,11 +2883,11 @@
       </c>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
+    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -2837,19 +2898,19 @@
         <v>8</v>
       </c>
       <c r="H33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="25">
         <v>1</v>
       </c>
       <c r="L33" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="25">
         <v>1</v>
@@ -2868,11 +2929,11 @@
       </c>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -2883,25 +2944,25 @@
         <v>8</v>
       </c>
       <c r="H34" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="16">
         <v>0</v>
       </c>
       <c r="J34" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" s="25">
         <v>0</v>
       </c>
       <c r="L34" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="25">
         <v>1</v>
       </c>
       <c r="N34" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="25">
         <v>1</v>
@@ -2914,11 +2975,11 @@
       </c>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41"/>
+    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -2929,13 +2990,13 @@
         <v>77</v>
       </c>
       <c r="H35" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="25">
         <v>1</v>
@@ -2947,7 +3008,7 @@
         <v>1</v>
       </c>
       <c r="N35" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" s="25">
         <v>0</v>
@@ -2960,11 +3021,11 @@
       </c>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="40"/>
+    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -2978,19 +3039,19 @@
         <v>1</v>
       </c>
       <c r="I36" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" s="25">
         <v>1</v>
@@ -3006,13 +3067,13 @@
       </c>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="37">
+    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="48">
         <v>10</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="50" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -3028,13 +3089,13 @@
         <v>1</v>
       </c>
       <c r="I37" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="25">
         <v>1</v>
       </c>
       <c r="K37" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" s="25">
         <v>1</v>
@@ -3043,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="N37" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="25">
         <v>0</v>
@@ -3056,11 +3117,11 @@
       </c>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="41"/>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -3102,11 +3163,11 @@
       </c>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="40"/>
+    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3120,16 +3181,16 @@
         <v>1</v>
       </c>
       <c r="I39" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="25">
         <v>1</v>
@@ -3138,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="O39" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="25">
         <v>0</v>
@@ -3148,13 +3209,13 @@
       </c>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="37">
+    <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="48">
         <v>11</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3167,16 +3228,16 @@
         <v>8</v>
       </c>
       <c r="H40" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="25">
         <v>1</v>
       </c>
       <c r="K40" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" s="25">
         <v>1</v>
@@ -3188,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="O40" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" s="25">
         <v>0</v>
@@ -3198,11 +3259,11 @@
       </c>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="41"/>
+    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3216,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="I41" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="25">
         <v>1</v>
@@ -3228,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="M41" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" s="25">
         <v>1</v>
@@ -3244,11 +3305,11 @@
       </c>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="40"/>
+    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3262,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="I42" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="25">
         <v>0</v>
@@ -3290,13 +3351,13 @@
       </c>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="37">
+    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="48">
         <v>12</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="50" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3308,23 +3369,23 @@
       <c r="G43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H43" s="8">
-        <v>0</v>
+      <c r="H43" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I43" s="16">
         <v>1</v>
       </c>
       <c r="J43" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="25">
         <v>0</v>
@@ -3339,12 +3400,15 @@
         <v>1</v>
       </c>
       <c r="R43" s="25"/>
-    </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="40"/>
+      <c r="T43" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3354,23 +3418,23 @@
       <c r="G44" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H44" s="8">
-        <v>0</v>
+      <c r="H44" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I44" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="25">
         <v>0</v>
       </c>
       <c r="L44" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="25">
         <v>1</v>
@@ -3385,14 +3449,17 @@
         <v>1</v>
       </c>
       <c r="R44" s="25"/>
-    </row>
-    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="37">
+      <c r="T44" s="46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="48">
         <v>13</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="50" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3404,11 +3471,11 @@
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="8">
-        <v>1</v>
+      <c r="H45" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I45" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="25">
         <v>1</v>
@@ -3419,14 +3486,14 @@
       <c r="L45" s="25">
         <v>1</v>
       </c>
-      <c r="M45" s="25">
-        <v>1</v>
+      <c r="M45" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="N45" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="25">
         <v>0</v>
@@ -3435,12 +3502,24 @@
         <v>0</v>
       </c>
       <c r="R45" s="25"/>
-    </row>
-    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="41"/>
+      <c r="T45" s="46">
+        <v>1</v>
+      </c>
+      <c r="V45">
+        <v>0.5</v>
+      </c>
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3450,29 +3529,29 @@
       <c r="G46" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H46" s="8">
-        <v>0</v>
+      <c r="H46" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I46" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" s="25">
         <v>0</v>
       </c>
       <c r="L46" s="25">
-        <v>1</v>
-      </c>
-      <c r="M46" s="25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="M46" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="N46" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" s="25">
         <v>0</v>
@@ -3481,12 +3560,21 @@
         <v>0</v>
       </c>
       <c r="R46" s="25"/>
-    </row>
-    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="41"/>
+      <c r="V46">
+        <v>25</v>
+      </c>
+      <c r="W46">
+        <v>50</v>
+      </c>
+      <c r="X46">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3496,29 +3584,29 @@
       <c r="G47" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H47" s="8">
-        <v>1</v>
+      <c r="H47" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I47" s="16">
         <v>1</v>
       </c>
       <c r="J47" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" s="25">
-        <v>0</v>
-      </c>
-      <c r="M47" s="25">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="M47" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="N47" s="25">
         <v>1</v>
       </c>
       <c r="O47" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47" s="25">
         <v>0</v>
@@ -3528,11 +3616,11 @@
       </c>
       <c r="R47" s="25"/>
     </row>
-    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="41"/>
+    <row r="48" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3542,8 +3630,8 @@
       <c r="G48" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H48" s="8">
-        <v>1</v>
+      <c r="H48" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -3557,14 +3645,14 @@
       <c r="L48" s="25">
         <v>1</v>
       </c>
-      <c r="M48" s="25">
-        <v>1</v>
+      <c r="M48" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="N48" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O48" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" s="25">
         <v>0</v>
@@ -3575,10 +3663,10 @@
       <c r="R48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="40"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3588,14 +3676,14 @@
       <c r="G49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H49" s="8">
-        <v>0</v>
+      <c r="H49" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I49" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="25">
         <v>1</v>
@@ -3603,11 +3691,11 @@
       <c r="L49" s="25">
         <v>1</v>
       </c>
-      <c r="M49" s="25">
-        <v>0</v>
+      <c r="M49" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="N49" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" s="25">
         <v>0</v>
@@ -3621,12 +3709,12 @@
       <c r="R49" s="25"/>
     </row>
     <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="37">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="48">
         <v>14</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3648,19 +3736,19 @@
         <v>1</v>
       </c>
       <c r="K50" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" s="25">
         <v>1</v>
@@ -3671,10 +3759,10 @@
       <c r="R50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="40"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -3688,25 +3776,25 @@
         <v>1</v>
       </c>
       <c r="I51" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" s="25">
         <v>0</v>
       </c>
       <c r="M51" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="25">
         <v>1</v>
       </c>
       <c r="O51" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" s="25">
         <v>1</v>
@@ -3720,10 +3808,10 @@
       </c>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="54" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -3742,19 +3830,19 @@
         <v>8</v>
       </c>
       <c r="H52" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="16">
         <v>1</v>
       </c>
       <c r="J52" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="25">
         <v>1</v>
@@ -3774,8 +3862,8 @@
       <c r="R52" s="25"/>
     </row>
     <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -3792,13 +3880,13 @@
         <v>8</v>
       </c>
       <c r="H53" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="16">
         <v>1</v>
       </c>
       <c r="J53" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="25">
         <v>1</v>
@@ -3807,13 +3895,13 @@
         <v>1</v>
       </c>
       <c r="M53" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="25">
         <v>1</v>
       </c>
       <c r="O53" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="25">
         <v>0</v>
@@ -3863,6 +3951,10 @@
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
+      <c r="S55">
+        <f>20.5+14+2</f>
+        <v>36.5</v>
+      </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
@@ -4117,6 +4209,409 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="43">
+        <v>0.94871795000000003</v>
+      </c>
+      <c r="C2" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="43">
+        <v>1</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="4">
+        <f>(B2-B12)/(B13-B12)</f>
+        <v>0.84981684713500782</v>
+      </c>
+      <c r="H2" s="4">
+        <f>(C2-MIN(C2:C9))/(MAX(C2:C9)-MIN(C2:C9))</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="43">
+        <v>0.97560979999999997</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0.85714287</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="4">
+        <f>(B3-B12)/(B13-B12)</f>
+        <v>0.92857155408163794</v>
+      </c>
+      <c r="H3" s="4">
+        <f>(C3-C12)/(C14)</f>
+        <v>0.88235298154555764</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="43">
+        <v>0.65853660000000003</v>
+      </c>
+      <c r="C4" s="43">
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="4">
+        <f>(B4-B12)/B14</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <f>(C4-C12)/(C14)</f>
+        <v>0.39215681053441209</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="43">
+        <v>0.92682929999999997</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1</v>
+      </c>
+      <c r="F5" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="4">
+        <f>(B5-B12)/B14</f>
+        <v>0.78571436938775863</v>
+      </c>
+      <c r="H5" s="4">
+        <f>(C5-C12)/(C14)</f>
+        <v>0.39215681053441209</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="43">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="43">
+        <v>1</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="4">
+        <f>(B6-B12)/B14</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(C6-C12)/(C14)</f>
+        <v>0.5882353118800453</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="43">
+        <v>0.84615386000000004</v>
+      </c>
+      <c r="C7" s="43">
+        <v>0.86363639999999997</v>
+      </c>
+      <c r="D7" s="43">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="4">
+        <f>(B7-B12)/B14</f>
+        <v>0.54945057069073877</v>
+      </c>
+      <c r="H7" s="4">
+        <f>(C7-C12)/(C14)</f>
+        <v>0.90017835724720796</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="43">
+        <v>0.9512195</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0.85714287</v>
+      </c>
+      <c r="D8" s="43">
+        <v>1</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="4">
+        <f>(B8-B12)/B14</f>
+        <v>0.85714281530612069</v>
+      </c>
+      <c r="H8" s="4">
+        <f>(C8-C12)/(C14)</f>
+        <v>0.88235298154555764</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="43">
+        <v>0.75609755999999995</v>
+      </c>
+      <c r="C9" s="43">
+        <v>0.53571427000000005</v>
+      </c>
+      <c r="D9" s="43">
+        <v>1</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="G9" s="4">
+        <f>(B9-B12)/B14</f>
+        <v>0.28571425224489633</v>
+      </c>
+      <c r="H9" s="4">
+        <f>(C9-C12)/(C14)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="44">
+        <v>3.28</v>
+      </c>
+      <c r="C10" s="44">
+        <v>3.39</v>
+      </c>
+      <c r="D10" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="45">
+        <f>MIN(B2:B9)</f>
+        <v>0.65853660000000003</v>
+      </c>
+      <c r="C12" s="45">
+        <f t="shared" ref="C12:D12" si="0">MIN(C2:C9)</f>
+        <v>0.53571427000000005</v>
+      </c>
+      <c r="D12" s="45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="45">
+        <f>MAX(B2:B9)</f>
+        <v>1</v>
+      </c>
+      <c r="C13" s="45">
+        <f t="shared" ref="C13:D13" si="1">MAX(C2:C9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D13" s="45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="45">
+        <f>B13-B12</f>
+        <v>0.34146339999999997</v>
+      </c>
+      <c r="C14" s="45">
+        <f t="shared" ref="C14:D14" si="2">C13-C12</f>
+        <v>0.36428572999999997</v>
+      </c>
+      <c r="D14" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>(B10/15)*100</f>
+        <v>21.866666666666664</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:D17" si="3">(C10/15)*100</f>
+        <v>22.6</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="3"/>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>SUM(B17:D17)</f>
+        <v>77.8</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="F20">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="G20">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H20">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <f>SUM(F20:H20)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -4136,15 +4631,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -4157,15 +4652,15 @@
       <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -4200,7 +4695,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -4218,16 +4713,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="37">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="48">
+        <v>1</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -4252,10 +4747,10 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="40"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="29">
         <v>2</v>
       </c>
@@ -4278,12 +4773,12 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="37">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="48">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="29">
@@ -4308,10 +4803,10 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="41"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="52"/>
       <c r="E8" s="29">
         <v>4</v>
       </c>
@@ -4335,10 +4830,10 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="41"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="29">
         <v>5</v>
       </c>
@@ -4361,10 +4856,10 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="40"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="29">
         <v>6</v>
       </c>
@@ -4387,12 +4882,12 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="37">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="48">
         <v>3</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="50" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="29">
@@ -4417,10 +4912,10 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="41"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="29">
         <v>8</v>
       </c>
@@ -4443,10 +4938,10 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="40"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="51"/>
       <c r="E13" s="29">
         <v>9</v>
       </c>
@@ -4469,12 +4964,12 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="37">
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="48">
         <v>4</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="50" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="29">
@@ -4499,10 +4994,10 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="40"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="29">
         <v>11</v>
       </c>
@@ -4525,12 +5020,12 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="37">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="48">
         <v>5</v>
       </c>
-      <c r="D16" s="39" t="s">
+      <c r="D16" s="50" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="29">
@@ -4555,10 +5050,10 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="41"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="52"/>
       <c r="E17" s="29">
         <v>13</v>
       </c>
@@ -4581,10 +5076,10 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="41"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="52"/>
       <c r="E18" s="29">
         <v>14</v>
       </c>
@@ -4607,10 +5102,10 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="40"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="29">
         <v>15</v>
       </c>
@@ -4633,12 +5128,12 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="37">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="48">
         <v>6</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="50" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="29">
@@ -4663,10 +5158,10 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="41"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="29">
         <v>17</v>
       </c>
@@ -4689,10 +5184,10 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="41"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="52"/>
       <c r="E22" s="29">
         <v>18</v>
       </c>
@@ -4715,10 +5210,10 @@
       <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="41"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="52"/>
       <c r="E23" s="29">
         <v>19</v>
       </c>
@@ -4741,10 +5236,10 @@
       <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="41"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="52"/>
       <c r="E24" s="29">
         <v>20</v>
       </c>
@@ -4767,10 +5262,10 @@
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="41"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="29">
         <v>21</v>
       </c>
@@ -4793,10 +5288,10 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="41"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="52"/>
       <c r="E26" s="29">
         <v>22</v>
       </c>
@@ -4819,10 +5314,10 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="41"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="52"/>
       <c r="E27" s="29">
         <v>23</v>
       </c>
@@ -4845,10 +5340,10 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="40"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="29">
         <v>24</v>
       </c>
@@ -4871,8 +5366,8 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="29">
         <v>7</v>
       </c>
@@ -4901,12 +5396,12 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="37">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="48">
         <v>8</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="50" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="29">
@@ -4931,10 +5426,10 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="40"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="51"/>
       <c r="E31" s="29">
         <v>27</v>
       </c>
@@ -4958,16 +5453,16 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="48">
         <v>9</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="50" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="29">
@@ -4992,10 +5487,10 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="41"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="52"/>
       <c r="E33" s="29">
         <v>29</v>
       </c>
@@ -5018,10 +5513,10 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="41"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="52"/>
       <c r="E34" s="29">
         <v>30</v>
       </c>
@@ -5044,10 +5539,10 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="41"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="52"/>
       <c r="E35" s="29">
         <v>31</v>
       </c>
@@ -5070,10 +5565,10 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="40"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51"/>
       <c r="E36" s="29">
         <v>32</v>
       </c>
@@ -5096,12 +5591,12 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="37">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="48">
         <v>10</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="50" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="29">
@@ -5126,10 +5621,10 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="41"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="52"/>
       <c r="E38" s="29">
         <v>34</v>
       </c>
@@ -5152,10 +5647,10 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="29">
         <v>35</v>
       </c>
@@ -5178,12 +5673,12 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="37">
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="48">
         <v>11</v>
       </c>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="50" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="29">
@@ -5208,10 +5703,10 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="41"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="52"/>
       <c r="E41" s="29">
         <v>37</v>
       </c>
@@ -5234,10 +5729,10 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="40"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="51"/>
       <c r="E42" s="29">
         <v>38</v>
       </c>
@@ -5260,12 +5755,12 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="37">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="48">
         <v>12</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="50" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="29">
@@ -5290,10 +5785,10 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="40"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="51"/>
       <c r="E44" s="29">
         <v>40</v>
       </c>
@@ -5316,12 +5811,12 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="37">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="48">
         <v>13</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="50" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="29">
@@ -5346,10 +5841,10 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="41"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52"/>
       <c r="E46" s="29">
         <v>42</v>
       </c>
@@ -5372,10 +5867,10 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="41"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52"/>
       <c r="E47" s="29">
         <v>43</v>
       </c>
@@ -5398,10 +5893,10 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="41"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52"/>
       <c r="E48" s="29">
         <v>44</v>
       </c>
@@ -5424,10 +5919,10 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="40"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="29">
         <v>45</v>
       </c>
@@ -5450,12 +5945,12 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="37">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="48">
         <v>14</v>
       </c>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="50" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="29">
@@ -5480,10 +5975,10 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="40"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="29">
         <v>47</v>
       </c>
@@ -5507,10 +6002,10 @@
       <c r="S51" s="12"/>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="54" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="29">
@@ -5541,8 +6036,8 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="29">
         <v>16</v>
       </c>
@@ -5673,7 +6168,7 @@
       <c r="D59" s="15"/>
       <c r="E59" s="11"/>
       <c r="F59" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -5862,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -5879,14 +6374,14 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="50" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="26">
@@ -5903,7 +6398,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="26">
         <v>4</v>
       </c>
@@ -5918,7 +6413,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="26">
         <v>5</v>
       </c>
@@ -5933,12 +6428,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="26">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -5976,7 +6471,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="50" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="26">
@@ -5993,7 +6488,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="26">
         <v>27</v>
       </c>
@@ -6013,7 +6508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -6033,10 +6528,10 @@
         <v>81</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6044,10 +6539,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -6055,10 +6550,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6066,10 +6561,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6077,10 +6572,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6088,10 +6583,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6199,7 +6694,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6208,7 +6703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P28"/>
   <sheetViews>
@@ -6229,31 +6724,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="M1" s="49" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="M1" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="N2" s="50" t="s">
+      <c r="N2" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="50"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6401,16 +6896,16 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="50"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="46"/>
+      <c r="I10" s="57"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -6428,10 +6923,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="47"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -6443,10 +6938,10 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="47" t="s">
+      <c r="H12" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="47"/>
+      <c r="I12" s="58"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -6458,10 +6953,10 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="47" t="s">
+      <c r="H13" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="58"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -6473,10 +6968,10 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="47" t="s">
+      <c r="H14" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="47"/>
+      <c r="I14" s="58"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -6488,10 +6983,10 @@
       <c r="P14" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="50"/>
+      <c r="O16" s="61"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M17" s="18" t="s">
@@ -6540,10 +7035,10 @@
       <c r="P21" s="4"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="48" t="s">
+      <c r="N23" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="48"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="18" t="s">

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar Survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="160">
   <si>
     <t>NO</t>
   </si>
@@ -482,6 +482,33 @@
   </si>
   <si>
     <t>Selisih</t>
+  </si>
+  <si>
+    <t>Pref Sum</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Rating Umum</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Kebersihan</t>
+  </si>
+  <si>
+    <t>Lokasi</t>
+  </si>
+  <si>
+    <t>Servis</t>
+  </si>
+  <si>
+    <t>Ruangan</t>
+  </si>
+  <si>
+    <t>Rating umum</t>
   </si>
 </sst>
 </file>
@@ -541,7 +568,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -557,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,7 +701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -789,11 +822,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -803,15 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,6 +883,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1420,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y45" sqref="Y45"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,46 +1502,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
     </row>
     <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1548,16 +1604,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="48">
-        <v>1</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="56">
+        <v>1</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1593,19 +1649,19 @@
       <c r="O5" s="25">
         <v>1</v>
       </c>
-      <c r="P5" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="25">
+      <c r="P5" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="53">
         <v>1</v>
       </c>
       <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1639,21 +1695,21 @@
       <c r="O6" s="25">
         <v>1</v>
       </c>
-      <c r="P6" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="25">
+      <c r="P6" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="53">
         <v>0</v>
       </c>
       <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="56">
         <v>2</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1689,19 +1745,19 @@
       <c r="O7" s="25">
         <v>0</v>
       </c>
-      <c r="P7" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="25">
+      <c r="P7" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="53">
         <v>0</v>
       </c>
       <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="52"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1735,20 +1791,20 @@
       <c r="O8" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="25">
+      <c r="P8" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="53">
         <v>0</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1782,19 +1838,19 @@
       <c r="O9" s="25">
         <v>1</v>
       </c>
-      <c r="P9" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="25">
+      <c r="P9" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="53">
         <v>0</v>
       </c>
       <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1828,21 +1884,21 @@
       <c r="O10" s="25">
         <v>1</v>
       </c>
-      <c r="P10" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="25">
+      <c r="P10" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="53">
         <v>1</v>
       </c>
       <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="48">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="56">
         <v>3</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -1878,19 +1934,19 @@
       <c r="O11" s="25">
         <v>1</v>
       </c>
-      <c r="P11" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="25">
+      <c r="P11" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="53">
         <v>1</v>
       </c>
       <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -1924,19 +1980,19 @@
       <c r="O12" s="25">
         <v>0</v>
       </c>
-      <c r="P12" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="25">
+      <c r="P12" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="53">
         <v>1</v>
       </c>
       <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -1970,21 +2026,21 @@
       <c r="O13" s="25">
         <v>1</v>
       </c>
-      <c r="P13" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="25">
+      <c r="P13" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="53">
         <v>0</v>
       </c>
       <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="48">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="56">
         <v>4</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -2020,19 +2076,19 @@
       <c r="O14" s="25">
         <v>0</v>
       </c>
-      <c r="P14" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="25">
+      <c r="P14" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="53">
         <v>0</v>
       </c>
       <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -2066,21 +2122,21 @@
       <c r="O15" s="25">
         <v>1</v>
       </c>
-      <c r="P15" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="25">
+      <c r="P15" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="53">
         <v>0</v>
       </c>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="48">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56">
         <v>5</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="60" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -2116,19 +2172,19 @@
       <c r="O16" s="25">
         <v>1</v>
       </c>
-      <c r="P16" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="25">
+      <c r="P16" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="53">
         <v>0</v>
       </c>
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2162,19 +2218,19 @@
       <c r="O17" s="25">
         <v>1</v>
       </c>
-      <c r="P17" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="25">
+      <c r="P17" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="53">
         <v>1</v>
       </c>
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2208,19 +2264,19 @@
       <c r="O18" s="25">
         <v>0</v>
       </c>
-      <c r="P18" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="25">
+      <c r="P18" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="53">
         <v>0</v>
       </c>
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2254,21 +2310,21 @@
       <c r="O19" s="25">
         <v>1</v>
       </c>
-      <c r="P19" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25">
+      <c r="P19" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="53">
         <v>1</v>
       </c>
       <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="48">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="56">
         <v>6</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2304,19 +2360,19 @@
       <c r="O20" s="25">
         <v>1</v>
       </c>
-      <c r="P20" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="25">
+      <c r="P20" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="53">
         <v>0</v>
       </c>
       <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2350,19 +2406,19 @@
       <c r="O21" s="25">
         <v>1</v>
       </c>
-      <c r="P21" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="25">
+      <c r="P21" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="53">
         <v>1</v>
       </c>
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2396,19 +2452,19 @@
       <c r="O22" s="25">
         <v>1</v>
       </c>
-      <c r="P22" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="25">
+      <c r="P22" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="53">
         <v>0</v>
       </c>
       <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2442,19 +2498,19 @@
       <c r="O23" s="25">
         <v>1</v>
       </c>
-      <c r="P23" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="25">
+      <c r="P23" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="53">
         <v>0</v>
       </c>
       <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2488,19 +2544,19 @@
       <c r="O24" s="25">
         <v>1</v>
       </c>
-      <c r="P24" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="25">
+      <c r="P24" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="53">
         <v>1</v>
       </c>
       <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2534,19 +2590,19 @@
       <c r="O25" s="25">
         <v>0</v>
       </c>
-      <c r="P25" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="25">
+      <c r="P25" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="53">
         <v>0</v>
       </c>
       <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2580,19 +2636,19 @@
       <c r="O26" s="25">
         <v>1</v>
       </c>
-      <c r="P26" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="25">
+      <c r="P26" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="53">
         <v>1</v>
       </c>
       <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2626,19 +2682,19 @@
       <c r="O27" s="25">
         <v>1</v>
       </c>
-      <c r="P27" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="25">
+      <c r="P27" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="53">
         <v>1</v>
       </c>
       <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="51"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2672,17 +2728,17 @@
       <c r="O28" s="25">
         <v>1</v>
       </c>
-      <c r="P28" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="25">
+      <c r="P28" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="53">
         <v>0</v>
       </c>
       <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2722,21 +2778,21 @@
       <c r="O29" s="25">
         <v>0</v>
       </c>
-      <c r="P29" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="25">
+      <c r="P29" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="53">
         <v>0</v>
       </c>
       <c r="R29" s="25"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="48">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="56">
         <v>8</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="60" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -2772,19 +2828,19 @@
       <c r="O30" s="25">
         <v>1</v>
       </c>
-      <c r="P30" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="25">
+      <c r="P30" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="53">
         <v>0</v>
       </c>
       <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -2818,10 +2874,10 @@
       <c r="O31" s="25">
         <v>1</v>
       </c>
-      <c r="P31" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="25">
+      <c r="P31" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="53">
         <v>1</v>
       </c>
       <c r="R31" s="25"/>
@@ -2830,16 +2886,16 @@
       </c>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="56">
         <v>9</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -2875,19 +2931,19 @@
       <c r="O32" s="25">
         <v>0</v>
       </c>
-      <c r="P32" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="25">
+      <c r="P32" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="53">
         <v>1</v>
       </c>
       <c r="R32" s="25"/>
     </row>
     <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -2921,19 +2977,19 @@
       <c r="O33" s="25">
         <v>1</v>
       </c>
-      <c r="P33" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="25">
+      <c r="P33" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="53">
         <v>0</v>
       </c>
       <c r="R33" s="25"/>
     </row>
     <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -2967,19 +3023,19 @@
       <c r="O34" s="25">
         <v>1</v>
       </c>
-      <c r="P34" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="25">
+      <c r="P34" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="53">
         <v>1</v>
       </c>
       <c r="R34" s="25"/>
     </row>
     <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -3013,19 +3069,19 @@
       <c r="O35" s="25">
         <v>0</v>
       </c>
-      <c r="P35" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="25">
+      <c r="P35" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="53">
         <v>1</v>
       </c>
       <c r="R35" s="25"/>
     </row>
     <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -3059,21 +3115,21 @@
       <c r="O36" s="25">
         <v>1</v>
       </c>
-      <c r="P36" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="25">
+      <c r="P36" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="53">
         <v>0</v>
       </c>
       <c r="R36" s="25"/>
     </row>
     <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="48">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="56">
         <v>10</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="60" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -3109,19 +3165,19 @@
       <c r="O37" s="25">
         <v>0</v>
       </c>
-      <c r="P37" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="25">
+      <c r="P37" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="53">
         <v>0</v>
       </c>
       <c r="R37" s="25"/>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -3155,19 +3211,19 @@
       <c r="O38" s="25">
         <v>0</v>
       </c>
-      <c r="P38" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="25">
+      <c r="P38" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="53">
         <v>1</v>
       </c>
       <c r="R38" s="25"/>
     </row>
     <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3201,21 +3257,21 @@
       <c r="O39" s="25">
         <v>0</v>
       </c>
-      <c r="P39" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="25">
+      <c r="P39" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="53">
         <v>0</v>
       </c>
       <c r="R39" s="25"/>
     </row>
     <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="48">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="56">
         <v>11</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="60" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3251,19 +3307,19 @@
       <c r="O40" s="25">
         <v>1</v>
       </c>
-      <c r="P40" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="25">
+      <c r="P40" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="53">
         <v>1</v>
       </c>
       <c r="R40" s="25"/>
     </row>
     <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3297,19 +3353,19 @@
       <c r="O41" s="25">
         <v>1</v>
       </c>
-      <c r="P41" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="25">
+      <c r="P41" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="53">
         <v>0</v>
       </c>
       <c r="R41" s="25"/>
     </row>
     <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3343,21 +3399,21 @@
       <c r="O42" s="25">
         <v>1</v>
       </c>
-      <c r="P42" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="25">
+      <c r="P42" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="53">
         <v>1</v>
       </c>
       <c r="R42" s="25"/>
     </row>
     <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="48">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="56">
         <v>12</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="60" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3393,10 +3449,10 @@
       <c r="O43" s="25">
         <v>0</v>
       </c>
-      <c r="P43" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="25">
+      <c r="P43" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="53">
         <v>1</v>
       </c>
       <c r="R43" s="25"/>
@@ -3405,10 +3461,10 @@
       </c>
     </row>
     <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="51"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3442,10 +3498,10 @@
       <c r="O44" s="25">
         <v>0</v>
       </c>
-      <c r="P44" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="25">
+      <c r="P44" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="53">
         <v>1</v>
       </c>
       <c r="R44" s="25"/>
@@ -3454,12 +3510,12 @@
       </c>
     </row>
     <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="48">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="56">
         <v>13</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="60" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3495,10 +3551,10 @@
       <c r="O45" s="25">
         <v>1</v>
       </c>
-      <c r="P45" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="25">
+      <c r="P45" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="53">
         <v>0</v>
       </c>
       <c r="R45" s="25"/>
@@ -3516,10 +3572,10 @@
       </c>
     </row>
     <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3553,10 +3609,10 @@
       <c r="O46" s="25">
         <v>1</v>
       </c>
-      <c r="P46" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="25">
+      <c r="P46" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="53">
         <v>0</v>
       </c>
       <c r="R46" s="25"/>
@@ -3571,10 +3627,10 @@
       </c>
     </row>
     <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3608,19 +3664,19 @@
       <c r="O47" s="25">
         <v>1</v>
       </c>
-      <c r="P47" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="25">
+      <c r="P47" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="53">
         <v>1</v>
       </c>
       <c r="R47" s="25"/>
     </row>
     <row r="48" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3654,19 +3710,19 @@
       <c r="O48" s="25">
         <v>1</v>
       </c>
-      <c r="P48" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="25">
+      <c r="P48" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="53">
         <v>0</v>
       </c>
       <c r="R48" s="25"/>
     </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="51"/>
+    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3700,21 +3756,21 @@
       <c r="O49" s="25">
         <v>0</v>
       </c>
-      <c r="P49" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="25">
+      <c r="P49" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="53">
         <v>1</v>
       </c>
       <c r="R49" s="25"/>
     </row>
-    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="48">
+    <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="56">
         <v>14</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="60" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3750,19 +3806,19 @@
       <c r="O50" s="25">
         <v>0</v>
       </c>
-      <c r="P50" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="25">
+      <c r="P50" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="53">
         <v>0</v>
       </c>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="51"/>
+    <row r="51" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -3796,10 +3852,10 @@
       <c r="O51" s="25">
         <v>0</v>
       </c>
-      <c r="P51" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="25">
+      <c r="P51" s="53">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="53">
         <v>1</v>
       </c>
       <c r="R51" s="25"/>
@@ -3807,11 +3863,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -3853,17 +3909,17 @@
       <c r="O52" s="25">
         <v>1</v>
       </c>
-      <c r="P52" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="25">
+      <c r="P52" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="53">
         <v>1</v>
       </c>
       <c r="R52" s="25"/>
     </row>
-    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -3903,117 +3959,233 @@
       <c r="O53" s="25">
         <v>1</v>
       </c>
-      <c r="P53" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="25">
+      <c r="P53" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="53">
         <v>1</v>
       </c>
       <c r="R53" s="25"/>
       <c r="S53" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="11"/>
-      <c r="S55">
+      <c r="U53">
         <f>20.5+14+2</f>
         <v>36.5</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="48"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="48">
+        <v>50</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G54" s="48"/>
+      <c r="H54" s="51">
+        <v>4</v>
+      </c>
+      <c r="I54" s="51">
+        <v>3.5</v>
+      </c>
+      <c r="J54" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="K54" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="L54" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="M54" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="N54" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="O54" s="51">
+        <v>3.5</v>
+      </c>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="52"/>
+      <c r="S54" s="50"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="48">
+        <v>51</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48">
+        <v>3</v>
+      </c>
+      <c r="I55" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="J55" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="K55" s="48">
+        <v>4</v>
+      </c>
+      <c r="L55" s="48">
+        <v>4</v>
+      </c>
+      <c r="M55" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="N55" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="O55" s="48">
+        <v>4</v>
+      </c>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="48"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="48">
+        <v>52</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="I56" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="J56" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="K56" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="L56" s="48">
+        <v>4</v>
+      </c>
+      <c r="M56" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="N56" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="O56" s="48">
+        <v>4</v>
+      </c>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="48"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="48">
+        <v>53</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="I57" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="J57" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="K57" s="48">
+        <v>4</v>
+      </c>
+      <c r="L57" s="48">
+        <v>4</v>
+      </c>
+      <c r="M57" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="N57" s="51">
+        <v>4</v>
+      </c>
+      <c r="O57" s="48">
+        <v>4</v>
+      </c>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="48"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="48">
+        <v>54</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48">
+        <v>4.5</v>
+      </c>
+      <c r="I58" s="48">
+        <v>3.5</v>
+      </c>
+      <c r="J58" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="K58" s="48">
+        <v>4</v>
+      </c>
+      <c r="L58" s="48">
+        <v>4</v>
+      </c>
+      <c r="M58" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="N58" s="51">
+        <v>4.5</v>
+      </c>
+      <c r="O58" s="48">
+        <v>4</v>
+      </c>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="22">
+        <v>5</v>
+      </c>
+      <c r="U58">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="11"/>
@@ -4032,7 +4204,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -4040,18 +4212,46 @@
       <c r="E60" s="11"/>
       <c r="F60" s="14"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H60" s="69">
+        <f>SUM(H54:H58)/25</f>
+        <v>0.82</v>
+      </c>
+      <c r="I60" s="69">
+        <f t="shared" ref="I60:O60" si="0">SUM(I54:I58)/25</f>
+        <v>0.7</v>
+      </c>
+      <c r="J60" s="69">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="K60" s="69">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="L60" s="69">
+        <f t="shared" si="0"/>
+        <v>0.82</v>
+      </c>
+      <c r="M60" s="69">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="N60" s="69">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="O60" s="69">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="P60" s="11">
+        <v>0.6</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -4070,7 +4270,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -4089,7 +4289,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -4108,7 +4308,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -4166,10 +4366,22 @@
       <c r="Q66" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B5:B31"/>
+  <mergeCells count="36">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="C20:C28"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="D50:D51"/>
@@ -4186,21 +4398,11 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B5:B31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4209,10 +4411,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4220,13 +4422,16 @@
     <col min="1" max="1" width="29.85546875" style="37" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>146</v>
       </c>
@@ -4239,20 +4444,23 @@
       <c r="D1" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>137</v>
       </c>
@@ -4265,22 +4473,26 @@
       <c r="D2" s="43">
         <v>1</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="E2">
+        <v>0.82</v>
+      </c>
+      <c r="H2" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="4">
-        <f>(B2-B12)/(B13-B12)</f>
+      <c r="I2" s="4">
+        <f>(B2-B25)/(B26-B25)</f>
         <v>0.84981684713500782</v>
       </c>
-      <c r="H2" s="4">
+      <c r="J2" s="4">
         <f>(C2-MIN(C2:C9))/(MAX(C2:C9)-MIN(C2:C9))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="4" t="e">
+        <f>D2-D25/(D26-D25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>138</v>
       </c>
@@ -4293,22 +4505,25 @@
       <c r="D3" s="43">
         <v>1</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="4">
-        <f>(B3-B12)/(B13-B12)</f>
+      <c r="I3" s="4">
+        <f>(B3-B25)/(B26-B25)</f>
         <v>0.92857155408163794</v>
       </c>
-      <c r="H3" s="4">
-        <f>(C3-C12)/(C14)</f>
+      <c r="J3" s="4">
+        <f>(C3-C25)/(C27)</f>
         <v>0.88235298154555764</v>
       </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>140</v>
       </c>
@@ -4321,22 +4536,25 @@
       <c r="D4" s="43">
         <v>1</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="E4">
+        <v>0.9</v>
+      </c>
+      <c r="H4" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="4">
-        <f>(B4-B12)/B14</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <f>(C4-C12)/(C14)</f>
+      <c r="I4" s="4">
+        <f>(B4-B25)/B27</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(C4-C25)/(C27)</f>
         <v>0.39215681053441209</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>141</v>
       </c>
@@ -4349,22 +4567,25 @@
       <c r="D5" s="43">
         <v>1</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="E5">
+        <v>0.84</v>
+      </c>
+      <c r="H5" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="G5" s="4">
-        <f>(B5-B12)/B14</f>
+      <c r="I5" s="4">
+        <f>(B5-B25)/B27</f>
         <v>0.78571436938775863</v>
       </c>
-      <c r="H5" s="4">
-        <f>(C5-C12)/(C14)</f>
+      <c r="J5" s="4">
+        <f>(C5-C25)/(C27)</f>
         <v>0.39215681053441209</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>142</v>
       </c>
@@ -4377,22 +4598,25 @@
       <c r="D6" s="43">
         <v>1</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="E6">
+        <v>0.82</v>
+      </c>
+      <c r="H6" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="G6" s="4">
-        <f>(B6-B12)/B14</f>
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <f>(C6-C12)/(C14)</f>
+      <c r="I6" s="4">
+        <f>(B6-B25)/B27</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(C6-C25)/(C27)</f>
         <v>0.5882353118800453</v>
       </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>143</v>
       </c>
@@ -4405,22 +4629,25 @@
       <c r="D7" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="4">
-        <f>(B7-B12)/B14</f>
+      <c r="I7" s="4">
+        <f>(B7-B25)/B27</f>
         <v>0.54945057069073877</v>
       </c>
-      <c r="H7" s="4">
-        <f>(C7-C12)/(C14)</f>
+      <c r="J7" s="4">
+        <f>(C7-C25)/(C27)</f>
         <v>0.90017835724720796</v>
       </c>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>144</v>
       </c>
@@ -4433,22 +4660,25 @@
       <c r="D8" s="43">
         <v>1</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="E8">
+        <v>0.88</v>
+      </c>
+      <c r="H8" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="4">
-        <f>(B8-B12)/B14</f>
+      <c r="I8" s="4">
+        <f>(B8-B25)/B27</f>
         <v>0.85714281530612069</v>
       </c>
-      <c r="H8" s="4">
-        <f>(C8-C12)/(C14)</f>
+      <c r="J8" s="4">
+        <f>(C8-C25)/(C27)</f>
         <v>0.88235298154555764</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>145</v>
       </c>
@@ -4461,22 +4691,25 @@
       <c r="D9" s="43">
         <v>1</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="E9">
+        <v>0.78</v>
+      </c>
+      <c r="H9" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="G9" s="4">
-        <f>(B9-B12)/B14</f>
+      <c r="I9" s="4">
+        <f>(B9-B25)/B27</f>
         <v>0.28571425224489633</v>
       </c>
-      <c r="H9" s="4">
-        <f>(C9-C12)/(C14)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <f>(C9-C25)/(C27)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>147</v>
       </c>
@@ -4490,118 +4723,100 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="45">
-        <f>MIN(B2:B9)</f>
-        <v>0.65853660000000003</v>
-      </c>
-      <c r="C12" s="45">
-        <f t="shared" ref="C12:D12" si="0">MIN(C2:C9)</f>
-        <v>0.53571427000000005</v>
-      </c>
-      <c r="D12" s="45">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="45">
-        <f>MAX(B2:B9)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="45">
-        <f t="shared" ref="C13:D13" si="1">MAX(C2:C9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="45">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="45">
-        <f>B13-B12</f>
-        <v>0.34146339999999997</v>
-      </c>
-      <c r="C14" s="45">
-        <f t="shared" ref="C14:D14" si="2">C13-C12</f>
-        <v>0.36428572999999997</v>
-      </c>
-      <c r="D14" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <f>(B10/15)*100</f>
-        <v>21.866666666666664</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:D17" si="3">(C10/15)*100</f>
-        <v>22.6</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="70"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>SUM(B17:D17)</f>
-        <v>77.8</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>5</v>
-      </c>
-      <c r="I19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="47"/>
-      <c r="F20">
-        <f>2/9</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="G20">
-        <f>2/9</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="H20">
-        <f>5/9</f>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <f>SUM(F20:H20)</f>
-        <v>1</v>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="B21" s="45">
+        <f>SUM(B10:D10)</f>
+        <v>11.67</v>
+      </c>
+      <c r="C21" s="45">
+        <f>SUM(B10:D10)</f>
+        <v>11.67</v>
+      </c>
+      <c r="D21" s="45">
+        <f>SUM(B10:D10)</f>
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <f>B10/B21</f>
+        <v>0.2810625535561268</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:D22" si="0">C10/C21</f>
+        <v>0.29048843187660672</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.42844901456726647</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="45">
+        <f>MIN(B2:B9)</f>
+        <v>0.65853660000000003</v>
+      </c>
+      <c r="C25" s="45">
+        <f>MIN(C2:C9)</f>
+        <v>0.53571427000000005</v>
+      </c>
+      <c r="D25" s="45">
+        <f>MIN(D2:D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="45">
+        <f>MAX(B2:B9)</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="45">
+        <f>MAX(C2:C9)</f>
+        <v>0.9</v>
+      </c>
+      <c r="D26" s="45">
+        <f>MAX(D2:D9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="45">
+        <f>B26-B25</f>
+        <v>0.34146339999999997</v>
+      </c>
+      <c r="C27" s="45">
+        <f t="shared" ref="C27:D27" si="1">C26-C25</f>
+        <v>0.36428572999999997</v>
+      </c>
+      <c r="D27" s="45">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4631,15 +4846,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -4652,15 +4867,15 @@
       <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -4713,16 +4928,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="48">
-        <v>1</v>
-      </c>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="56">
+        <v>1</v>
+      </c>
+      <c r="D5" s="60" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -4747,10 +4962,10 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="51"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="29">
         <v>2</v>
       </c>
@@ -4773,12 +4988,12 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="48">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="56">
         <v>2</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="60" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="29">
@@ -4803,10 +5018,10 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="52"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="29">
         <v>4</v>
       </c>
@@ -4830,10 +5045,10 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="52"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="29">
         <v>5</v>
       </c>
@@ -4856,10 +5071,10 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="29">
         <v>6</v>
       </c>
@@ -4882,12 +5097,12 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="48">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="56">
         <v>3</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="60" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="29">
@@ -4912,10 +5127,10 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="52"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="29">
         <v>8</v>
       </c>
@@ -4938,10 +5153,10 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="51"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="29">
         <v>9</v>
       </c>
@@ -4964,12 +5179,12 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="48">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="56">
         <v>4</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="60" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="29">
@@ -4994,10 +5209,10 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="51"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="29">
         <v>11</v>
       </c>
@@ -5020,12 +5235,12 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="48">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56">
         <v>5</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="60" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="29">
@@ -5050,10 +5265,10 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="52"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="29">
         <v>13</v>
       </c>
@@ -5076,10 +5291,10 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="52"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="29">
         <v>14</v>
       </c>
@@ -5102,10 +5317,10 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="61"/>
       <c r="E19" s="29">
         <v>15</v>
       </c>
@@ -5128,12 +5343,12 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="48">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="56">
         <v>6</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="60" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="29">
@@ -5158,10 +5373,10 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="52"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="29">
         <v>17</v>
       </c>
@@ -5184,10 +5399,10 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="52"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="29">
         <v>18</v>
       </c>
@@ -5210,10 +5425,10 @@
       <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="52"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="29">
         <v>19</v>
       </c>
@@ -5236,10 +5451,10 @@
       <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="29">
         <v>20</v>
       </c>
@@ -5262,10 +5477,10 @@
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="29">
         <v>21</v>
       </c>
@@ -5288,10 +5503,10 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="29">
         <v>22</v>
       </c>
@@ -5314,10 +5529,10 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="29">
         <v>23</v>
       </c>
@@ -5340,10 +5555,10 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="51"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="29">
         <v>24</v>
       </c>
@@ -5366,8 +5581,8 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
       <c r="C29" s="29">
         <v>7</v>
       </c>
@@ -5396,12 +5611,12 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="48">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="56">
         <v>8</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="60" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="29">
@@ -5426,10 +5641,10 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="29">
         <v>27</v>
       </c>
@@ -5453,16 +5668,16 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="56">
         <v>9</v>
       </c>
-      <c r="D32" s="50" t="s">
+      <c r="D32" s="60" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="29">
@@ -5487,10 +5702,10 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="62"/>
       <c r="E33" s="29">
         <v>29</v>
       </c>
@@ -5513,10 +5728,10 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="29">
         <v>30</v>
       </c>
@@ -5539,10 +5754,10 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="29">
         <v>31</v>
       </c>
@@ -5565,10 +5780,10 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="61"/>
       <c r="E36" s="29">
         <v>32</v>
       </c>
@@ -5591,12 +5806,12 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="48">
+      <c r="A37" s="57"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="56">
         <v>10</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="60" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="29">
@@ -5621,10 +5836,10 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="29">
         <v>34</v>
       </c>
@@ -5647,10 +5862,10 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="51"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="29">
         <v>35</v>
       </c>
@@ -5673,12 +5888,12 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="48">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="56">
         <v>11</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="60" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="29">
@@ -5703,10 +5918,10 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="62"/>
       <c r="E41" s="29">
         <v>37</v>
       </c>
@@ -5729,10 +5944,10 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="29">
         <v>38</v>
       </c>
@@ -5755,12 +5970,12 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="48">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="56">
         <v>12</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="60" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="29">
@@ -5785,10 +6000,10 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="51"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="29">
         <v>40</v>
       </c>
@@ -5811,12 +6026,12 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="48">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="56">
         <v>13</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="60" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="29">
@@ -5841,10 +6056,10 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="29">
         <v>42</v>
       </c>
@@ -5867,10 +6082,10 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="29">
         <v>43</v>
       </c>
@@ -5893,10 +6108,10 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="29">
         <v>44</v>
       </c>
@@ -5919,10 +6134,10 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="51"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="29">
         <v>45</v>
       </c>
@@ -5945,12 +6160,12 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="48">
+      <c r="A50" s="57"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="56">
         <v>14</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="60" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="29">
@@ -5975,10 +6190,10 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="51"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="29">
         <v>47</v>
       </c>
@@ -6002,10 +6217,10 @@
       <c r="S51" s="12"/>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="55" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="29">
@@ -6036,8 +6251,8 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="29">
         <v>16</v>
       </c>
@@ -6317,24 +6532,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B1:H1"/>
@@ -6351,6 +6548,24 @@
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6381,7 +6596,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="60" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="26">
@@ -6398,7 +6613,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52"/>
+      <c r="A3" s="62"/>
       <c r="B3" s="26">
         <v>4</v>
       </c>
@@ -6413,7 +6628,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
+      <c r="A4" s="62"/>
       <c r="B4" s="26">
         <v>5</v>
       </c>
@@ -6428,7 +6643,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="26">
         <v>6</v>
       </c>
@@ -6471,7 +6686,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="60" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="26">
@@ -6488,7 +6703,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="26">
         <v>27</v>
       </c>
@@ -6724,31 +6939,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="M1" s="60" t="s">
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="M1" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="N2" s="61" t="s">
+      <c r="N2" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="61"/>
+      <c r="O2" s="68"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6896,16 +7111,16 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N9" s="61" t="s">
+      <c r="N9" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="61"/>
+      <c r="O9" s="68"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="57"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -6923,10 +7138,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="58" t="s">
+      <c r="H11" s="65" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="58"/>
+      <c r="I11" s="65"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -6938,10 +7153,10 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="58"/>
+      <c r="I12" s="65"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -6953,10 +7168,10 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="58"/>
+      <c r="I13" s="65"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -6968,10 +7183,10 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="58"/>
+      <c r="I14" s="65"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -6983,10 +7198,10 @@
       <c r="P14" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="61" t="s">
+      <c r="N16" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="61"/>
+      <c r="O16" s="68"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M17" s="18" t="s">
@@ -7035,10 +7250,10 @@
       <c r="P21" s="4"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="59" t="s">
+      <c r="N23" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="59"/>
+      <c r="O23" s="66"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="18" t="s">

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
   <si>
     <t>NO</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>Rating umum</t>
+  </si>
+  <si>
+    <t>RATING TRIP ADVISOR</t>
   </si>
 </sst>
 </file>
@@ -594,7 +597,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -696,12 +699,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -844,17 +871,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -864,6 +886,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -883,10 +914,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1476,74 +1512,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1"/>
-    <col min="8" max="8" width="28.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-    </row>
-    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-    </row>
-    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+    </row>
+    <row r="4" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1603,17 +1639,17 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="56">
-        <v>1</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="57">
+        <v>1</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1657,11 +1693,11 @@
       </c>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
+    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1703,13 +1739,13 @@
       </c>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="57">
         <v>2</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1753,11 +1789,11 @@
       </c>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="62"/>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1800,11 +1836,11 @@
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="62"/>
+    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1846,11 +1882,11 @@
       </c>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1892,13 +1928,13 @@
       </c>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="56">
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="57">
         <v>3</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -1942,11 +1978,11 @@
       </c>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="62"/>
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -1988,11 +2024,11 @@
       </c>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="61"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -2034,13 +2070,13 @@
       </c>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="56">
+    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="57">
         <v>4</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="59" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -2084,11 +2120,11 @@
       </c>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -2130,13 +2166,13 @@
       </c>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="56">
+    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="57">
         <v>5</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="59" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -2180,11 +2216,11 @@
       </c>
       <c r="R16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="62"/>
+    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2226,11 +2262,11 @@
       </c>
       <c r="R17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="62"/>
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2272,11 +2308,11 @@
       </c>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
+    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="61"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2318,13 +2354,13 @@
       </c>
       <c r="R19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="56">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="57">
         <v>6</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="59" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2368,11 +2404,11 @@
       </c>
       <c r="R20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="62"/>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2414,11 +2450,11 @@
       </c>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="62"/>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2460,11 +2496,11 @@
       </c>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="62"/>
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2506,11 +2542,11 @@
       </c>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="62"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2552,11 +2588,11 @@
       </c>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="62"/>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2598,11 +2634,11 @@
       </c>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="62"/>
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2644,11 +2680,11 @@
       </c>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="62"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2690,11 +2726,11 @@
       </c>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2736,9 +2772,9 @@
       </c>
       <c r="R28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2786,13 +2822,13 @@
       </c>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="56">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="57">
         <v>8</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="59" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -2836,11 +2872,11 @@
       </c>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -2885,17 +2921,17 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="57">
         <v>9</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="59" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -2939,11 +2975,11 @@
       </c>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="62"/>
+    <row r="33" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -2985,11 +3021,11 @@
       </c>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="62"/>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -3031,11 +3067,11 @@
       </c>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="62"/>
+    <row r="35" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -3077,11 +3113,11 @@
       </c>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
+    <row r="36" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="61"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -3123,13 +3159,13 @@
       </c>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="56">
+    <row r="37" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="57">
         <v>10</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -3173,11 +3209,11 @@
       </c>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="62"/>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -3219,11 +3255,11 @@
       </c>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
+    <row r="39" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="61"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3265,13 +3301,13 @@
       </c>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="56">
+    <row r="40" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="57">
         <v>11</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="59" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3315,11 +3351,11 @@
       </c>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="62"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3361,11 +3397,11 @@
       </c>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
+    <row r="42" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="61"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3407,13 +3443,13 @@
       </c>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="56">
+    <row r="43" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="57">
         <v>12</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="59" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3460,11 +3496,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
+    <row r="44" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="58"/>
-      <c r="D44" s="61"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3509,13 +3545,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="56">
+    <row r="45" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="57">
         <v>13</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="59" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3571,11 +3607,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="62"/>
+    <row r="46" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3626,11 +3662,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="62"/>
+    <row r="47" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3672,11 +3708,11 @@
       </c>
       <c r="R47" s="25"/>
     </row>
-    <row r="48" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="62"/>
+    <row r="48" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3718,11 +3754,11 @@
       </c>
       <c r="R48" s="25"/>
     </row>
-    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
+    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="58"/>
-      <c r="D49" s="61"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3764,13 +3800,13 @@
       </c>
       <c r="R49" s="25"/>
     </row>
-    <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="56">
+    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="57">
         <v>14</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="59" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3814,11 +3850,11 @@
       </c>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
       <c r="C51" s="58"/>
-      <c r="D51" s="61"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -3863,11 +3899,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+    <row r="52" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="64" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -3917,9 +3953,9 @@
       </c>
       <c r="R52" s="25"/>
     </row>
-    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
+    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -3974,11 +4010,11 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="55" t="s">
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="64" t="s">
         <v>154</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="64" t="s">
         <v>153</v>
       </c>
       <c r="C54" s="48"/>
@@ -4019,9 +4055,9 @@
       <c r="R54" s="52"/>
       <c r="S54" s="50"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="55"/>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="64"/>
+      <c r="B55" s="64"/>
       <c r="C55" s="48"/>
       <c r="D55" s="27"/>
       <c r="E55" s="48">
@@ -4059,9 +4095,9 @@
       <c r="Q55" s="53"/>
       <c r="R55" s="48"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="55"/>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="64"/>
+      <c r="B56" s="64"/>
       <c r="C56" s="48"/>
       <c r="D56" s="27"/>
       <c r="E56" s="48">
@@ -4099,9 +4135,9 @@
       <c r="Q56" s="53"/>
       <c r="R56" s="48"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="64"/>
+      <c r="B57" s="64"/>
       <c r="C57" s="48"/>
       <c r="D57" s="27"/>
       <c r="E57" s="48">
@@ -4139,9 +4175,9 @@
       <c r="Q57" s="53"/>
       <c r="R57" s="48"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="55"/>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="64"/>
+      <c r="B58" s="64"/>
       <c r="C58" s="48"/>
       <c r="D58" s="27"/>
       <c r="E58" s="48">
@@ -4185,26 +4221,58 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="11"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="51">
+        <f>SUM(H54:H58)/25</f>
+        <v>0.82</v>
+      </c>
+      <c r="I59" s="51">
+        <f>SUM(I54:I58)/25</f>
+        <v>0.7</v>
+      </c>
+      <c r="J59" s="51">
+        <f>SUM(J54:J58)/25</f>
+        <v>0.9</v>
+      </c>
+      <c r="K59" s="51">
+        <f>SUM(K54:K58)/25</f>
+        <v>0.84</v>
+      </c>
+      <c r="L59" s="51">
+        <f>SUM(L54:L58)/25</f>
+        <v>0.82</v>
+      </c>
+      <c r="M59" s="51">
+        <f>SUM(M54:M58)/25</f>
+        <v>0.9</v>
+      </c>
+      <c r="N59" s="51">
+        <f>SUM(N54:N58)/25</f>
+        <v>0.88</v>
+      </c>
+      <c r="O59" s="51">
+        <f>SUM(O54:O58)/25</f>
+        <v>0.78</v>
+      </c>
+      <c r="P59" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="Q59" s="55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -4212,46 +4280,8 @@
       <c r="E60" s="11"/>
       <c r="F60" s="14"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="69">
-        <f>SUM(H54:H58)/25</f>
-        <v>0.82</v>
-      </c>
-      <c r="I60" s="69">
-        <f t="shared" ref="I60:O60" si="0">SUM(I54:I58)/25</f>
-        <v>0.7</v>
-      </c>
-      <c r="J60" s="69">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="K60" s="69">
-        <f t="shared" si="0"/>
-        <v>0.84</v>
-      </c>
-      <c r="L60" s="69">
-        <f t="shared" si="0"/>
-        <v>0.82</v>
-      </c>
-      <c r="M60" s="69">
-        <f t="shared" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="N60" s="69">
-        <f t="shared" si="0"/>
-        <v>0.88</v>
-      </c>
-      <c r="O60" s="69">
-        <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-      <c r="P60" s="11">
-        <v>0.6</v>
-      </c>
-      <c r="Q60" s="11">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -4270,7 +4300,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -4289,7 +4319,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -4308,7 +4338,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -4327,7 +4357,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="11"/>
@@ -4346,7 +4376,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
@@ -4366,22 +4396,13 @@
       <c r="Q66" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="C20:C28"/>
+  <mergeCells count="37">
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B5:B31"/>
     <mergeCell ref="B1:R1"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="D50:D51"/>
@@ -4398,11 +4419,21 @@
     <mergeCell ref="D30:D31"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="D32:D36"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4417,21 +4448,21 @@
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="37" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
         <v>146</v>
       </c>
@@ -4460,7 +4491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
         <v>137</v>
       </c>
@@ -4492,7 +4523,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>138</v>
       </c>
@@ -4523,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>140</v>
       </c>
@@ -4554,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>141</v>
       </c>
@@ -4585,7 +4616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>142</v>
       </c>
@@ -4616,7 +4647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>143</v>
       </c>
@@ -4647,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>144</v>
       </c>
@@ -4678,7 +4709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
         <v>145</v>
       </c>
@@ -4709,7 +4740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>147</v>
       </c>
@@ -4723,18 +4754,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="70"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E12" s="56"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="47"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>151</v>
       </c>
@@ -4751,7 +4782,7 @@
         <v>11.67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>152</v>
       </c>
@@ -4768,7 +4799,7 @@
         <v>0.42844901456726647</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
         <v>148</v>
       </c>
@@ -4785,7 +4816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>149</v>
       </c>
@@ -4802,7 +4833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
         <v>150</v>
       </c>
@@ -4833,28 +4864,28 @@
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
-    <col min="7" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.33203125" style="7" customWidth="1"/>
+    <col min="7" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="59" t="s">
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -4866,16 +4897,16 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
     </row>
-    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+    <row r="2" spans="1:22" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -4887,7 +4918,7 @@
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
     </row>
-    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4927,17 +4958,17 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="56">
-        <v>1</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="C5" s="57">
+        <v>1</v>
+      </c>
+      <c r="D5" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -4961,11 +4992,11 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
+    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="58"/>
-      <c r="D6" s="61"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="29">
         <v>2</v>
       </c>
@@ -4987,13 +5018,13 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="56">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="57">
         <v>2</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="29">
@@ -5017,11 +5048,11 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="62"/>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="29">
         <v>4</v>
       </c>
@@ -5044,11 +5075,11 @@
       <c r="R8" s="11"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="62"/>
+    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="61"/>
       <c r="E9" s="29">
         <v>5</v>
       </c>
@@ -5070,11 +5101,11 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="61"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="29">
         <v>6</v>
       </c>
@@ -5096,13 +5127,13 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="56">
+    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="57">
         <v>3</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="59" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="29">
@@ -5126,11 +5157,11 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="62"/>
+    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="29">
         <v>8</v>
       </c>
@@ -5152,11 +5183,11 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="61"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="29">
         <v>9</v>
       </c>
@@ -5178,13 +5209,13 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="56">
+    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="57">
         <v>4</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="59" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="29">
@@ -5208,11 +5239,11 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
+    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="29">
         <v>11</v>
       </c>
@@ -5234,13 +5265,13 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="56">
+    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="57">
         <v>5</v>
       </c>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="59" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="29">
@@ -5264,11 +5295,11 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="62"/>
+    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="29">
         <v>13</v>
       </c>
@@ -5290,11 +5321,11 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="62"/>
+    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="29">
         <v>14</v>
       </c>
@@ -5316,11 +5347,11 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
+    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="58"/>
-      <c r="D19" s="61"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="29">
         <v>15</v>
       </c>
@@ -5342,13 +5373,13 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="56">
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="57">
         <v>6</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="59" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="29">
@@ -5372,11 +5403,11 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="62"/>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="29">
         <v>17</v>
       </c>
@@ -5398,11 +5429,11 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="62"/>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="61"/>
       <c r="E22" s="29">
         <v>18</v>
       </c>
@@ -5424,11 +5455,11 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="62"/>
+    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="29">
         <v>19</v>
       </c>
@@ -5450,11 +5481,11 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="62"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="61"/>
       <c r="E24" s="29">
         <v>20</v>
       </c>
@@ -5476,11 +5507,11 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="62"/>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="29">
         <v>21</v>
       </c>
@@ -5502,11 +5533,11 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="62"/>
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="29">
         <v>22</v>
       </c>
@@ -5528,11 +5559,11 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="62"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="61"/>
       <c r="E27" s="29">
         <v>23</v>
       </c>
@@ -5554,11 +5585,11 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="58"/>
-      <c r="D28" s="61"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="29">
         <v>24</v>
       </c>
@@ -5580,9 +5611,9 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="29">
         <v>7</v>
       </c>
@@ -5610,13 +5641,13 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="56">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="57">
         <v>8</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="59" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="29">
@@ -5640,11 +5671,11 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="58"/>
       <c r="B31" s="58"/>
       <c r="C31" s="58"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="29">
         <v>27</v>
       </c>
@@ -5667,17 +5698,17 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="56" t="s">
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="57">
         <v>9</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="59" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="29">
@@ -5701,11 +5732,11 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="62"/>
+    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="29">
         <v>29</v>
       </c>
@@ -5727,11 +5758,11 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="62"/>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="61"/>
       <c r="E34" s="29">
         <v>30</v>
       </c>
@@ -5753,11 +5784,11 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="62"/>
+    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="61"/>
       <c r="E35" s="29">
         <v>31</v>
       </c>
@@ -5779,11 +5810,11 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="57"/>
+    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="58"/>
-      <c r="D36" s="61"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="29">
         <v>32</v>
       </c>
@@ -5805,13 +5836,13 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="56">
+    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="57">
         <v>10</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="59" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="29">
@@ -5835,11 +5866,11 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="62"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="29">
         <v>34</v>
       </c>
@@ -5861,11 +5892,11 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
+    <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="61"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="29">
         <v>35</v>
       </c>
@@ -5887,13 +5918,13 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="56">
+    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="57">
         <v>11</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="59" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="29">
@@ -5917,11 +5948,11 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="62"/>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="29">
         <v>37</v>
       </c>
@@ -5943,11 +5974,11 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
+    <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
       <c r="C42" s="58"/>
-      <c r="D42" s="61"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="29">
         <v>38</v>
       </c>
@@ -5969,13 +6000,13 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="56">
+    <row r="43" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="57">
         <v>12</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="59" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="29">
@@ -5999,11 +6030,11 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
+    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="58"/>
-      <c r="D44" s="61"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="29">
         <v>40</v>
       </c>
@@ -6025,13 +6056,13 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="56">
+    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="57">
         <v>13</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="59" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="29">
@@ -6055,11 +6086,11 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="62"/>
+    <row r="46" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="29">
         <v>42</v>
       </c>
@@ -6081,11 +6112,11 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="62"/>
+    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="29">
         <v>43</v>
       </c>
@@ -6107,11 +6138,11 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="62"/>
+    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="29">
         <v>44</v>
       </c>
@@ -6133,11 +6164,11 @@
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
+    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="58"/>
-      <c r="D49" s="61"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="29">
         <v>45</v>
       </c>
@@ -6159,13 +6190,13 @@
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
     </row>
-    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="56">
+    <row r="50" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="57">
         <v>14</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="59" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="29">
@@ -6189,11 +6220,11 @@
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="58"/>
       <c r="B51" s="58"/>
       <c r="C51" s="58"/>
-      <c r="D51" s="61"/>
+      <c r="D51" s="60"/>
       <c r="E51" s="29">
         <v>47</v>
       </c>
@@ -6216,11 +6247,11 @@
       <c r="R51" s="11"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="s">
+    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="64" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="29">
@@ -6250,9 +6281,9 @@
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
     </row>
-    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="55"/>
-      <c r="B53" s="55"/>
+    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="64"/>
+      <c r="B53" s="64"/>
       <c r="C53" s="29">
         <v>16</v>
       </c>
@@ -6281,7 +6312,7 @@
       <c r="R53" s="11"/>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="11"/>
@@ -6300,7 +6331,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="11"/>
@@ -6319,7 +6350,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="11"/>
@@ -6338,7 +6369,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="11"/>
@@ -6357,7 +6388,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="11"/>
@@ -6376,7 +6407,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="11"/>
@@ -6397,7 +6428,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -6416,7 +6447,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -6435,7 +6466,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -6454,7 +6485,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -6473,7 +6504,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -6492,7 +6523,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="11"/>
@@ -6511,7 +6542,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
@@ -6532,6 +6563,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B1:H1"/>
@@ -6548,24 +6597,6 @@
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6580,14 +6611,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="28" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>119</v>
       </c>
@@ -6595,8 +6626,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="26">
@@ -6612,8 +6643,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="61"/>
       <c r="B3" s="26">
         <v>4</v>
       </c>
@@ -6627,8 +6658,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="61"/>
       <c r="B4" s="26">
         <v>5</v>
       </c>
@@ -6642,8 +6673,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="60"/>
       <c r="B5" s="26">
         <v>6</v>
       </c>
@@ -6657,7 +6688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -6671,7 +6702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>62</v>
       </c>
@@ -6685,8 +6716,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
+    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="59" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="26">
@@ -6702,8 +6733,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="61"/>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
       <c r="B9" s="26">
         <v>27</v>
       </c>
@@ -6731,14 +6762,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="70.5546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>81</v>
       </c>
@@ -6749,7 +6780,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -6760,7 +6791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -6771,7 +6802,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -6782,7 +6813,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -6793,7 +6824,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -6804,110 +6835,110 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>17</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>18</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C23" s="7" t="s">
         <v>136</v>
       </c>
@@ -6926,46 +6957,46 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="M1" s="67" t="s">
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="M1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="70" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="68"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>81</v>
       </c>
@@ -7003,7 +7034,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -7032,7 +7063,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -7061,7 +7092,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -7090,7 +7121,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -7107,20 +7138,20 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N9" s="68" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N9" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="68"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" s="64" t="s">
+      <c r="O9" s="70"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H10" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="64"/>
+      <c r="I10" s="66"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -7137,11 +7168,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="65" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H11" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="65"/>
+      <c r="I11" s="67"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -7152,11 +7183,11 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="65" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="67"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -7167,11 +7198,11 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="65" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H13" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="65"/>
+      <c r="I13" s="67"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -7182,11 +7213,11 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="65" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H14" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="67"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -7197,13 +7228,13 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="68" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N16" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="68"/>
-    </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="O16" s="70"/>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M17" s="18" t="s">
         <v>112</v>
       </c>
@@ -7217,7 +7248,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M18" s="8" t="s">
         <v>113</v>
       </c>
@@ -7225,7 +7256,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M19" s="8" t="s">
         <v>114</v>
       </c>
@@ -7233,7 +7264,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M20" s="8" t="s">
         <v>96</v>
       </c>
@@ -7241,7 +7272,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M21" s="8" t="s">
         <v>116</v>
       </c>
@@ -7249,13 +7280,13 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="66" t="s">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="N23" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="66"/>
-    </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="O23" s="68"/>
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M24" s="18" t="s">
         <v>112</v>
       </c>
@@ -7269,7 +7300,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M25" s="8" t="s">
         <v>113</v>
       </c>
@@ -7277,7 +7308,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M26" s="8" t="s">
         <v>114</v>
       </c>
@@ -7285,7 +7316,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M27" s="8" t="s">
         <v>96</v>
       </c>
@@ -7293,7 +7324,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
       <c r="M28" s="8" t="s">
         <v>116</v>
       </c>

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar Survey" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="180">
   <si>
     <t>NO</t>
   </si>
@@ -475,21 +475,6 @@
     <t>Pref</t>
   </si>
   <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>Selisih</t>
-  </si>
-  <si>
-    <t>Pref Sum</t>
-  </si>
-  <si>
-    <t>Ratio</t>
-  </si>
-  <si>
     <t>Rating Umum</t>
   </si>
   <si>
@@ -512,6 +497,78 @@
   </si>
   <si>
     <t>RATING TRIP ADVISOR</t>
+  </si>
+  <si>
+    <t>BOBOT</t>
+  </si>
+  <si>
+    <t>Hotel I</t>
+  </si>
+  <si>
+    <t>Hotel J</t>
+  </si>
+  <si>
+    <t>pref 1</t>
+  </si>
+  <si>
+    <t>pref 2</t>
+  </si>
+  <si>
+    <t>J, Asrilia, Horison</t>
+  </si>
+  <si>
+    <t>astb, J , Horison</t>
+  </si>
+  <si>
+    <t>Ratio pref 1</t>
+  </si>
+  <si>
+    <t>Ratio pref 2</t>
+  </si>
+  <si>
+    <t>Pref 1</t>
+  </si>
+  <si>
+    <t>HASIL</t>
+  </si>
+  <si>
+    <t>Urutan</t>
+  </si>
+  <si>
+    <t>PREF 2</t>
+  </si>
+  <si>
+    <t>pref 3</t>
+  </si>
+  <si>
+    <t>pref 4</t>
+  </si>
+  <si>
+    <t>pref 5</t>
+  </si>
+  <si>
+    <t>HI , GA, FP, ASTB, HO, ASTP, YE J, SH, I</t>
+  </si>
+  <si>
+    <t>HI, FP, GA, ASTB, ASTP, YE, HO, SH, J, I</t>
+  </si>
+  <si>
+    <t>GA, HI, J, HO, ASTB, FP, ASTP, YE, SH, I</t>
+  </si>
+  <si>
+    <t>pref 6</t>
+  </si>
+  <si>
+    <t>hi, fp, ga, astb, ho, astp, ye, j, sh, i</t>
+  </si>
+  <si>
+    <t>HI, GA, FP, ASTB, ASTP, HO, YE, SH, J, I</t>
+  </si>
+  <si>
+    <t>HI, FP, GA, ASTB, ASTP, YE, HO, SH, J,I</t>
+  </si>
+  <si>
+    <t>HI, FP, GA, ASTB, HO, ASTP, YE, SH, J, I</t>
   </si>
 </sst>
 </file>
@@ -524,7 +581,7 @@
     <numFmt numFmtId="165" formatCode="0.00000000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,8 +627,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF66FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF66FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +682,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +835,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,9 +959,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,12 +975,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -886,15 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,14 +1026,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -930,6 +1063,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1512,74 +1650,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="28.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1"/>
+    <col min="8" max="8" width="28.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="31.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" style="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="31.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-    </row>
-    <row r="2" spans="1:22" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+    </row>
+    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-    </row>
-    <row r="4" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+    </row>
+    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1639,17 +1777,17 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="57">
-        <v>1</v>
-      </c>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="59">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1685,19 +1823,19 @@
       <c r="O5" s="25">
         <v>1</v>
       </c>
-      <c r="P5" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="53">
+      <c r="P5" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="52">
         <v>1</v>
       </c>
       <c r="R5" s="25"/>
     </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="60"/>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1731,21 +1869,21 @@
       <c r="O6" s="25">
         <v>1</v>
       </c>
-      <c r="P6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="53">
+      <c r="P6" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="52">
         <v>0</v>
       </c>
       <c r="R6" s="25"/>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="57">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="59">
         <v>2</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1781,19 +1919,19 @@
       <c r="O7" s="25">
         <v>0</v>
       </c>
-      <c r="P7" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="53">
+      <c r="P7" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="52">
         <v>0</v>
       </c>
       <c r="R7" s="25"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="61"/>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1827,20 +1965,20 @@
       <c r="O8" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="53">
+      <c r="P8" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="52">
         <v>0</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="61"/>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1874,19 +2012,19 @@
       <c r="O9" s="25">
         <v>1</v>
       </c>
-      <c r="P9" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="53">
+      <c r="P9" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="52">
         <v>0</v>
       </c>
       <c r="R9" s="25"/>
     </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1920,21 +2058,21 @@
       <c r="O10" s="25">
         <v>1</v>
       </c>
-      <c r="P10" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="53">
+      <c r="P10" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="52">
         <v>1</v>
       </c>
       <c r="R10" s="25"/>
     </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="57">
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="59">
         <v>3</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="63" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -1970,19 +2108,19 @@
       <c r="O11" s="25">
         <v>1</v>
       </c>
-      <c r="P11" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="53">
+      <c r="P11" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="52">
         <v>1</v>
       </c>
       <c r="R11" s="25"/>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="61"/>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -2016,19 +2154,19 @@
       <c r="O12" s="25">
         <v>0</v>
       </c>
-      <c r="P12" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="53">
+      <c r="P12" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="52">
         <v>1</v>
       </c>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="60"/>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -2062,21 +2200,21 @@
       <c r="O13" s="25">
         <v>1</v>
       </c>
-      <c r="P13" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="53">
+      <c r="P13" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="52">
         <v>0</v>
       </c>
       <c r="R13" s="25"/>
     </row>
-    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="57">
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="59">
         <v>4</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -2112,19 +2250,19 @@
       <c r="O14" s="25">
         <v>0</v>
       </c>
-      <c r="P14" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="53">
+      <c r="P14" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="52">
         <v>0</v>
       </c>
       <c r="R14" s="25"/>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="60"/>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -2158,21 +2296,21 @@
       <c r="O15" s="25">
         <v>1</v>
       </c>
-      <c r="P15" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="53">
+      <c r="P15" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="52">
         <v>0</v>
       </c>
       <c r="R15" s="25"/>
     </row>
-    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="57">
+    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="59">
         <v>5</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="63" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -2208,19 +2346,19 @@
       <c r="O16" s="25">
         <v>1</v>
       </c>
-      <c r="P16" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="53">
+      <c r="P16" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="52">
         <v>0</v>
       </c>
       <c r="R16" s="25"/>
     </row>
-    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="61"/>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2254,19 +2392,19 @@
       <c r="O17" s="25">
         <v>1</v>
       </c>
-      <c r="P17" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="53">
+      <c r="P17" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="52">
         <v>1</v>
       </c>
       <c r="R17" s="25"/>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="61"/>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2300,19 +2438,19 @@
       <c r="O18" s="25">
         <v>0</v>
       </c>
-      <c r="P18" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="53">
+      <c r="P18" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="52">
         <v>0</v>
       </c>
       <c r="R18" s="25"/>
     </row>
-    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="60"/>
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2346,21 +2484,21 @@
       <c r="O19" s="25">
         <v>1</v>
       </c>
-      <c r="P19" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="53">
+      <c r="P19" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="52">
         <v>1</v>
       </c>
       <c r="R19" s="25"/>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="57">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="59">
         <v>6</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="63" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2396,19 +2534,19 @@
       <c r="O20" s="25">
         <v>1</v>
       </c>
-      <c r="P20" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="53">
+      <c r="P20" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="52">
         <v>0</v>
       </c>
       <c r="R20" s="25"/>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="61"/>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2442,19 +2580,19 @@
       <c r="O21" s="25">
         <v>1</v>
       </c>
-      <c r="P21" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="53">
+      <c r="P21" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="52">
         <v>1</v>
       </c>
       <c r="R21" s="25"/>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="61"/>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2488,19 +2626,19 @@
       <c r="O22" s="25">
         <v>1</v>
       </c>
-      <c r="P22" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="53">
+      <c r="P22" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="52">
         <v>0</v>
       </c>
       <c r="R22" s="25"/>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="61"/>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2534,19 +2672,19 @@
       <c r="O23" s="25">
         <v>1</v>
       </c>
-      <c r="P23" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="53">
+      <c r="P23" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="52">
         <v>0</v>
       </c>
       <c r="R23" s="25"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="61"/>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2580,19 +2718,19 @@
       <c r="O24" s="25">
         <v>1</v>
       </c>
-      <c r="P24" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="53">
+      <c r="P24" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="52">
         <v>1</v>
       </c>
       <c r="R24" s="25"/>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="61"/>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2626,19 +2764,19 @@
       <c r="O25" s="25">
         <v>0</v>
       </c>
-      <c r="P25" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="53">
+      <c r="P25" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="52">
         <v>0</v>
       </c>
       <c r="R25" s="25"/>
     </row>
-    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="61"/>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2672,19 +2810,19 @@
       <c r="O26" s="25">
         <v>1</v>
       </c>
-      <c r="P26" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="53">
+      <c r="P26" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="52">
         <v>1</v>
       </c>
       <c r="R26" s="25"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="61"/>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2718,19 +2856,19 @@
       <c r="O27" s="25">
         <v>1</v>
       </c>
-      <c r="P27" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="53">
+      <c r="P27" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="52">
         <v>1</v>
       </c>
       <c r="R27" s="25"/>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="60"/>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2764,17 +2902,17 @@
       <c r="O28" s="25">
         <v>1</v>
       </c>
-      <c r="P28" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="53">
+      <c r="P28" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="52">
         <v>0</v>
       </c>
       <c r="R28" s="25"/>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2814,21 +2952,21 @@
       <c r="O29" s="25">
         <v>0</v>
       </c>
-      <c r="P29" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="53">
+      <c r="P29" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="52">
         <v>0</v>
       </c>
       <c r="R29" s="25"/>
     </row>
-    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="57">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="59">
         <v>8</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="63" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -2864,19 +3002,19 @@
       <c r="O30" s="25">
         <v>1</v>
       </c>
-      <c r="P30" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="53">
+      <c r="P30" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="52">
         <v>0</v>
       </c>
       <c r="R30" s="25"/>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="60"/>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -2910,10 +3048,10 @@
       <c r="O31" s="25">
         <v>1</v>
       </c>
-      <c r="P31" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="53">
+      <c r="P31" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="52">
         <v>1</v>
       </c>
       <c r="R31" s="25"/>
@@ -2921,17 +3059,17 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="59">
         <v>9</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="63" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -2967,19 +3105,19 @@
       <c r="O32" s="25">
         <v>0</v>
       </c>
-      <c r="P32" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="53">
+      <c r="P32" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="52">
         <v>1</v>
       </c>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="61"/>
+    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -3013,19 +3151,19 @@
       <c r="O33" s="25">
         <v>1</v>
       </c>
-      <c r="P33" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="53">
+      <c r="P33" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="52">
         <v>0</v>
       </c>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="61"/>
+    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -3059,19 +3197,19 @@
       <c r="O34" s="25">
         <v>1</v>
       </c>
-      <c r="P34" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="53">
+      <c r="P34" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="52">
         <v>1</v>
       </c>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="61"/>
+    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -3105,19 +3243,19 @@
       <c r="O35" s="25">
         <v>0</v>
       </c>
-      <c r="P35" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="53">
+      <c r="P35" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="52">
         <v>1</v>
       </c>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="60"/>
+    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -3151,21 +3289,21 @@
       <c r="O36" s="25">
         <v>1</v>
       </c>
-      <c r="P36" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="53">
+      <c r="P36" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="52">
         <v>0</v>
       </c>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="57">
+    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="59">
         <v>10</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -3201,19 +3339,19 @@
       <c r="O37" s="25">
         <v>0</v>
       </c>
-      <c r="P37" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="53">
+      <c r="P37" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="52">
         <v>0</v>
       </c>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="61"/>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -3247,19 +3385,19 @@
       <c r="O38" s="25">
         <v>0</v>
       </c>
-      <c r="P38" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="53">
+      <c r="P38" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="52">
         <v>1</v>
       </c>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="60"/>
+    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3293,21 +3431,21 @@
       <c r="O39" s="25">
         <v>0</v>
       </c>
-      <c r="P39" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="53">
+      <c r="P39" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="52">
         <v>0</v>
       </c>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="57">
+    <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="59">
         <v>11</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="63" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3343,19 +3481,19 @@
       <c r="O40" s="25">
         <v>1</v>
       </c>
-      <c r="P40" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="53">
+      <c r="P40" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="52">
         <v>1</v>
       </c>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="61"/>
+    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3389,19 +3527,19 @@
       <c r="O41" s="25">
         <v>1</v>
       </c>
-      <c r="P41" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="53">
+      <c r="P41" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="52">
         <v>0</v>
       </c>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="60"/>
+    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3435,21 +3573,21 @@
       <c r="O42" s="25">
         <v>1</v>
       </c>
-      <c r="P42" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="53">
+      <c r="P42" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="52">
         <v>1</v>
       </c>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:24" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="57">
+    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="59">
         <v>12</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="63" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3485,10 +3623,10 @@
       <c r="O43" s="25">
         <v>0</v>
       </c>
-      <c r="P43" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="53">
+      <c r="P43" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="52">
         <v>1</v>
       </c>
       <c r="R43" s="25"/>
@@ -3496,11 +3634,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="60"/>
+    <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3534,10 +3672,10 @@
       <c r="O44" s="25">
         <v>0</v>
       </c>
-      <c r="P44" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="53">
+      <c r="P44" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="52">
         <v>1</v>
       </c>
       <c r="R44" s="25"/>
@@ -3545,13 +3683,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="57">
+    <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="59">
         <v>13</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="63" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3587,10 +3725,10 @@
       <c r="O45" s="25">
         <v>1</v>
       </c>
-      <c r="P45" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="53">
+      <c r="P45" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="52">
         <v>0</v>
       </c>
       <c r="R45" s="25"/>
@@ -3607,11 +3745,11 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61"/>
+    <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3645,10 +3783,10 @@
       <c r="O46" s="25">
         <v>1</v>
       </c>
-      <c r="P46" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="53">
+      <c r="P46" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="52">
         <v>0</v>
       </c>
       <c r="R46" s="25"/>
@@ -3662,11 +3800,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61"/>
+    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3700,19 +3838,19 @@
       <c r="O47" s="25">
         <v>1</v>
       </c>
-      <c r="P47" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="53">
+      <c r="P47" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="52">
         <v>1</v>
       </c>
       <c r="R47" s="25"/>
     </row>
-    <row r="48" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61"/>
+    <row r="48" spans="1:24" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3746,19 +3884,19 @@
       <c r="O48" s="25">
         <v>1</v>
       </c>
-      <c r="P48" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="53">
+      <c r="P48" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="52">
         <v>0</v>
       </c>
       <c r="R48" s="25"/>
     </row>
-    <row r="49" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="60"/>
+    <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3792,21 +3930,21 @@
       <c r="O49" s="25">
         <v>0</v>
       </c>
-      <c r="P49" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="53">
+      <c r="P49" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="52">
         <v>1</v>
       </c>
       <c r="R49" s="25"/>
     </row>
-    <row r="50" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="57">
+    <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="59">
         <v>14</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="63" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3842,19 +3980,19 @@
       <c r="O50" s="25">
         <v>0</v>
       </c>
-      <c r="P50" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="53">
+      <c r="P50" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="52">
         <v>0</v>
       </c>
       <c r="R50" s="25"/>
     </row>
-    <row r="51" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="60"/>
+    <row r="51" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -3888,10 +4026,10 @@
       <c r="O51" s="25">
         <v>0</v>
       </c>
-      <c r="P51" s="53">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="53">
+      <c r="P51" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="52">
         <v>1</v>
       </c>
       <c r="R51" s="25"/>
@@ -3899,11 +4037,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="64" t="s">
+    <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="58" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -3945,17 +4083,17 @@
       <c r="O52" s="25">
         <v>1</v>
       </c>
-      <c r="P52" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="53">
+      <c r="P52" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="52">
         <v>1</v>
       </c>
       <c r="R52" s="25"/>
     </row>
-    <row r="53" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
+    <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -3995,10 +4133,10 @@
       <c r="O53" s="25">
         <v>1</v>
       </c>
-      <c r="P53" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="53">
+      <c r="P53" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="52">
         <v>1</v>
       </c>
       <c r="R53" s="25"/>
@@ -4010,12 +4148,12 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="B54" s="64" t="s">
-        <v>153</v>
+    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>148</v>
       </c>
       <c r="C54" s="48"/>
       <c r="D54" s="9"/>
@@ -4023,48 +4161,48 @@
         <v>50</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="G54" s="48"/>
-      <c r="H54" s="51">
+      <c r="H54" s="50">
         <v>4</v>
       </c>
-      <c r="I54" s="51">
+      <c r="I54" s="50">
         <v>3.5</v>
       </c>
-      <c r="J54" s="51">
+      <c r="J54" s="50">
         <v>4.5</v>
       </c>
-      <c r="K54" s="51">
+      <c r="K54" s="50">
         <v>4.5</v>
       </c>
-      <c r="L54" s="51">
+      <c r="L54" s="50">
         <v>4.5</v>
       </c>
-      <c r="M54" s="51">
+      <c r="M54" s="50">
         <v>4.5</v>
       </c>
-      <c r="N54" s="51">
+      <c r="N54" s="50">
         <v>4.5</v>
       </c>
-      <c r="O54" s="51">
+      <c r="O54" s="50">
         <v>3.5</v>
       </c>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="52"/>
-      <c r="S54" s="50"/>
-    </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="64"/>
-      <c r="B55" s="64"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="49"/>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="58"/>
       <c r="C55" s="48"/>
       <c r="D55" s="27"/>
       <c r="E55" s="48">
         <v>51</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="G55" s="48"/>
       <c r="H55" s="48">
@@ -4073,7 +4211,7 @@
       <c r="I55" s="48">
         <v>3.5</v>
       </c>
-      <c r="J55" s="51">
+      <c r="J55" s="50">
         <v>4.5</v>
       </c>
       <c r="K55" s="48">
@@ -4082,29 +4220,29 @@
       <c r="L55" s="48">
         <v>4</v>
       </c>
-      <c r="M55" s="51">
+      <c r="M55" s="50">
         <v>4.5</v>
       </c>
-      <c r="N55" s="51">
+      <c r="N55" s="50">
         <v>4.5</v>
       </c>
       <c r="O55" s="48">
         <v>4</v>
       </c>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
+      <c r="P55" s="52"/>
+      <c r="Q55" s="52"/>
       <c r="R55" s="48"/>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="64"/>
-      <c r="B56" s="64"/>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
       <c r="C56" s="48"/>
       <c r="D56" s="27"/>
       <c r="E56" s="48">
         <v>52</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G56" s="48"/>
       <c r="H56" s="48">
@@ -4113,7 +4251,7 @@
       <c r="I56" s="48">
         <v>3.5</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="50">
         <v>4.5</v>
       </c>
       <c r="K56" s="48">
@@ -4122,22 +4260,22 @@
       <c r="L56" s="48">
         <v>4</v>
       </c>
-      <c r="M56" s="51">
+      <c r="M56" s="50">
         <v>4.5</v>
       </c>
-      <c r="N56" s="51">
+      <c r="N56" s="50">
         <v>4.5</v>
       </c>
       <c r="O56" s="48">
         <v>4</v>
       </c>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
       <c r="R56" s="48"/>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="64"/>
-      <c r="B57" s="64"/>
+    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
       <c r="C57" s="48"/>
       <c r="D57" s="27"/>
       <c r="E57" s="48">
@@ -4153,7 +4291,7 @@
       <c r="I57" s="48">
         <v>3.5</v>
       </c>
-      <c r="J57" s="51">
+      <c r="J57" s="50">
         <v>4.5</v>
       </c>
       <c r="K57" s="48">
@@ -4162,29 +4300,29 @@
       <c r="L57" s="48">
         <v>4</v>
       </c>
-      <c r="M57" s="51">
+      <c r="M57" s="50">
         <v>4.5</v>
       </c>
-      <c r="N57" s="51">
+      <c r="N57" s="50">
         <v>4</v>
       </c>
       <c r="O57" s="48">
         <v>4</v>
       </c>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
+      <c r="P57" s="52"/>
+      <c r="Q57" s="52"/>
       <c r="R57" s="48"/>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="64"/>
-      <c r="B58" s="64"/>
+    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="58"/>
       <c r="C58" s="48"/>
       <c r="D58" s="27"/>
       <c r="E58" s="48">
         <v>54</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G58" s="48"/>
       <c r="H58" s="48">
@@ -4193,7 +4331,7 @@
       <c r="I58" s="48">
         <v>3.5</v>
       </c>
-      <c r="J58" s="51">
+      <c r="J58" s="50">
         <v>4.5</v>
       </c>
       <c r="K58" s="48">
@@ -4202,17 +4340,17 @@
       <c r="L58" s="48">
         <v>4</v>
       </c>
-      <c r="M58" s="51">
+      <c r="M58" s="50">
         <v>4.5</v>
       </c>
-      <c r="N58" s="51">
+      <c r="N58" s="50">
         <v>4.5</v>
       </c>
       <c r="O58" s="48">
         <v>4</v>
       </c>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
       <c r="R58" s="48"/>
       <c r="S58" s="22">
         <v>5</v>
@@ -4221,58 +4359,58 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="B59" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="51">
-        <f>SUM(H54:H58)/25</f>
+    <row r="59" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="50">
+        <f t="shared" ref="H59:O59" si="0">SUM(H54:H58)/25</f>
         <v>0.82</v>
       </c>
-      <c r="I59" s="51">
-        <f>SUM(I54:I58)/25</f>
+      <c r="I59" s="50">
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J59" s="51">
-        <f>SUM(J54:J58)/25</f>
+      <c r="J59" s="50">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="K59" s="51">
-        <f>SUM(K54:K58)/25</f>
+      <c r="K59" s="50">
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="L59" s="51">
-        <f>SUM(L54:L58)/25</f>
+      <c r="L59" s="50">
+        <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
-      <c r="M59" s="51">
-        <f>SUM(M54:M58)/25</f>
+      <c r="M59" s="50">
+        <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="N59" s="51">
-        <f>SUM(N54:N58)/25</f>
+      <c r="N59" s="50">
+        <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="O59" s="51">
-        <f>SUM(O54:O58)/25</f>
+      <c r="O59" s="50">
+        <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="P59" s="55">
+      <c r="P59" s="54">
         <v>0.6</v>
       </c>
-      <c r="Q59" s="55">
+      <c r="Q59" s="54">
         <v>0.3</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -4281,7 +4419,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="11"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -4300,7 +4438,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -4319,7 +4457,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -4338,7 +4476,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -4357,7 +4495,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="11"/>
@@ -4376,7 +4514,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
@@ -4397,16 +4535,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
     <mergeCell ref="A5:A31"/>
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="A32:A51"/>
@@ -4423,6 +4551,11 @@
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C37:C39"/>
     <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="B1:R1"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="C16:C19"/>
@@ -4434,6 +4567,11 @@
     <mergeCell ref="C7:C10"/>
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4442,415 +4580,1737 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="37" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+    <col min="16" max="16" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="G1" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="81"/>
+    </row>
+    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="D2" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="E2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="G2" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="P2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>86</v>
+      </c>
+      <c r="U2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C3" s="43">
+        <v>0.94871795000000003</v>
+      </c>
+      <c r="D3" s="43">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="43">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>2</v>
+      </c>
+      <c r="H3" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="4">
+        <f>(B3-B12)/(B8+B12)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J3" s="4">
+        <f>(C3-C11)/(C12+C11)</f>
+        <v>0.40170940509071829</v>
+      </c>
+      <c r="K3" s="4">
+        <f>(D3-D11)/(D12+D11)</f>
+        <v>0.29756098826888766</v>
+      </c>
+      <c r="L3" s="4">
+        <f>(E3-E11)/(E3+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="80">
+        <f>(B22*I3)+(C22*J3)+(D22*K3)+(E22*L3)</f>
+        <v>0.47418294056855453</v>
+      </c>
+      <c r="P3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q3">
+        <v>0.48333333333333339</v>
+      </c>
+      <c r="R3">
+        <v>0.40350876562019083</v>
+      </c>
+      <c r="S3">
+        <v>0.26829270408090439</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0.49910854466532806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="C4" s="43">
+        <v>0.97560979999999997</v>
+      </c>
+      <c r="D4" s="43">
+        <v>0.85714287</v>
+      </c>
+      <c r="E4" s="43">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="4">
+        <f>(B4-B12)/(B8+B12)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(C4-C11)/(C12+C11)</f>
+        <v>0.4210526656509696</v>
+      </c>
+      <c r="K4" s="4">
+        <f>(D4-D11)/(D12+D11)</f>
+        <v>0.26829270408090439</v>
+      </c>
+      <c r="L4" s="4">
+        <f>(E4-E11)/(E4+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="80">
+        <f>(B22*I4)+(C22*J4)+(D22*K4)+(E22*L4)</f>
+        <v>0.41967385578327887</v>
+      </c>
+      <c r="P4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q4">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="R4">
+        <v>0.32793523496128996</v>
+      </c>
+      <c r="S4">
+        <v>0.27272730997782735</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0.49206641998893419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="C5" s="43">
+        <v>0.65853660000000003</v>
+      </c>
+      <c r="D5" s="43">
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="E5" s="43">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I5" s="4">
+        <f>(B5-B12)/(B8+B12)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J5" s="4">
+        <f>(C5-C11)/(C12+C11)</f>
+        <v>0.19298246875961841</v>
+      </c>
+      <c r="K5" s="4">
+        <f>(D5-D11)/(D12+D11)</f>
+        <v>0.14634145508625812</v>
+      </c>
+      <c r="L5" s="4">
+        <f>(E5-E11)/(E5+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="80">
+        <f>(B22*I5)+(C22*J5)+(D22*K5)+(E22*L5)</f>
+        <v>0.44803404362283283</v>
+      </c>
+      <c r="P5" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q5">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="R5">
+        <v>0.40170940509071829</v>
+      </c>
+      <c r="S5">
+        <v>0.29756098826888766</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0.47418294056855453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.84</v>
+      </c>
+      <c r="C6" s="43">
+        <v>0.92682929999999997</v>
+      </c>
+      <c r="D6" s="43">
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="E6" s="43">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>7</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I6" s="4">
+        <f>(B6-B12)/(B8+B12)</f>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(C6-C11)/(C12+C11)</f>
+        <v>0.38596493751923672</v>
+      </c>
+      <c r="K6" s="4">
+        <f>(D6-D11)/(D12+D11)</f>
+        <v>0.14634145508625812</v>
+      </c>
+      <c r="L6" s="4">
+        <f>(E6-E11)/(E6+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <f>(B22*I6)+(C22*J6)+(D22*K6)+(E22*L6)</f>
+        <v>0.46314125890274799</v>
+      </c>
+      <c r="P6" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="R6">
+        <v>0.43859649375192372</v>
+      </c>
+      <c r="S6">
+        <v>0.19512196287923864</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0.47099795744997253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="C7" s="43">
+        <v>1</v>
+      </c>
+      <c r="D7" s="43">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>6</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="4">
+        <f>(B7-B12)/(B8+B12)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="J7" s="4">
+        <f>(C7-C11)/(C12+C11)</f>
+        <v>0.43859649375192372</v>
+      </c>
+      <c r="K7" s="4">
+        <f>(D7-D11)/(D12+D11)</f>
+        <v>0.19512196287923864</v>
+      </c>
+      <c r="L7" s="4">
+        <f>(E7-E11)/(E7+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="4">
+        <f>(B22*I7)+(C22*J7)+(D22*K7)+(E22*L7)</f>
+        <v>0.47099795744997253</v>
+      </c>
+      <c r="P7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7">
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="R7">
+        <v>0.38596493751923672</v>
+      </c>
+      <c r="S7">
+        <v>0.14634145508625812</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0.46314125890274799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="43">
+        <v>0.84615386000000004</v>
+      </c>
+      <c r="D8" s="43">
+        <v>0.86363639999999997</v>
+      </c>
+      <c r="E8" s="43">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I8" s="4">
+        <f>(B8-B12)/(B8+B12)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(C8-C11)/(C12+C11)</f>
+        <v>0.32793523496128996</v>
+      </c>
+      <c r="K8" s="4">
+        <f>(D8-D11)/(D12+D11)</f>
+        <v>0.27272730997782735</v>
+      </c>
+      <c r="L8" s="4">
+        <f>(E8-E11)/(E8+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <f>(B22*I8)+(C22*J8)+(D22*K8)+(E22*L8)</f>
+        <v>0.49206641998893419</v>
+      </c>
+      <c r="P8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="R8">
+        <v>0.19298246875961841</v>
+      </c>
+      <c r="S8">
+        <v>0.14634145508625812</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0.44803404362283283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.88</v>
+      </c>
+      <c r="C9" s="43">
+        <v>0.9512195</v>
+      </c>
+      <c r="D9" s="43">
+        <v>0.85714287</v>
+      </c>
+      <c r="E9" s="43">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="4">
+        <f>(B9-B12)/(B8+B12)</f>
+        <v>0.48333333333333339</v>
+      </c>
+      <c r="J9" s="4">
+        <f>(C9-C11)/(C12+C11)</f>
+        <v>0.40350876562019083</v>
+      </c>
+      <c r="K9" s="4">
+        <f>(D9-D11)/(D12+D11)</f>
+        <v>0.26829270408090439</v>
+      </c>
+      <c r="L9" s="4">
+        <f>(E9-E11)/(E9+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <f>(B22*I9)+(C22*J9)+(D22*K9)+(E22*L9)</f>
+        <v>0.49910854466532806</v>
+      </c>
+      <c r="P9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R9">
+        <v>0.4210526656509696</v>
+      </c>
+      <c r="S9">
+        <v>0.26829270408090439</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0.41967385578327887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="C10" s="43">
+        <v>0.75609755999999995</v>
+      </c>
+      <c r="D10" s="43">
+        <v>0.53571427000000005</v>
+      </c>
+      <c r="E10" s="43">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>9</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="4">
+        <f>(B10-B12)/(B8+B12)</f>
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="4">
+        <f>(C10-C11)/(C12+C11)</f>
+        <v>0.26315789625115421</v>
+      </c>
+      <c r="K10" s="4">
+        <f>(D10-D11)/(D12+D11)</f>
+        <v>4.87804873051755E-2</v>
+      </c>
+      <c r="L10" s="4">
+        <f>(E10-E11)/(E10+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <f>(B22*I10)+(C22*J10)+(D22*K10)+(E22*L10)</f>
+        <v>0.39723291997860932</v>
+      </c>
+      <c r="P10" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10">
+        <v>0.4</v>
+      </c>
+      <c r="R10">
+        <v>0.26315789625115421</v>
+      </c>
+      <c r="S10">
+        <v>4.87804873051755E-2</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0.39723291997860932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0.39024389999999998</v>
+      </c>
+      <c r="D11" s="76">
+        <v>0.46428570000000002</v>
+      </c>
+      <c r="E11" s="76">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="4">
+        <f>(B11-B12)/(B8+B12)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J11" s="4">
+        <f>(C11-C11)/(C12+C11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <f>(D11-D11)/(D12+D11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <f>(E11-E11)/(E12+E11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f>(B22*I11)+(C22*J11)+(D22*K11)+(E22*L11)</f>
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="P11" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.43859649375192372</v>
+      </c>
+      <c r="S11">
+        <v>0.36585367186198703</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0.24922740659620382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="75">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="77">
+        <v>1</v>
+      </c>
+      <c r="D12" s="77">
+        <v>1</v>
+      </c>
+      <c r="E12" s="77">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="4">
+        <f>(B12-B12)/(B8+B12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f>(C12-C11)/(C12+C11)</f>
+        <v>0.43859649375192372</v>
+      </c>
+      <c r="K12" s="4">
+        <f>(D12-D11)/(D12+D11)</f>
+        <v>0.36585367186198703</v>
+      </c>
+      <c r="L12" s="4">
+        <f>(E12-E11)/(E12+E11)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="4">
+        <f>(B22*I12)+(C22*J12)+(D22*K12)+(E22*L12)</f>
+        <v>0.24922740659620382</v>
+      </c>
+      <c r="P12" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q12">
+        <v>0.25</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="44">
+        <v>3.28</v>
+      </c>
+      <c r="D13" s="44">
+        <v>3.39</v>
+      </c>
+      <c r="E13" s="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G15" s="78" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+    </row>
+    <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="G16" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="J16" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>154</v>
+      </c>
+      <c r="R16" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" t="s">
+        <v>85</v>
+      </c>
+      <c r="T16" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="4">
+        <f>(B3)/(B8)</f>
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="J17" s="4">
+        <f>(C3)/(C12)</f>
+        <v>0.94871795000000003</v>
+      </c>
+      <c r="K17" s="4">
+        <f>(D3)/(D12)</f>
+        <v>0.9</v>
+      </c>
+      <c r="L17" s="4">
+        <f>(E3)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M17" s="80">
+        <f>(B23*I17)+(C23*J17)+(D23*K17)+(E23*L17)</f>
+        <v>0.92811016172839489</v>
+      </c>
+      <c r="P17" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q17">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="R17">
+        <v>0.9512195</v>
+      </c>
+      <c r="S17">
+        <v>0.85714287</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>0.96094119543209877</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="B18" s="49">
+        <v>5</v>
+      </c>
+      <c r="C18" s="49">
+        <v>2</v>
+      </c>
+      <c r="D18" s="49">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="4">
+        <f>(B4)/(B8)</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="J18" s="4">
+        <f>(C4)/(C12)</f>
+        <v>0.97560979999999997</v>
+      </c>
+      <c r="K18" s="4">
+        <f>(D4)/(D12)</f>
+        <v>0.85714287</v>
+      </c>
+      <c r="L18" s="4">
+        <f>(E4)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M18" s="80">
+        <f>(B23*I18)+(C23*J18)+(D23*K18)+(E23*L18)</f>
+        <v>0.85525015098765422</v>
+      </c>
+      <c r="P18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0.84615386000000004</v>
+      </c>
+      <c r="S18">
+        <v>0.86363639999999997</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>0.95066045777777775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="4">
+        <v>9</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="4">
+        <f>(B5)/(B8)</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <f>(C5)/(C12)</f>
+        <v>0.65853660000000003</v>
+      </c>
+      <c r="K19" s="4">
+        <f>(D5)/(D12)</f>
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="L19" s="4">
+        <f>(E5)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M19" s="80">
+        <f>(B23*I19)+(C23*J19)+(D23*K19)+(E23*L19)</f>
+        <v>0.88840495555555554</v>
+      </c>
+      <c r="P19" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q19">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="R19">
+        <v>0.94871795000000003</v>
+      </c>
+      <c r="S19">
+        <v>0.9</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>0.92811016172839489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="47"/>
+      <c r="G20" s="4">
+        <v>6</v>
+      </c>
+      <c r="H20" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="4">
+        <f>(B6)/(B8)</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="J20" s="4">
+        <f>(C6)/(C12)</f>
+        <v>0.92682929999999997</v>
+      </c>
+      <c r="K20" s="4">
+        <f>(D6)/(D12)</f>
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="L20" s="4">
+        <f>(E6)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M20" s="80">
+        <f>(B23*I20)+(C23*J20)+(D23*K20)+(E23*L20)</f>
+        <v>0.91098851851851848</v>
+      </c>
+      <c r="P20" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="R20">
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <v>0.75</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0.92283950617283939</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="4">
+        <f>(B7)/(B8)</f>
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="J21" s="4">
+        <f>(C7)/(C12)</f>
+        <v>1</v>
+      </c>
+      <c r="K21" s="4">
+        <f>(D7)/(D12)</f>
+        <v>0.75</v>
+      </c>
+      <c r="L21" s="4">
+        <f>(E7)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M21" s="80">
+        <f>(B23*I21)+(C23*J21)+(D23*K21)+(E23*L21)</f>
+        <v>0.92283950617283939</v>
+      </c>
+      <c r="P21" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q21">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="R21">
+        <v>0.92682929999999997</v>
+      </c>
+      <c r="S21">
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0.91098851851851848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B22">
+        <f>B18/SUM(B18:E18)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C22">
+        <f>C18/SUM(B18:E18)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D22">
+        <f>D18/SUM(B18:E18)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E22">
+        <f>E18/SUM(B18:E18)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F22">
+        <f>SUM(B22:E22)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>7</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" s="4">
+        <f>(B8)/(B8)</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <f>(C8)/(C12)</f>
+        <v>0.84615386000000004</v>
+      </c>
+      <c r="K22" s="4">
+        <f>(D8)/(D12)</f>
+        <v>0.86363639999999997</v>
+      </c>
+      <c r="L22" s="4">
+        <f>(E8)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="80">
+        <f>(B23*I22)+(C23*J22)+(D23*K22)+(E23*L22)</f>
+        <v>0.95066045777777775</v>
+      </c>
+      <c r="P22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0.65853660000000003</v>
+      </c>
+      <c r="S22">
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>0.88840495555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23">
+        <f>B19/SUM(B19:E19)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C23">
+        <f>C19/SUM(B19:E19)</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D23">
+        <f>D19/SUM(B19:E19)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E23">
+        <f>E19/SUM(B19:E19)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="4">
+        <f>(B9)/(B8)</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="J23" s="4">
+        <f>(C9)/(C12)</f>
+        <v>0.9512195</v>
+      </c>
+      <c r="K23" s="4">
+        <f>(D9)/(D12)</f>
+        <v>0.85714287</v>
+      </c>
+      <c r="L23" s="4">
+        <f>(E9)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M23" s="80">
+        <f>(B23*I23)+(C23*J23)+(D23*K23)+(E23*L23)</f>
+        <v>0.96094119543209877</v>
+      </c>
+      <c r="P23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23">
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="R23">
+        <v>0.97560979999999997</v>
+      </c>
+      <c r="S23">
+        <v>0.85714287</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>0.85525015098765422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G24" s="4">
+        <v>8</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="4">
+        <f>(B10)/(B8)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J24" s="4">
+        <f>(C10)/(C12)</f>
+        <v>0.75609755999999995</v>
+      </c>
+      <c r="K24" s="4">
+        <f>(D10)/(D12)</f>
+        <v>0.53571427000000005</v>
+      </c>
+      <c r="L24" s="4">
+        <f>(E10)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M24" s="80">
+        <f>(B23*I24)+(C23*J24)+(D23*K24)+(E23*L24)</f>
+        <v>0.82013808037037039</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="R24">
+        <v>0.75609755999999995</v>
+      </c>
+      <c r="S24">
+        <v>0.53571427000000005</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>0.82013808037037039</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="G25" s="4">
+        <v>10</v>
+      </c>
+      <c r="H25" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" s="4">
+        <f>(B11)/(B8)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J25" s="4">
+        <f>(C11)/(C12)</f>
+        <v>0.39024389999999998</v>
+      </c>
+      <c r="K25" s="4">
+        <f>(D11)/(D12)</f>
+        <v>0.46428570000000002</v>
+      </c>
+      <c r="L25" s="4">
+        <f>(E11)/(E12)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="80">
+        <f>(B23*I25)+(C23*J25)+(D23*K25)+(E23*L25)</f>
+        <v>0.50867853703703703</v>
+      </c>
+      <c r="P25" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>0.62962962962962954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G26" s="4">
+        <v>2</v>
+      </c>
+      <c r="H26" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="I26" s="4">
+        <f>(B12)/(B8)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J26" s="4">
+        <f>(C12)/(C12)</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="4">
+        <f>(D12)/(D12)</f>
+        <v>1</v>
+      </c>
+      <c r="L26" s="4">
+        <f>(E12)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="M26" s="80">
+        <f>(B23*I26)+(C23*J26)+(D23*K26)+(E23*L26)</f>
+        <v>0.62962962962962954</v>
+      </c>
+      <c r="P26" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R26">
+        <v>0.39024389999999998</v>
+      </c>
+      <c r="S26">
+        <v>0.46428570000000002</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0.50867853703703703</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G27" s="12"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F31" s="68">
+        <v>2</v>
+      </c>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68">
+        <v>1</v>
+      </c>
+      <c r="I31" s="68"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="45">
+        <v>3</v>
+      </c>
+      <c r="C32" s="45">
+        <v>3</v>
+      </c>
+      <c r="D32" s="45">
+        <v>2</v>
+      </c>
+      <c r="E32" s="45">
+        <v>3</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="84"/>
+      <c r="H32" s="84" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="84"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="45">
+        <v>5</v>
+      </c>
+      <c r="C33" s="45">
+        <v>5</v>
+      </c>
+      <c r="D33" s="45">
+        <v>5</v>
+      </c>
+      <c r="E33" s="45">
+        <v>5</v>
+      </c>
+      <c r="F33" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="68"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="I34" s="68"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="I35" s="85"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="G36" s="68"/>
+      <c r="H36" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="85"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="I37" s="84"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="G47" s="83" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="I47" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="J47" s="83" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="K47" s="83" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1</v>
+      </c>
+      <c r="I48" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="J48" s="4">
+        <v>1</v>
+      </c>
+      <c r="K48" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H49" s="4">
+        <v>1</v>
+      </c>
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1</v>
+      </c>
+      <c r="K49" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" s="4">
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="H50" s="4">
+        <v>0.97560979999999997</v>
+      </c>
+      <c r="I50" s="4">
+        <v>0.85714287</v>
+      </c>
+      <c r="J50" s="4">
+        <v>1</v>
+      </c>
+      <c r="K50" s="4">
+        <v>0.97560979999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="H51" s="4">
+        <v>0.9512195</v>
+      </c>
+      <c r="I51" s="4">
+        <v>0.85714287</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1</v>
+      </c>
+      <c r="K51" s="4">
+        <v>0.9512195</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B2" s="43">
+      <c r="G52" s="4">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="H52" s="4">
         <v>0.94871795000000003</v>
       </c>
-      <c r="C2" s="43">
+      <c r="I52" s="4">
         <v>0.9</v>
       </c>
-      <c r="D2" s="43">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0.82</v>
-      </c>
-      <c r="H2" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="4">
-        <f>(B2-B25)/(B26-B25)</f>
-        <v>0.84981684713500782</v>
-      </c>
-      <c r="J2" s="4">
-        <f>(C2-MIN(C2:C9))/(MAX(C2:C9)-MIN(C2:C9))</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="4" t="e">
-        <f>D2-D25/(D26-D25)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="43">
-        <v>0.97560979999999997</v>
-      </c>
-      <c r="C3" s="43">
-        <v>0.85714287</v>
-      </c>
-      <c r="D3" s="43">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.7</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I3" s="4">
-        <f>(B3-B25)/(B26-B25)</f>
-        <v>0.92857155408163794</v>
-      </c>
-      <c r="J3" s="4">
-        <f>(C3-C25)/(C27)</f>
-        <v>0.88235298154555764</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.94871795000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="4">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.92682929999999997</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.92682929999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F54" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="H54" s="4">
+        <v>0.84615386000000004</v>
+      </c>
+      <c r="I54" s="4">
+        <v>0.86363639999999997</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1</v>
+      </c>
+      <c r="K54" s="4">
+        <v>0.84615386000000004</v>
+      </c>
+    </row>
+    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F55" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H55" s="4">
+        <v>0.75609755999999995</v>
+      </c>
+      <c r="I55" s="4">
+        <v>0.53571427000000005</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1</v>
+      </c>
+      <c r="K55" s="4">
+        <v>0.75609755999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F56" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="43">
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
         <v>0.65853660000000003</v>
       </c>
-      <c r="C4" s="43">
+      <c r="I56" s="4">
         <v>0.67857140000000005</v>
       </c>
-      <c r="D4" s="43">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="4">
-        <f>(B4-B25)/B27</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="4">
-        <f>(C4-C25)/(C27)</f>
-        <v>0.39215681053441209</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" s="43">
-        <v>0.92682929999999997</v>
-      </c>
-      <c r="C5" s="43">
-        <v>0.67857140000000005</v>
-      </c>
-      <c r="D5" s="43">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0.84</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="I5" s="4">
-        <f>(B5-B25)/B27</f>
-        <v>0.78571436938775863</v>
-      </c>
-      <c r="J5" s="4">
-        <f>(C5-C25)/(C27)</f>
-        <v>0.39215681053441209</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="43">
-        <v>1</v>
-      </c>
-      <c r="C6" s="43">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="43">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0.82</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I6" s="4">
-        <f>(B6-B25)/B27</f>
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <f>(C6-C25)/(C27)</f>
-        <v>0.5882353118800453</v>
-      </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="43">
-        <v>0.84615386000000004</v>
-      </c>
-      <c r="C7" s="43">
-        <v>0.86363639999999997</v>
-      </c>
-      <c r="D7" s="43">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>0.9</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I7" s="4">
-        <f>(B7-B25)/B27</f>
-        <v>0.54945057069073877</v>
-      </c>
-      <c r="J7" s="4">
-        <f>(C7-C25)/(C27)</f>
-        <v>0.90017835724720796</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="43">
-        <v>0.9512195</v>
-      </c>
-      <c r="C8" s="43">
-        <v>0.85714287</v>
-      </c>
-      <c r="D8" s="43">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0.88</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="4">
-        <f>(B8-B25)/B27</f>
-        <v>0.85714281530612069</v>
-      </c>
-      <c r="J8" s="4">
-        <f>(C8-C25)/(C27)</f>
-        <v>0.88235298154555764</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="43">
-        <v>0.75609755999999995</v>
-      </c>
-      <c r="C9" s="43">
-        <v>0.53571427000000005</v>
-      </c>
-      <c r="D9" s="43">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0.78</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="4">
-        <f>(B9-B25)/B27</f>
-        <v>0.28571425224489633</v>
-      </c>
-      <c r="J9" s="4">
-        <f>(C9-C25)/(C27)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B10" s="44">
-        <v>3.28</v>
-      </c>
-      <c r="C10" s="44">
-        <v>3.39</v>
-      </c>
-      <c r="D10" s="44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="E12" s="56"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="47"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21" s="45">
-        <f>SUM(B10:D10)</f>
-        <v>11.67</v>
-      </c>
-      <c r="C21" s="45">
-        <f>SUM(B10:D10)</f>
-        <v>11.67</v>
-      </c>
-      <c r="D21" s="45">
-        <f>SUM(B10:D10)</f>
-        <v>11.67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="B22">
-        <f>B10/B21</f>
-        <v>0.2810625535561268</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:D22" si="0">C10/C21</f>
-        <v>0.29048843187660672</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.42844901456726647</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="45">
-        <f>MIN(B2:B9)</f>
+      <c r="J56" s="4">
+        <v>1</v>
+      </c>
+      <c r="K56" s="4">
         <v>0.65853660000000003</v>
       </c>
-      <c r="C25" s="45">
-        <f>MIN(C2:C9)</f>
-        <v>0.53571427000000005</v>
-      </c>
-      <c r="D25" s="45">
-        <f>MIN(D2:D9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="45">
-        <f>MAX(B2:B9)</f>
-        <v>1</v>
-      </c>
-      <c r="C26" s="45">
-        <f>MAX(C2:C9)</f>
-        <v>0.9</v>
-      </c>
-      <c r="D26" s="45">
-        <f>MAX(D2:D9)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="45">
-        <f>B26-B25</f>
-        <v>0.34146339999999997</v>
-      </c>
-      <c r="C27" s="45">
-        <f t="shared" ref="C27:D27" si="1">C26-C25</f>
-        <v>0.36428572999999997</v>
-      </c>
-      <c r="D27" s="45">
-        <f t="shared" si="1"/>
-        <v>0</v>
+    </row>
+    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F57" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G57" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H57" s="4">
+        <v>0.39024389999999998</v>
+      </c>
+      <c r="I57" s="4">
+        <v>0.46428570000000002</v>
+      </c>
+      <c r="J57" s="4">
+        <v>0</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0.39024389999999998</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="P3:U12">
+    <sortCondition descending="1" ref="U2"/>
+  </sortState>
+  <mergeCells count="17">
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G15:M15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -4864,28 +6324,28 @@
       <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29" style="10" customWidth="1"/>
-    <col min="5" max="5" width="4.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.33203125" style="7" customWidth="1"/>
-    <col min="7" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.28515625" style="7" customWidth="1"/>
+    <col min="7" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+    <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -4897,16 +6357,16 @@
       <c r="Q1" s="30"/>
       <c r="R1" s="30"/>
     </row>
-    <row r="2" spans="1:22" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="s">
+    <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -4918,7 +6378,7 @@
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
     </row>
-    <row r="4" spans="1:22" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -4958,17 +6418,17 @@
       <c r="U4" s="24"/>
       <c r="V4" s="24"/>
     </row>
-    <row r="5" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="57">
-        <v>1</v>
-      </c>
-      <c r="D5" s="59" t="s">
+      <c r="C5" s="59">
+        <v>1</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -4992,11 +6452,11 @@
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
     </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="60"/>
+    <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="29">
         <v>2</v>
       </c>
@@ -5018,13 +6478,13 @@
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
     </row>
-    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="57">
+    <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="59">
         <v>2</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="63" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="29">
@@ -5048,11 +6508,11 @@
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
     </row>
-    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="61"/>
+    <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="29">
         <v>4</v>
       </c>
@@ -5075,11 +6535,11 @@
       <c r="R8" s="11"/>
       <c r="S8" s="21"/>
     </row>
-    <row r="9" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="61"/>
+    <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="65"/>
       <c r="E9" s="29">
         <v>5</v>
       </c>
@@ -5101,11 +6561,11 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
     </row>
-    <row r="10" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="60"/>
+    <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="29">
         <v>6</v>
       </c>
@@ -5127,13 +6587,13 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="57">
+    <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="59">
         <v>3</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="63" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="29">
@@ -5157,11 +6617,11 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="61"/>
+    <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="29">
         <v>8</v>
       </c>
@@ -5183,11 +6643,11 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="60"/>
+    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="29">
         <v>9</v>
       </c>
@@ -5209,13 +6669,13 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="62"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="57">
+    <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="59">
         <v>4</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="63" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="29">
@@ -5239,11 +6699,11 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="60"/>
+    <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="29">
         <v>11</v>
       </c>
@@ -5265,13 +6725,13 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
     </row>
-    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="57">
+    <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="59">
         <v>5</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="63" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="29">
@@ -5295,11 +6755,11 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
     </row>
-    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="61"/>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="29">
         <v>13</v>
       </c>
@@ -5321,11 +6781,11 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
     </row>
-    <row r="18" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="61"/>
+    <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="29">
         <v>14</v>
       </c>
@@ -5347,11 +6807,11 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="60"/>
+    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="29">
         <v>15</v>
       </c>
@@ -5373,13 +6833,13 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="57">
+    <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="59">
         <v>6</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="63" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="29">
@@ -5403,11 +6863,11 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="61"/>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="60"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="29">
         <v>17</v>
       </c>
@@ -5429,11 +6889,11 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="61"/>
+    <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="29">
         <v>18</v>
       </c>
@@ -5455,11 +6915,11 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="61"/>
+    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="29">
         <v>19</v>
       </c>
@@ -5481,11 +6941,11 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="61"/>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="29">
         <v>20</v>
       </c>
@@ -5507,11 +6967,11 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="61"/>
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="65"/>
       <c r="E25" s="29">
         <v>21</v>
       </c>
@@ -5533,11 +6993,11 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="61"/>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="60"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="29">
         <v>22</v>
       </c>
@@ -5559,11 +7019,11 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="61"/>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="29">
         <v>23</v>
       </c>
@@ -5585,11 +7045,11 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="60"/>
+    <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="60"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="29">
         <v>24</v>
       </c>
@@ -5611,9 +7071,9 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="29">
         <v>7</v>
       </c>
@@ -5641,13 +7101,13 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="57">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="59">
         <v>8</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="63" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="29">
@@ -5671,11 +7131,11 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="58"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="60"/>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="61"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="29">
         <v>27</v>
       </c>
@@ -5698,17 +7158,17 @@
       <c r="R31" s="11"/>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="57" t="s">
+      <c r="B32" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="59">
         <v>9</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="63" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="29">
@@ -5732,11 +7192,11 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="61"/>
+    <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="29">
         <v>29</v>
       </c>
@@ -5758,11 +7218,11 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="61"/>
+    <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="29">
         <v>30</v>
       </c>
@@ -5784,11 +7244,11 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="61"/>
+    <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="29">
         <v>31</v>
       </c>
@@ -5810,11 +7270,11 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="60"/>
+    <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="29">
         <v>32</v>
       </c>
@@ -5836,13 +7296,13 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="57">
+    <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="59">
         <v>10</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="63" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="29">
@@ -5866,11 +7326,11 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="61"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="29">
         <v>34</v>
       </c>
@@ -5892,11 +7352,11 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="60"/>
+    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="64"/>
       <c r="E39" s="29">
         <v>35</v>
       </c>
@@ -5918,13 +7378,13 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
     </row>
-    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="57">
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="59">
         <v>11</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="63" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="29">
@@ -5948,11 +7408,11 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="61"/>
+    <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="65"/>
       <c r="E41" s="29">
         <v>37</v>
       </c>
@@ -5974,11 +7434,11 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="60"/>
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="64"/>
       <c r="E42" s="29">
         <v>38</v>
       </c>
@@ -6000,13 +7460,13 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="57">
+    <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="59">
         <v>12</v>
       </c>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="63" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="29">
@@ -6030,11 +7490,11 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="60"/>
+    <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="64"/>
       <c r="E44" s="29">
         <v>40</v>
       </c>
@@ -6056,13 +7516,13 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="57">
+    <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="59">
         <v>13</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="63" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="29">
@@ -6086,11 +7546,11 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="61"/>
+    <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="65"/>
       <c r="E46" s="29">
         <v>42</v>
       </c>
@@ -6112,11 +7572,11 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="61"/>
+    <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="65"/>
       <c r="E47" s="29">
         <v>43</v>
       </c>
@@ -6138,11 +7598,11 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="61"/>
+    <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="29">
         <v>44</v>
       </c>
@@ -6164,11 +7624,11 @@
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="60"/>
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="29">
         <v>45</v>
       </c>
@@ -6190,13 +7650,13 @@
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
     </row>
-    <row r="50" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="57">
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="59">
         <v>14</v>
       </c>
-      <c r="D50" s="59" t="s">
+      <c r="D50" s="63" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="29">
@@ -6220,11 +7680,11 @@
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="60"/>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="61"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="64"/>
       <c r="E51" s="29">
         <v>47</v>
       </c>
@@ -6247,11 +7707,11 @@
       <c r="R51" s="11"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="64" t="s">
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="58" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="29">
@@ -6281,9 +7741,9 @@
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
     </row>
-    <row r="53" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="64"/>
-      <c r="B53" s="64"/>
+    <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="29">
         <v>16</v>
       </c>
@@ -6312,7 +7772,7 @@
       <c r="R53" s="11"/>
       <c r="S53" s="12"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="11"/>
@@ -6331,7 +7791,7 @@
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="11"/>
@@ -6350,7 +7810,7 @@
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="11"/>
@@ -6369,7 +7829,7 @@
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="11"/>
@@ -6388,7 +7848,7 @@
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="11"/>
@@ -6407,7 +7867,7 @@
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="11"/>
@@ -6428,7 +7888,7 @@
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="11"/>
@@ -6447,7 +7907,7 @@
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="11"/>
@@ -6466,7 +7926,7 @@
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="11"/>
@@ -6485,7 +7945,7 @@
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="11"/>
@@ -6504,7 +7964,7 @@
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="11"/>
@@ -6523,7 +7983,7 @@
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="11"/>
@@ -6542,7 +8002,7 @@
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="11"/>
@@ -6563,24 +8023,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B1:H1"/>
@@ -6597,6 +8039,24 @@
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6611,14 +8071,14 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" style="28" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="28" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>119</v>
       </c>
@@ -6626,8 +8086,8 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="26">
@@ -6643,8 +8103,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
       <c r="B3" s="26">
         <v>4</v>
       </c>
@@ -6658,8 +8118,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="65"/>
       <c r="B4" s="26">
         <v>5</v>
       </c>
@@ -6673,8 +8133,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="64"/>
       <c r="B5" s="26">
         <v>6</v>
       </c>
@@ -6688,7 +8148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
@@ -6702,7 +8162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>62</v>
       </c>
@@ -6716,8 +8176,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="26">
@@ -6733,8 +8193,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="64"/>
       <c r="B9" s="26">
         <v>27</v>
       </c>
@@ -6762,14 +8222,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="70.5546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>81</v>
       </c>
@@ -6780,7 +8240,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -6791,7 +8251,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -6802,7 +8262,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -6813,7 +8273,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -6824,7 +8284,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -6835,110 +8295,110 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
         <v>17</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>18</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
         <v>19</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
         <v>136</v>
       </c>
@@ -6957,46 +8417,46 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
     <col min="9" max="9" width="7" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" customWidth="1"/>
     <col min="13" max="13" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="M1" s="69" t="s">
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="M1" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="N2" s="70" t="s">
+      <c r="N2" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="70"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O2" s="71"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>81</v>
       </c>
@@ -7034,7 +8494,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -7063,7 +8523,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -7092,7 +8552,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -7121,7 +8581,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -7138,20 +8598,20 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="20"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N9" s="70" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="70"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H10" s="66" t="s">
+      <c r="O9" s="71"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H10" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="66"/>
+      <c r="I10" s="67"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -7168,11 +8628,11 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H11" s="67" t="s">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H11" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="68"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -7183,11 +8643,11 @@
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H12" s="67" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H12" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="67"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -7198,11 +8658,11 @@
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H13" s="67" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H13" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="67"/>
+      <c r="I13" s="68"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -7213,11 +8673,11 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H14" s="67" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H14" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="67"/>
+      <c r="I14" s="68"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -7228,13 +8688,13 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="N16" s="70" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="70"/>
-    </row>
-    <row r="17" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="O16" s="71"/>
+    </row>
+    <row r="17" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M17" s="18" t="s">
         <v>112</v>
       </c>
@@ -7248,7 +8708,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M18" s="8" t="s">
         <v>113</v>
       </c>
@@ -7256,7 +8716,7 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
     </row>
-    <row r="19" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M19" s="8" t="s">
         <v>114</v>
       </c>
@@ -7264,7 +8724,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M20" s="8" t="s">
         <v>96</v>
       </c>
@@ -7272,7 +8732,7 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M21" s="8" t="s">
         <v>116</v>
       </c>
@@ -7280,13 +8740,13 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
     </row>
-    <row r="23" spans="13:16" x14ac:dyDescent="0.3">
-      <c r="N23" s="68" t="s">
+    <row r="23" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="N23" s="69" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="68"/>
-    </row>
-    <row r="24" spans="13:16" x14ac:dyDescent="0.3">
+      <c r="O23" s="69"/>
+    </row>
+    <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="18" t="s">
         <v>112</v>
       </c>
@@ -7300,7 +8760,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M25" s="8" t="s">
         <v>113</v>
       </c>
@@ -7308,7 +8768,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
     </row>
-    <row r="26" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M26" s="8" t="s">
         <v>114</v>
       </c>
@@ -7316,7 +8776,7 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
     </row>
-    <row r="27" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M27" s="8" t="s">
         <v>96</v>
       </c>
@@ -7324,7 +8784,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="13:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M28" s="8" t="s">
         <v>116</v>
       </c>

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
   <si>
     <t>NO</t>
   </si>
@@ -472,9 +472,6 @@
     <t>Hotel</t>
   </si>
   <si>
-    <t>Pref</t>
-  </si>
-  <si>
     <t>Rating Umum</t>
   </si>
   <si>
@@ -499,89 +496,58 @@
     <t>RATING TRIP ADVISOR</t>
   </si>
   <si>
-    <t>BOBOT</t>
-  </si>
-  <si>
     <t>Hotel I</t>
   </si>
   <si>
     <t>Hotel J</t>
   </si>
   <si>
-    <t>pref 1</t>
-  </si>
-  <si>
     <t>pref 2</t>
   </si>
   <si>
-    <t>J, Asrilia, Horison</t>
-  </si>
-  <si>
-    <t>astb, J , Horison</t>
-  </si>
-  <si>
-    <t>Ratio pref 1</t>
-  </si>
-  <si>
-    <t>Ratio pref 2</t>
-  </si>
-  <si>
-    <t>Pref 1</t>
-  </si>
-  <si>
     <t>HASIL</t>
   </si>
   <si>
     <t>Urutan</t>
   </si>
   <si>
-    <t>PREF 2</t>
-  </si>
-  <si>
-    <t>pref 3</t>
-  </si>
-  <si>
-    <t>pref 4</t>
-  </si>
-  <si>
-    <t>pref 5</t>
-  </si>
-  <si>
-    <t>HI , GA, FP, ASTB, HO, ASTP, YE J, SH, I</t>
-  </si>
-  <si>
-    <t>HI, FP, GA, ASTB, ASTP, YE, HO, SH, J, I</t>
-  </si>
-  <si>
-    <t>GA, HI, J, HO, ASTB, FP, ASTP, YE, SH, I</t>
-  </si>
-  <si>
-    <t>pref 6</t>
-  </si>
-  <si>
-    <t>hi, fp, ga, astb, ho, astp, ye, j, sh, i</t>
-  </si>
-  <si>
-    <t>HI, GA, FP, ASTB, ASTP, HO, YE, SH, J, I</t>
-  </si>
-  <si>
-    <t>HI, FP, GA, ASTB, ASTP, YE, HO, SH, J,I</t>
-  </si>
-  <si>
-    <t>HI, FP, GA, ASTB, HO, ASTP, YE, SH, J, I</t>
+    <t>Bobot Preferensi</t>
+  </si>
+  <si>
+    <t>PREFERENSI</t>
+  </si>
+  <si>
+    <t>NORMALISASI MATRIKS</t>
+  </si>
+  <si>
+    <t>DATASET HOTEL</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Normalisasi BOBOT</t>
+  </si>
+  <si>
+    <t>SCORING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,8 +625,23 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,18 +669,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,7 +804,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -948,14 +917,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,6 +941,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -987,26 +995,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1024,36 +1020,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1648,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,50 +1638,51 @@
     <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="23.42578125" style="1" customWidth="1"/>
     <col min="16" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="11.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="19" max="21" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
+      <c r="A1" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
     </row>
     <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1778,16 +1745,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="59">
-        <v>1</v>
-      </c>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="64">
+        <v>1</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1823,19 +1790,19 @@
       <c r="O5" s="25">
         <v>1</v>
       </c>
-      <c r="P5" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="52">
+      <c r="P5" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="49">
         <v>1</v>
       </c>
       <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1869,21 +1836,21 @@
       <c r="O6" s="25">
         <v>1</v>
       </c>
-      <c r="P6" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="52">
-        <v>0</v>
+      <c r="P6" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="49">
+        <v>1</v>
       </c>
       <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="59">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="64">
         <v>2</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1919,19 +1886,19 @@
       <c r="O7" s="25">
         <v>0</v>
       </c>
-      <c r="P7" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="52">
-        <v>0</v>
+      <c r="P7" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="49">
+        <v>1</v>
       </c>
       <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1965,20 +1932,20 @@
       <c r="O8" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="52">
-        <v>0</v>
+      <c r="P8" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="49">
+        <v>1</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -2012,19 +1979,19 @@
       <c r="O9" s="25">
         <v>1</v>
       </c>
-      <c r="P9" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="52">
-        <v>0</v>
+      <c r="P9" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="49">
+        <v>1</v>
       </c>
       <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="64"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -2058,21 +2025,21 @@
       <c r="O10" s="25">
         <v>1</v>
       </c>
-      <c r="P10" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="52">
+      <c r="P10" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="49">
         <v>1</v>
       </c>
       <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="59">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="64">
         <v>3</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="67" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -2108,19 +2075,19 @@
       <c r="O11" s="25">
         <v>1</v>
       </c>
-      <c r="P11" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="52">
+      <c r="P11" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="49">
         <v>1</v>
       </c>
       <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -2154,19 +2121,19 @@
       <c r="O12" s="25">
         <v>0</v>
       </c>
-      <c r="P12" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="52">
+      <c r="P12" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="49">
         <v>1</v>
       </c>
       <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -2200,21 +2167,21 @@
       <c r="O13" s="25">
         <v>1</v>
       </c>
-      <c r="P13" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="52">
-        <v>0</v>
+      <c r="P13" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="49">
+        <v>1</v>
       </c>
       <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="59">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="64">
         <v>4</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="67" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -2250,19 +2217,19 @@
       <c r="O14" s="25">
         <v>0</v>
       </c>
-      <c r="P14" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="52">
-        <v>0</v>
+      <c r="P14" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="49">
+        <v>1</v>
       </c>
       <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -2296,21 +2263,21 @@
       <c r="O15" s="25">
         <v>1</v>
       </c>
-      <c r="P15" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="52">
-        <v>0</v>
+      <c r="P15" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="49">
+        <v>1</v>
       </c>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64">
         <v>5</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="67" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -2346,19 +2313,19 @@
       <c r="O16" s="25">
         <v>1</v>
       </c>
-      <c r="P16" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="52">
-        <v>0</v>
+      <c r="P16" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="49">
+        <v>1</v>
       </c>
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2392,19 +2359,19 @@
       <c r="O17" s="25">
         <v>1</v>
       </c>
-      <c r="P17" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="52">
+      <c r="P17" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="49">
         <v>1</v>
       </c>
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2438,19 +2405,19 @@
       <c r="O18" s="25">
         <v>0</v>
       </c>
-      <c r="P18" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="52">
-        <v>0</v>
+      <c r="P18" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="49">
+        <v>1</v>
       </c>
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2484,21 +2451,21 @@
       <c r="O19" s="25">
         <v>1</v>
       </c>
-      <c r="P19" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="52">
+      <c r="P19" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="49">
         <v>1</v>
       </c>
       <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="59">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="64">
         <v>6</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2534,19 +2501,19 @@
       <c r="O20" s="25">
         <v>1</v>
       </c>
-      <c r="P20" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="52">
-        <v>0</v>
+      <c r="P20" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="49">
+        <v>1</v>
       </c>
       <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="65"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2580,19 +2547,19 @@
       <c r="O21" s="25">
         <v>1</v>
       </c>
-      <c r="P21" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="52">
+      <c r="P21" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="49">
         <v>1</v>
       </c>
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="65"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2626,19 +2593,19 @@
       <c r="O22" s="25">
         <v>1</v>
       </c>
-      <c r="P22" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="52">
-        <v>0</v>
+      <c r="P22" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="49">
+        <v>1</v>
       </c>
       <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="65"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2672,19 +2639,19 @@
       <c r="O23" s="25">
         <v>1</v>
       </c>
-      <c r="P23" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="52">
-        <v>0</v>
+      <c r="P23" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="49">
+        <v>1</v>
       </c>
       <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2718,19 +2685,19 @@
       <c r="O24" s="25">
         <v>1</v>
       </c>
-      <c r="P24" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="52">
+      <c r="P24" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="49">
         <v>1</v>
       </c>
       <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="65"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2764,19 +2731,19 @@
       <c r="O25" s="25">
         <v>0</v>
       </c>
-      <c r="P25" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="52">
-        <v>0</v>
+      <c r="P25" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="49">
+        <v>1</v>
       </c>
       <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="65"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2810,19 +2777,19 @@
       <c r="O26" s="25">
         <v>1</v>
       </c>
-      <c r="P26" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="52">
+      <c r="P26" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="49">
         <v>1</v>
       </c>
       <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="65"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2856,19 +2823,19 @@
       <c r="O27" s="25">
         <v>1</v>
       </c>
-      <c r="P27" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="52">
+      <c r="P27" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="49">
         <v>1</v>
       </c>
       <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="64"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2902,17 +2869,17 @@
       <c r="O28" s="25">
         <v>1</v>
       </c>
-      <c r="P28" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="52">
-        <v>0</v>
+      <c r="P28" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="49">
+        <v>1</v>
       </c>
       <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2952,21 +2919,21 @@
       <c r="O29" s="25">
         <v>0</v>
       </c>
-      <c r="P29" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="52">
-        <v>0</v>
+      <c r="P29" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="49">
+        <v>1</v>
       </c>
       <c r="R29" s="25"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="59">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="64">
         <v>8</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="67" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -3002,19 +2969,19 @@
       <c r="O30" s="25">
         <v>1</v>
       </c>
-      <c r="P30" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="52">
-        <v>0</v>
+      <c r="P30" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="49">
+        <v>1</v>
       </c>
       <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="64"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -3048,28 +3015,26 @@
       <c r="O31" s="25">
         <v>1</v>
       </c>
-      <c r="P31" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="52">
+      <c r="P31" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="49">
         <v>1</v>
       </c>
       <c r="R31" s="25"/>
-      <c r="S31" s="22">
-        <v>20.5</v>
-      </c>
+      <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="64">
         <v>9</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="67" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -3105,19 +3070,19 @@
       <c r="O32" s="25">
         <v>0</v>
       </c>
-      <c r="P32" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="52">
+      <c r="P32" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="49">
         <v>1</v>
       </c>
       <c r="R32" s="25"/>
     </row>
-    <row r="33" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="65"/>
+    <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -3151,19 +3116,19 @@
       <c r="O33" s="25">
         <v>1</v>
       </c>
-      <c r="P33" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="52">
-        <v>0</v>
+      <c r="P33" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="49">
+        <v>1</v>
       </c>
       <c r="R33" s="25"/>
     </row>
-    <row r="34" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="65"/>
+    <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -3197,19 +3162,19 @@
       <c r="O34" s="25">
         <v>1</v>
       </c>
-      <c r="P34" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="52">
+      <c r="P34" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="49">
         <v>1</v>
       </c>
       <c r="R34" s="25"/>
     </row>
-    <row r="35" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="65"/>
+    <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -3243,19 +3208,19 @@
       <c r="O35" s="25">
         <v>0</v>
       </c>
-      <c r="P35" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="52">
+      <c r="P35" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="49">
         <v>1</v>
       </c>
       <c r="R35" s="25"/>
     </row>
-    <row r="36" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="64"/>
+    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -3289,21 +3254,21 @@
       <c r="O36" s="25">
         <v>1</v>
       </c>
-      <c r="P36" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="52">
-        <v>0</v>
+      <c r="P36" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="49">
+        <v>1</v>
       </c>
       <c r="R36" s="25"/>
     </row>
-    <row r="37" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="59">
+    <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="64">
         <v>10</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -3339,19 +3304,19 @@
       <c r="O37" s="25">
         <v>0</v>
       </c>
-      <c r="P37" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="52">
-        <v>0</v>
+      <c r="P37" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="49">
+        <v>1</v>
       </c>
       <c r="R37" s="25"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="65"/>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -3385,19 +3350,19 @@
       <c r="O38" s="25">
         <v>0</v>
       </c>
-      <c r="P38" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="52">
+      <c r="P38" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="49">
         <v>1</v>
       </c>
       <c r="R38" s="25"/>
     </row>
-    <row r="39" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="64"/>
+    <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3431,21 +3396,21 @@
       <c r="O39" s="25">
         <v>0</v>
       </c>
-      <c r="P39" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="52">
-        <v>0</v>
+      <c r="P39" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="49">
+        <v>1</v>
       </c>
       <c r="R39" s="25"/>
     </row>
-    <row r="40" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="59">
+    <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="64">
         <v>11</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="67" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3481,19 +3446,19 @@
       <c r="O40" s="25">
         <v>1</v>
       </c>
-      <c r="P40" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="52">
+      <c r="P40" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="49">
         <v>1</v>
       </c>
       <c r="R40" s="25"/>
     </row>
-    <row r="41" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="65"/>
+    <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3527,19 +3492,19 @@
       <c r="O41" s="25">
         <v>1</v>
       </c>
-      <c r="P41" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="52">
-        <v>0</v>
+      <c r="P41" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="49">
+        <v>1</v>
       </c>
       <c r="R41" s="25"/>
     </row>
-    <row r="42" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="64"/>
+    <row r="42" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="69"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3573,21 +3538,21 @@
       <c r="O42" s="25">
         <v>1</v>
       </c>
-      <c r="P42" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="52">
+      <c r="P42" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="49">
         <v>1</v>
       </c>
       <c r="R42" s="25"/>
     </row>
-    <row r="43" spans="1:24" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="59">
+    <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="64">
         <v>12</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="67" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3623,22 +3588,20 @@
       <c r="O43" s="25">
         <v>0</v>
       </c>
-      <c r="P43" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="52">
+      <c r="P43" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="49">
         <v>1</v>
       </c>
       <c r="R43" s="25"/>
-      <c r="T43" s="46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="64"/>
+      <c r="T43" s="44"/>
+    </row>
+    <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3672,24 +3635,22 @@
       <c r="O44" s="25">
         <v>0</v>
       </c>
-      <c r="P44" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="52">
+      <c r="P44" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="49">
         <v>1</v>
       </c>
       <c r="R44" s="25"/>
-      <c r="T44" s="46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="59">
+      <c r="T44" s="44"/>
+    </row>
+    <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="64">
         <v>13</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="67" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3725,31 +3686,20 @@
       <c r="O45" s="25">
         <v>1</v>
       </c>
-      <c r="P45" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="52">
-        <v>0</v>
+      <c r="P45" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="49">
+        <v>1</v>
       </c>
       <c r="R45" s="25"/>
-      <c r="T45" s="46">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>0.5</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="65"/>
+      <c r="T45" s="44"/>
+    </row>
+    <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3783,28 +3733,19 @@
       <c r="O46" s="25">
         <v>1</v>
       </c>
-      <c r="P46" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="52">
-        <v>0</v>
+      <c r="P46" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="49">
+        <v>1</v>
       </c>
       <c r="R46" s="25"/>
-      <c r="V46">
-        <v>25</v>
-      </c>
-      <c r="W46">
-        <v>50</v>
-      </c>
-      <c r="X46">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="65"/>
+    </row>
+    <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3838,19 +3779,19 @@
       <c r="O47" s="25">
         <v>1</v>
       </c>
-      <c r="P47" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="52">
+      <c r="P47" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="49">
         <v>1</v>
       </c>
       <c r="R47" s="25"/>
     </row>
-    <row r="48" spans="1:24" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="65"/>
+    <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="68"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3884,19 +3825,19 @@
       <c r="O48" s="25">
         <v>1</v>
       </c>
-      <c r="P48" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="52">
-        <v>0</v>
+      <c r="P48" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="49">
+        <v>1</v>
       </c>
       <c r="R48" s="25"/>
     </row>
     <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="64"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="69"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3930,21 +3871,21 @@
       <c r="O49" s="25">
         <v>0</v>
       </c>
-      <c r="P49" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="52">
+      <c r="P49" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="49">
         <v>1</v>
       </c>
       <c r="R49" s="25"/>
     </row>
     <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="59">
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64">
         <v>14</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="67" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3980,19 +3921,19 @@
       <c r="O50" s="25">
         <v>0</v>
       </c>
-      <c r="P50" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="52">
-        <v>0</v>
+      <c r="P50" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="49">
+        <v>1</v>
       </c>
       <c r="R50" s="25"/>
     </row>
     <row r="51" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="64"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -4026,22 +3967,20 @@
       <c r="O51" s="25">
         <v>0</v>
       </c>
-      <c r="P51" s="52">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="52">
+      <c r="P51" s="49">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="49">
         <v>1</v>
       </c>
       <c r="R51" s="25"/>
-      <c r="S51" s="22">
-        <v>14</v>
-      </c>
+      <c r="S51" s="22"/>
     </row>
     <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="73" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -4083,17 +4022,17 @@
       <c r="O52" s="25">
         <v>1</v>
       </c>
-      <c r="P52" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="52">
+      <c r="P52" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="49">
         <v>1</v>
       </c>
       <c r="R52" s="25"/>
     </row>
     <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -4133,225 +4072,219 @@
       <c r="O53" s="25">
         <v>1</v>
       </c>
-      <c r="P53" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="52">
+      <c r="P53" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="49">
         <v>1</v>
       </c>
       <c r="R53" s="25"/>
-      <c r="S53" s="22">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <f>20.5+14+2</f>
-        <v>36.5</v>
-      </c>
+      <c r="S53" s="22"/>
     </row>
     <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B54" s="58" t="s">
+      <c r="A54" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="C54" s="48"/>
+      <c r="B54" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="45"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="48">
+      <c r="E54" s="45">
         <v>50</v>
       </c>
       <c r="F54" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G54" s="45"/>
+      <c r="H54" s="47">
+        <v>4</v>
+      </c>
+      <c r="I54" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="J54" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="K54" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="L54" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="M54" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="N54" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="O54" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="P54" s="50"/>
+      <c r="Q54" s="50"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="46"/>
+    </row>
+    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="73"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="45">
+        <v>51</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45">
+        <v>3</v>
+      </c>
+      <c r="I55" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="J55" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="K55" s="45">
+        <v>4</v>
+      </c>
+      <c r="L55" s="45">
+        <v>4</v>
+      </c>
+      <c r="M55" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="N55" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="O55" s="45">
+        <v>4</v>
+      </c>
+      <c r="P55" s="49"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="45"/>
+    </row>
+    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="73"/>
+      <c r="B56" s="73"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="45">
+        <v>52</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="G54" s="48"/>
-      <c r="H54" s="50">
+      <c r="G56" s="45"/>
+      <c r="H56" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="I56" s="45">
+        <v>3.5</v>
+      </c>
+      <c r="J56" s="47">
+        <v>4.5</v>
+      </c>
+      <c r="K56" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="L56" s="45">
         <v>4</v>
       </c>
-      <c r="I54" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="J54" s="50">
+      <c r="M56" s="47">
         <v>4.5</v>
       </c>
-      <c r="K54" s="50">
+      <c r="N56" s="47">
         <v>4.5</v>
       </c>
-      <c r="L54" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="M54" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="N54" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="O54" s="50">
-        <v>3.5</v>
-      </c>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="49"/>
-    </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="48">
-        <v>51</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48">
-        <v>3</v>
-      </c>
-      <c r="I55" s="48">
-        <v>3.5</v>
-      </c>
-      <c r="J55" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="K55" s="48">
+      <c r="O56" s="45">
         <v>4</v>
       </c>
-      <c r="L55" s="48">
-        <v>4</v>
-      </c>
-      <c r="M55" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="N55" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="O55" s="48">
-        <v>4</v>
-      </c>
-      <c r="P55" s="52"/>
-      <c r="Q55" s="52"/>
-      <c r="R55" s="48"/>
-    </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="48">
-        <v>52</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" s="48"/>
-      <c r="H56" s="48">
-        <v>4.5</v>
-      </c>
-      <c r="I56" s="48">
-        <v>3.5</v>
-      </c>
-      <c r="J56" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="K56" s="48">
-        <v>4.5</v>
-      </c>
-      <c r="L56" s="48">
-        <v>4</v>
-      </c>
-      <c r="M56" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="N56" s="50">
-        <v>4.5</v>
-      </c>
-      <c r="O56" s="48">
-        <v>4</v>
-      </c>
-      <c r="P56" s="52"/>
-      <c r="Q56" s="52"/>
-      <c r="R56" s="48"/>
+      <c r="P56" s="49"/>
+      <c r="Q56" s="49"/>
+      <c r="R56" s="45"/>
     </row>
     <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="48"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="45"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="48">
+      <c r="E57" s="45">
         <v>53</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="48"/>
-      <c r="H57" s="48">
+      <c r="G57" s="45"/>
+      <c r="H57" s="45">
         <v>4.5</v>
       </c>
-      <c r="I57" s="48">
+      <c r="I57" s="45">
         <v>3.5</v>
       </c>
-      <c r="J57" s="50">
+      <c r="J57" s="47">
         <v>4.5</v>
       </c>
-      <c r="K57" s="48">
+      <c r="K57" s="45">
         <v>4</v>
       </c>
-      <c r="L57" s="48">
+      <c r="L57" s="45">
         <v>4</v>
       </c>
-      <c r="M57" s="50">
+      <c r="M57" s="47">
         <v>4.5</v>
       </c>
-      <c r="N57" s="50">
+      <c r="N57" s="47">
         <v>4</v>
       </c>
-      <c r="O57" s="48">
+      <c r="O57" s="45">
         <v>4</v>
       </c>
-      <c r="P57" s="52"/>
-      <c r="Q57" s="52"/>
-      <c r="R57" s="48"/>
+      <c r="P57" s="49"/>
+      <c r="Q57" s="49"/>
+      <c r="R57" s="45"/>
     </row>
     <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="48"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="48">
+      <c r="E58" s="45">
         <v>54</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58" s="48"/>
-      <c r="H58" s="48">
+        <v>149</v>
+      </c>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45">
         <v>4.5</v>
       </c>
-      <c r="I58" s="48">
+      <c r="I58" s="45">
         <v>3.5</v>
       </c>
-      <c r="J58" s="50">
+      <c r="J58" s="47">
         <v>4.5</v>
       </c>
-      <c r="K58" s="48">
+      <c r="K58" s="45">
         <v>4</v>
       </c>
-      <c r="L58" s="48">
+      <c r="L58" s="45">
         <v>4</v>
       </c>
-      <c r="M58" s="50">
+      <c r="M58" s="47">
         <v>4.5</v>
       </c>
-      <c r="N58" s="50">
+      <c r="N58" s="47">
         <v>4.5</v>
       </c>
-      <c r="O58" s="48">
+      <c r="O58" s="45">
         <v>4</v>
       </c>
-      <c r="P58" s="52"/>
-      <c r="Q58" s="52"/>
-      <c r="R58" s="48"/>
+      <c r="P58" s="49"/>
+      <c r="Q58" s="49"/>
+      <c r="R58" s="45"/>
       <c r="S58" s="22">
         <v>5</v>
       </c>
@@ -4360,53 +4293,53 @@
       </c>
     </row>
     <row r="59" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="50">
+      <c r="A59" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="47">
         <f t="shared" ref="H59:O59" si="0">SUM(H54:H58)/25</f>
         <v>0.82</v>
       </c>
-      <c r="I59" s="50">
+      <c r="I59" s="47">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J59" s="50">
+      <c r="J59" s="47">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="K59" s="50">
+      <c r="K59" s="47">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="L59" s="50">
+      <c r="L59" s="47">
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
-      <c r="M59" s="50">
+      <c r="M59" s="47">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="N59" s="50">
+      <c r="N59" s="47">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="O59" s="50">
+      <c r="O59" s="47">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="P59" s="54">
+      <c r="P59" s="51">
         <v>0.6</v>
       </c>
-      <c r="Q59" s="54">
+      <c r="Q59" s="51">
         <v>0.3</v>
       </c>
     </row>
@@ -4534,7 +4467,28 @@
       <c r="Q66" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A1:R2"/>
     <mergeCell ref="A5:A31"/>
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="A32:A51"/>
@@ -4550,28 +4504,6 @@
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="B1:R1"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4580,10 +4512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U57"/>
+  <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4604,31 +4536,26 @@
     <col min="16" max="16" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="G1" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="81"/>
-    </row>
-    <row r="2" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="74" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="H1" s="74" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="74"/>
+      <c r="N1" s="59"/>
+    </row>
+    <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" s="40" t="s">
         <v>84</v>
@@ -4639,1677 +4566,693 @@
       <c r="E2" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="41" t="s">
-        <v>167</v>
-      </c>
       <c r="H2" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="I2" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R2" t="s">
-        <v>84</v>
-      </c>
-      <c r="S2" t="s">
-        <v>85</v>
-      </c>
-      <c r="T2" t="s">
-        <v>86</v>
-      </c>
-      <c r="U2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I2" s="61" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF2" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG2" s="74"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="74"/>
+      <c r="AJ2" s="74"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="74"/>
+    </row>
+    <row r="3" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="4">
         <v>0.82</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="42">
         <v>0.94871795000000003</v>
       </c>
-      <c r="D3" s="43">
+      <c r="D3" s="42">
         <v>0.9</v>
       </c>
-      <c r="E3" s="43">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4">
-        <v>2</v>
+      <c r="E3" s="42">
+        <v>1</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>137</v>
       </c>
       <c r="I3" s="4">
-        <f>(B3-B12)/(B8+B12)</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="J3" s="4">
-        <f>(C3-C11)/(C12+C11)</f>
-        <v>0.40170940509071829</v>
-      </c>
-      <c r="K3" s="4">
-        <f>(D3-D11)/(D12+D11)</f>
-        <v>0.29756098826888766</v>
-      </c>
-      <c r="L3" s="4">
-        <f>(E3-E11)/(E3+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="80">
-        <f>(B22*I3)+(C22*J3)+(D22*K3)+(E22*L3)</f>
-        <v>0.47418294056855453</v>
-      </c>
-      <c r="P3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q3">
-        <v>0.48333333333333339</v>
-      </c>
-      <c r="R3">
-        <v>0.40350876562019083</v>
-      </c>
-      <c r="S3">
-        <v>0.26829270408090439</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
-      </c>
-      <c r="U3">
-        <v>0.49910854466532806</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(B19*B3)+(C19*C3)+(D19*D3)+(E19*E3)</f>
+        <v>1.8732307700000002</v>
+      </c>
+      <c r="AF3" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG3" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH3" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI3" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK3" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL3" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>138</v>
       </c>
       <c r="B4" s="4">
         <v>0.7</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="42">
         <v>0.97560979999999997</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="42">
         <v>0.85714287</v>
       </c>
-      <c r="E4" s="43">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
+      <c r="E4" s="42">
+        <v>1</v>
       </c>
       <c r="H4" s="38" t="s">
         <v>138</v>
       </c>
       <c r="I4" s="4">
-        <f>(B4-B12)/(B8+B12)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J4" s="4">
-        <f>(C4-C11)/(C12+C11)</f>
-        <v>0.4210526656509696</v>
-      </c>
-      <c r="K4" s="4">
-        <f>(D4-D11)/(D12+D11)</f>
-        <v>0.26829270408090439</v>
-      </c>
-      <c r="L4" s="4">
-        <f>(E4-E11)/(E4+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="80">
-        <f>(B22*I4)+(C22*J4)+(D22*K4)+(E22*L4)</f>
-        <v>0.41967385578327887</v>
-      </c>
-      <c r="P4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q4">
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="R4">
-        <v>0.32793523496128996</v>
-      </c>
-      <c r="S4">
-        <v>0.27272730997782735</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>0.49206641998893419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(B19*B4)+(C19*C4)+(D19*D4)+(E19*E4)</f>
+        <v>1.839651602</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>5</v>
+      </c>
+      <c r="AG4" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH4" s="4">
+        <f>(B3)/(B8)</f>
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="AI4" s="4">
+        <f>(C3)/(C12)</f>
+        <v>0.94871795000000003</v>
+      </c>
+      <c r="AJ4" s="4">
+        <f>(D3)/(D12)</f>
+        <v>0.9</v>
+      </c>
+      <c r="AK4" s="4">
+        <f>(E3)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="AL4" s="58">
+        <f>(B19*AH4)+(C19*AI4)+(D19*AJ4)+(E19*AK4)</f>
+        <v>1.8914529922222223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="4">
         <v>0.9</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="42">
         <v>0.65853660000000003</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="42">
         <v>0.67857140000000005</v>
       </c>
-      <c r="E5" s="43">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
-        <v>8</v>
+      <c r="E5" s="42">
+        <v>1</v>
       </c>
       <c r="H5" s="38" t="s">
         <v>140</v>
       </c>
       <c r="I5" s="4">
-        <f>(B5-B12)/(B8+B12)</f>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="J5" s="4">
-        <f>(C5-C11)/(C12+C11)</f>
-        <v>0.19298246875961841</v>
-      </c>
-      <c r="K5" s="4">
-        <f>(D5-D11)/(D12+D11)</f>
-        <v>0.14634145508625812</v>
-      </c>
-      <c r="L5" s="4">
-        <f>(E5-E11)/(E5+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="80">
-        <f>(B22*I5)+(C22*J5)+(D22*K5)+(E22*L5)</f>
-        <v>0.44803404362283283</v>
-      </c>
-      <c r="P5" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5">
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="R5">
-        <v>0.40170940509071829</v>
-      </c>
-      <c r="S5">
-        <v>0.29756098826888766</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>0.47418294056855453</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(B19*B5)+(C19*C5)+(D19*D5)+(E19*E5)</f>
+        <v>1.5822647999999999</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>3</v>
+      </c>
+      <c r="AG5" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH5" s="4">
+        <f>(B4)/(B8)</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>(C4)/(C12)</f>
+        <v>0.97560979999999997</v>
+      </c>
+      <c r="AJ5" s="4">
+        <f>(D4)/(D12)</f>
+        <v>0.85714287</v>
+      </c>
+      <c r="AK5" s="4">
+        <f>(E4)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="AL5" s="58">
+        <f>(B19*AH5)+(C19*AI5)+(D19*AJ5)+(E19*AK5)</f>
+        <v>1.8552071575555558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>141</v>
       </c>
       <c r="B6" s="4">
         <v>0.84</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="42">
         <v>0.92682929999999997</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="42">
         <v>0.67857140000000005</v>
       </c>
-      <c r="E6" s="43">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4">
-        <v>7</v>
+      <c r="E6" s="42">
+        <v>1</v>
       </c>
       <c r="H6" s="38" t="s">
         <v>141</v>
       </c>
       <c r="I6" s="4">
-        <f>(B6-B12)/(B8+B12)</f>
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="J6" s="4">
-        <f>(C6-C11)/(C12+C11)</f>
-        <v>0.38596493751923672</v>
-      </c>
-      <c r="K6" s="4">
-        <f>(D6-D11)/(D12+D11)</f>
-        <v>0.14634145508625812</v>
-      </c>
-      <c r="L6" s="4">
-        <f>(E6-E11)/(E6+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M6" s="4">
-        <f>(B22*I6)+(C22*J6)+(D22*K6)+(E22*L6)</f>
-        <v>0.46314125890274799</v>
-      </c>
-      <c r="P6" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q6">
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="R6">
-        <v>0.43859649375192372</v>
-      </c>
-      <c r="S6">
-        <v>0.19512196287923864</v>
-      </c>
-      <c r="T6">
-        <v>1</v>
-      </c>
-      <c r="U6">
-        <v>0.47099795744997253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(B19*B6)+(C19*C6)+(D19*D6)+(E19*E6)</f>
+        <v>1.7312404200000002</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH6" s="4">
+        <f>(B5)/(B8)</f>
+        <v>1</v>
+      </c>
+      <c r="AI6" s="4">
+        <f>(C5)/(C12)</f>
+        <v>0.65853660000000003</v>
+      </c>
+      <c r="AJ6" s="4">
+        <f>(D5)/(D12)</f>
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="AK6" s="4">
+        <f>(E5)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="AL6" s="58">
+        <f>(B19*AH6)+(C19*AI6)+(D19*AJ6)+(E19*AK6)</f>
+        <v>1.6022647999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>142</v>
       </c>
       <c r="B7" s="4">
         <v>0.82</v>
       </c>
-      <c r="C7" s="43">
-        <v>1</v>
-      </c>
-      <c r="D7" s="43">
+      <c r="C7" s="42">
+        <v>1</v>
+      </c>
+      <c r="D7" s="42">
         <v>0.75</v>
       </c>
-      <c r="E7" s="43">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4">
-        <v>6</v>
+      <c r="E7" s="42">
+        <v>1</v>
       </c>
       <c r="H7" s="38" t="s">
         <v>142</v>
       </c>
       <c r="I7" s="4">
-        <f>(B7-B12)/(B8+B12)</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="J7" s="4">
-        <f>(C7-C11)/(C12+C11)</f>
-        <v>0.43859649375192372</v>
-      </c>
-      <c r="K7" s="4">
-        <f>(D7-D11)/(D12+D11)</f>
-        <v>0.19512196287923864</v>
-      </c>
-      <c r="L7" s="4">
-        <f>(E7-E11)/(E7+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M7" s="4">
-        <f>(B22*I7)+(C22*J7)+(D22*K7)+(E22*L7)</f>
-        <v>0.47099795744997253</v>
-      </c>
-      <c r="P7" t="s">
+        <f>(B19*B7)+(C19*C7)+(D19*D7)+(E19*E7)</f>
+        <v>1.8140000000000001</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>6</v>
+      </c>
+      <c r="AG7" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="Q7">
-        <v>0.45000000000000007</v>
-      </c>
-      <c r="R7">
-        <v>0.38596493751923672</v>
-      </c>
-      <c r="S7">
-        <v>0.14634145508625812</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0.46314125890274799</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AH7" s="4">
+        <f>(B6)/(B8)</f>
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>(C6)/(C12)</f>
+        <v>0.92682929999999997</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>(D6)/(D12)</f>
+        <v>0.67857140000000005</v>
+      </c>
+      <c r="AK7" s="4">
+        <f>(E6)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="58">
+        <f>(B19*AH7)+(C19*AI7)+(D19*AJ7)+(E19*AK7)</f>
+        <v>1.7499070866666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="54">
         <v>0.9</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="42">
         <v>0.84615386000000004</v>
       </c>
-      <c r="D8" s="43">
+      <c r="D8" s="42">
         <v>0.86363639999999997</v>
       </c>
-      <c r="E8" s="43">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4">
-        <v>5</v>
+      <c r="E8" s="42">
+        <v>1</v>
       </c>
       <c r="H8" s="38" t="s">
         <v>143</v>
       </c>
       <c r="I8" s="4">
-        <f>(B8-B12)/(B8+B12)</f>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="J8" s="4">
-        <f>(C8-C11)/(C12+C11)</f>
-        <v>0.32793523496128996</v>
-      </c>
-      <c r="K8" s="4">
-        <f>(D8-D11)/(D12+D11)</f>
-        <v>0.27272730997782735</v>
-      </c>
-      <c r="L8" s="4">
-        <f>(E8-E11)/(E8+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M8" s="4">
-        <f>(B22*I8)+(C22*J8)+(D22*K8)+(E22*L8)</f>
-        <v>0.49206641998893419</v>
-      </c>
-      <c r="P8" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8">
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="R8">
-        <v>0.19298246875961841</v>
-      </c>
-      <c r="S8">
-        <v>0.14634145508625812</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>0.44803404362283283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(B19*B8)+(C19*C8)+(D19*D8)+(E19*E8)</f>
+        <v>1.8058741560000002</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH8" s="4">
+        <f>(B7)/(B8)</f>
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="AI8" s="4">
+        <f>(C7)/(C12)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="4">
+        <f>(D7)/(D12)</f>
+        <v>0.75</v>
+      </c>
+      <c r="AK8" s="4">
+        <f>(E7)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="AL8" s="58">
+        <f>(B19*AH8)+(C19*AI8)+(D19*AJ8)+(E19*AK8)</f>
+        <v>1.8322222222222222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="4">
         <v>0.88</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="42">
         <v>0.9512195</v>
       </c>
-      <c r="D9" s="43">
+      <c r="D9" s="42">
         <v>0.85714287</v>
       </c>
-      <c r="E9" s="43">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>4</v>
+      <c r="E9" s="42">
+        <v>1</v>
       </c>
       <c r="H9" s="38" t="s">
         <v>144</v>
       </c>
       <c r="I9" s="4">
-        <f>(B9-B12)/(B8+B12)</f>
-        <v>0.48333333333333339</v>
-      </c>
-      <c r="J9" s="4">
-        <f>(C9-C11)/(C12+C11)</f>
-        <v>0.40350876562019083</v>
-      </c>
-      <c r="K9" s="4">
-        <f>(D9-D11)/(D12+D11)</f>
-        <v>0.26829270408090439</v>
-      </c>
-      <c r="L9" s="4">
-        <f>(E9-E11)/(E9+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M9" s="4">
-        <f>(B22*I9)+(C22*J9)+(D22*K9)+(E22*L9)</f>
-        <v>0.49910854466532806</v>
-      </c>
-      <c r="P9" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R9">
-        <v>0.4210526656509696</v>
-      </c>
-      <c r="S9">
-        <v>0.26829270408090439</v>
-      </c>
-      <c r="T9">
-        <v>1</v>
-      </c>
-      <c r="U9">
-        <v>0.41967385578327887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+        <f>(B19*B9)+(C19*C9)+(D19*D9)+(E19*E9)</f>
+        <v>1.8610174220000002</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>7</v>
+      </c>
+      <c r="AG9" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH9" s="4">
+        <f>(B8)/(B8)</f>
+        <v>1</v>
+      </c>
+      <c r="AI9" s="4">
+        <f>(C8)/(C12)</f>
+        <v>0.84615386000000004</v>
+      </c>
+      <c r="AJ9" s="4">
+        <f>(D8)/(D12)</f>
+        <v>0.86363639999999997</v>
+      </c>
+      <c r="AK9" s="4">
+        <f>(E8)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="AL9" s="58">
+        <f>(B19*AH9)+(C19*AI9)+(D19*AJ9)+(E19*AK9)</f>
+        <v>1.8258741559999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="4">
         <v>0.78</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="42">
         <v>0.75609755999999995</v>
       </c>
-      <c r="D10" s="43">
+      <c r="D10" s="42">
         <v>0.53571427000000005</v>
       </c>
-      <c r="E10" s="43">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>9</v>
+      <c r="E10" s="42">
+        <v>1</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>145</v>
       </c>
       <c r="I10" s="4">
-        <f>(B10-B12)/(B8+B12)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J10" s="4">
-        <f>(C10-C11)/(C12+C11)</f>
-        <v>0.26315789625115421</v>
-      </c>
-      <c r="K10" s="4">
-        <f>(D10-D11)/(D12+D11)</f>
-        <v>4.87804873051755E-2</v>
-      </c>
-      <c r="L10" s="4">
-        <f>(E10-E11)/(E10+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M10" s="4">
-        <f>(B22*I10)+(C22*J10)+(D22*K10)+(E22*L10)</f>
-        <v>0.39723291997860932</v>
-      </c>
-      <c r="P10" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q10">
-        <v>0.4</v>
-      </c>
-      <c r="R10">
-        <v>0.26315789625115421</v>
-      </c>
-      <c r="S10">
-        <v>4.87804873051755E-2</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>0.39723291997860932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="73" t="s">
-        <v>157</v>
+        <f>(B19*B10)+(C19*C10)+(D19*D10)+(E19*E10)</f>
+        <v>1.531087098</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG10" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH10" s="4">
+        <f>(B9)/(B8)</f>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="AI10" s="4">
+        <f>(C9)/(C12)</f>
+        <v>0.9512195</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>(D9)/(D12)</f>
+        <v>0.85714287</v>
+      </c>
+      <c r="AK10" s="4">
+        <f>(E9)/(E12)</f>
+        <v>1</v>
+      </c>
+      <c r="AL10" s="58">
+        <f>(B19*AH10)+(C19*AI10)+(D19*AJ10)+(E19*AK10)</f>
+        <v>1.8805729775555555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="B11" s="4">
         <v>0.6</v>
       </c>
-      <c r="C11" s="75">
+      <c r="C11" s="55">
         <v>0.39024389999999998</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="56">
         <v>0.46428570000000002</v>
       </c>
-      <c r="E11" s="76">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4">
-        <v>10</v>
-      </c>
-      <c r="H11" s="73" t="s">
-        <v>157</v>
+      <c r="E11" s="56">
+        <v>0</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>155</v>
       </c>
       <c r="I11" s="4">
-        <f>(B11-B12)/(B8+B12)</f>
-        <v>0.25</v>
-      </c>
-      <c r="J11" s="4">
-        <f>(C11-C11)/(C12+C11)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f>(D11-D11)/(D12+D11)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f>(E11-E11)/(E12+E11)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>(B22*I11)+(C22*J11)+(D22*K11)+(E22*L11)</f>
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="P11" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0.43859649375192372</v>
-      </c>
-      <c r="S11">
-        <v>0.36585367186198703</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
-        <v>0.24922740659620382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="75">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="77">
-        <v>1</v>
-      </c>
-      <c r="D12" s="77">
-        <v>1</v>
-      </c>
-      <c r="E12" s="77">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="I12" s="4">
-        <f>(B12-B12)/(B8+B12)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f>(C12-C11)/(C12+C11)</f>
-        <v>0.43859649375192372</v>
-      </c>
-      <c r="K12" s="4">
-        <f>(D12-D11)/(D12+D11)</f>
-        <v>0.36585367186198703</v>
-      </c>
-      <c r="L12" s="4">
-        <f>(E12-E11)/(E12+E11)</f>
-        <v>1</v>
-      </c>
-      <c r="M12" s="4">
-        <f>(B22*I12)+(C22*J12)+(D22*K12)+(E22*L12)</f>
-        <v>0.24922740659620382</v>
-      </c>
-      <c r="P12" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q12">
-        <v>0.25</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="44">
-        <v>3.28</v>
-      </c>
-      <c r="D13" s="44">
-        <v>3.39</v>
-      </c>
-      <c r="E13" s="44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G15" s="78" t="s">
-        <v>168</v>
-      </c>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="78"/>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="G16" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="L16" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="P16" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>154</v>
-      </c>
-      <c r="R16" t="s">
-        <v>84</v>
-      </c>
-      <c r="S16" t="s">
-        <v>85</v>
-      </c>
-      <c r="T16" t="s">
-        <v>86</v>
-      </c>
-      <c r="U16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G17" s="4">
-        <v>5</v>
-      </c>
-      <c r="H17" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="4">
-        <f>(B3)/(B8)</f>
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="J17" s="4">
-        <f>(C3)/(C12)</f>
-        <v>0.94871795000000003</v>
-      </c>
-      <c r="K17" s="4">
-        <f>(D3)/(D12)</f>
-        <v>0.9</v>
-      </c>
-      <c r="L17" s="4">
-        <f>(E3)/(E12)</f>
-        <v>1</v>
-      </c>
-      <c r="M17" s="80">
-        <f>(B23*I17)+(C23*J17)+(D23*K17)+(E23*L17)</f>
-        <v>0.92811016172839489</v>
-      </c>
-      <c r="P17" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q17">
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="R17">
-        <v>0.9512195</v>
-      </c>
-      <c r="S17">
-        <v>0.85714287</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>0.96094119543209877</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="49">
-        <v>5</v>
-      </c>
-      <c r="C18" s="49">
-        <v>2</v>
-      </c>
-      <c r="D18" s="49">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-      <c r="H18" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="4">
-        <f>(B4)/(B8)</f>
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="J18" s="4">
-        <f>(C4)/(C12)</f>
-        <v>0.97560979999999997</v>
-      </c>
-      <c r="K18" s="4">
-        <f>(D4)/(D12)</f>
-        <v>0.85714287</v>
-      </c>
-      <c r="L18" s="4">
-        <f>(E4)/(E12)</f>
-        <v>1</v>
-      </c>
-      <c r="M18" s="80">
-        <f>(B23*I18)+(C23*J18)+(D23*K18)+(E23*L18)</f>
-        <v>0.85525015098765422</v>
-      </c>
-      <c r="P18" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="R18">
-        <v>0.84615386000000004</v>
-      </c>
-      <c r="S18">
-        <v>0.86363639999999997</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
-        <v>0.95066045777777775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="4">
-        <v>9</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="4">
-        <f>(B5)/(B8)</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <f>(C5)/(C12)</f>
-        <v>0.65853660000000003</v>
-      </c>
-      <c r="K19" s="4">
-        <f>(D5)/(D12)</f>
-        <v>0.67857140000000005</v>
-      </c>
-      <c r="L19" s="4">
-        <f>(E5)/(E12)</f>
-        <v>1</v>
-      </c>
-      <c r="M19" s="80">
-        <f>(B23*I19)+(C23*J19)+(D23*K19)+(E23*L19)</f>
-        <v>0.88840495555555554</v>
-      </c>
-      <c r="P19" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19">
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="R19">
-        <v>0.94871795000000003</v>
-      </c>
-      <c r="S19">
-        <v>0.9</v>
-      </c>
-      <c r="T19">
-        <v>1</v>
-      </c>
-      <c r="U19">
-        <v>0.92811016172839489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="47"/>
-      <c r="G20" s="4">
-        <v>6</v>
-      </c>
-      <c r="H20" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="4">
-        <f>(B6)/(B8)</f>
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="J20" s="4">
-        <f>(C6)/(C12)</f>
-        <v>0.92682929999999997</v>
-      </c>
-      <c r="K20" s="4">
-        <f>(D6)/(D12)</f>
-        <v>0.67857140000000005</v>
-      </c>
-      <c r="L20" s="4">
-        <f>(E6)/(E12)</f>
-        <v>1</v>
-      </c>
-      <c r="M20" s="80">
-        <f>(B23*I20)+(C23*J20)+(D23*K20)+(E23*L20)</f>
-        <v>0.91098851851851848</v>
-      </c>
-      <c r="P20" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20">
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="R20">
-        <v>1</v>
-      </c>
-      <c r="S20">
-        <v>0.75</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="U20">
-        <v>0.92283950617283939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="G21" s="4">
-        <v>1</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I21" s="4">
-        <f>(B7)/(B8)</f>
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="J21" s="4">
-        <f>(C7)/(C12)</f>
-        <v>1</v>
-      </c>
-      <c r="K21" s="4">
-        <f>(D7)/(D12)</f>
-        <v>0.75</v>
-      </c>
-      <c r="L21" s="4">
-        <f>(E7)/(E12)</f>
-        <v>1</v>
-      </c>
-      <c r="M21" s="80">
-        <f>(B23*I21)+(C23*J21)+(D23*K21)+(E23*L21)</f>
-        <v>0.92283950617283939</v>
-      </c>
-      <c r="P21" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q21">
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="R21">
-        <v>0.92682929999999997</v>
-      </c>
-      <c r="S21">
-        <v>0.67857140000000005</v>
-      </c>
-      <c r="T21">
-        <v>1</v>
-      </c>
-      <c r="U21">
-        <v>0.91098851851851848</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B22">
-        <f>B18/SUM(B18:E18)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C22">
-        <f>C18/SUM(B18:E18)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D22">
-        <f>D18/SUM(B18:E18)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E22">
-        <f>E18/SUM(B18:E18)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F22">
-        <f>SUM(B22:E22)</f>
-        <v>1</v>
-      </c>
-      <c r="G22" s="4">
-        <v>7</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I22" s="4">
-        <f>(B8)/(B8)</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <f>(C8)/(C12)</f>
-        <v>0.84615386000000004</v>
-      </c>
-      <c r="K22" s="4">
-        <f>(D8)/(D12)</f>
-        <v>0.86363639999999997</v>
-      </c>
-      <c r="L22" s="4">
-        <f>(E8)/(E12)</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="80">
-        <f>(B23*I22)+(C23*J22)+(D23*K22)+(E23*L22)</f>
-        <v>0.95066045777777775</v>
-      </c>
-      <c r="P22" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="R22">
-        <v>0.65853660000000003</v>
-      </c>
-      <c r="S22">
-        <v>0.67857140000000005</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0.88840495555555554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="B23">
-        <f>B19/SUM(B19:E19)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="C23">
-        <f>C19/SUM(B19:E19)</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="D23">
-        <f>D19/SUM(B19:E19)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E23">
-        <f>E19/SUM(B19:E19)</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="G23" s="4">
-        <v>4</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="4">
-        <f>(B9)/(B8)</f>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="J23" s="4">
-        <f>(C9)/(C12)</f>
-        <v>0.9512195</v>
-      </c>
-      <c r="K23" s="4">
-        <f>(D9)/(D12)</f>
-        <v>0.85714287</v>
-      </c>
-      <c r="L23" s="4">
-        <f>(E9)/(E12)</f>
-        <v>1</v>
-      </c>
-      <c r="M23" s="80">
-        <f>(B23*I23)+(C23*J23)+(D23*K23)+(E23*L23)</f>
-        <v>0.96094119543209877</v>
-      </c>
-      <c r="P23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23">
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="R23">
-        <v>0.97560979999999997</v>
-      </c>
-      <c r="S23">
-        <v>0.85714287</v>
-      </c>
-      <c r="T23">
-        <v>1</v>
-      </c>
-      <c r="U23">
-        <v>0.85525015098765422</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G24" s="4">
+        <f>(B19*B11)+(C19*C11)+(D19*D11)+(E19*E11)</f>
+        <v>0.63271776000000002</v>
+      </c>
+      <c r="AF11" s="4">
         <v>8</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="AG11" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="I24" s="4">
+      <c r="AH11" s="4">
         <f>(B10)/(B8)</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="J24" s="4">
+      <c r="AI11" s="4">
         <f>(C10)/(C12)</f>
         <v>0.75609755999999995</v>
       </c>
-      <c r="K24" s="4">
+      <c r="AJ11" s="4">
         <f>(D10)/(D12)</f>
         <v>0.53571427000000005</v>
       </c>
-      <c r="L24" s="4">
+      <c r="AK11" s="4">
         <f>(E10)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="M24" s="80">
-        <f>(B23*I24)+(C23*J24)+(D23*K24)+(E23*L24)</f>
-        <v>0.82013808037037039</v>
-      </c>
-      <c r="P24" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="R24">
-        <v>0.75609755999999995</v>
-      </c>
-      <c r="S24">
-        <v>0.53571427000000005</v>
-      </c>
-      <c r="T24">
-        <v>1</v>
-      </c>
-      <c r="U24">
-        <v>0.82013808037037039</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="G25" s="4">
+      <c r="AL11" s="58">
+        <f>(B19*AH11)+(C19*AI11)+(D19*AJ11)+(E19*AK11)</f>
+        <v>1.5484204313333332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="55">
+        <v>0.3</v>
+      </c>
+      <c r="C12" s="57">
+        <v>1</v>
+      </c>
+      <c r="D12" s="57">
+        <v>1</v>
+      </c>
+      <c r="E12" s="57">
+        <v>1</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="4">
+        <f>(B19*B12)+(C19*C12)+(D19*D12)+(E19*E12)</f>
+        <v>1.8599999999999999</v>
+      </c>
+      <c r="AF12" s="4">
         <v>10</v>
       </c>
-      <c r="H25" s="73" t="s">
-        <v>157</v>
-      </c>
-      <c r="I25" s="4">
+      <c r="AG12" s="53" t="s">
+        <v>155</v>
+      </c>
+      <c r="AH12" s="4">
         <f>(B11)/(B8)</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J25" s="4">
+      <c r="AI12" s="4">
         <f>(C11)/(C12)</f>
         <v>0.39024389999999998</v>
       </c>
-      <c r="K25" s="4">
+      <c r="AJ12" s="4">
         <f>(D11)/(D12)</f>
         <v>0.46428570000000002</v>
       </c>
-      <c r="L25" s="4">
+      <c r="AK12" s="4">
         <f>(E11)/(E12)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="80">
-        <f>(B23*I25)+(C23*J25)+(D23*K25)+(E23*L25)</f>
-        <v>0.50867853703703703</v>
-      </c>
-      <c r="P25" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q25">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="R25">
-        <v>1</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
-        <v>0.62962962962962954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G26" s="4">
+      <c r="AL12" s="58">
+        <f>(B19*AH12)+(C19*AI12)+(D19*AJ12)+(E19*AK12)</f>
+        <v>0.64605109333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="AF13" s="4">
         <v>2</v>
       </c>
-      <c r="H26" s="73" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="4">
+      <c r="AG13" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH13" s="4">
         <f>(B12)/(B8)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J26" s="4">
+      <c r="AI13" s="4">
         <f>(C12)/(C12)</f>
         <v>1</v>
       </c>
-      <c r="K26" s="4">
+      <c r="AJ13" s="4">
         <f>(D12)/(D12)</f>
         <v>1</v>
       </c>
-      <c r="L26" s="4">
+      <c r="AK13" s="4">
         <f>(E12)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="M26" s="80">
-        <f>(B23*I26)+(C23*J26)+(D23*K26)+(E23*L26)</f>
-        <v>0.62962962962962954</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="AL13" s="58">
+        <f>(B19*AH13)+(C19*AI13)+(D19*AJ13)+(E19*AK13)</f>
+        <v>1.8666666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="Q26">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R26">
-        <v>0.39024389999999998</v>
-      </c>
-      <c r="S26">
-        <v>0.46428570000000002</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0.50867853703703703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G27" s="12"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" s="68">
-        <v>2</v>
-      </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68">
-        <v>1</v>
-      </c>
-      <c r="I31" s="68"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="B32" s="45">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
         <v>3</v>
       </c>
-      <c r="C32" s="45">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="D32" s="45">
-        <v>2</v>
-      </c>
-      <c r="E32" s="45">
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F32" s="84" t="s">
-        <v>172</v>
-      </c>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84" t="s">
-        <v>177</v>
-      </c>
-      <c r="I32" s="84"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="K18" s="52"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="53" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="45">
-        <v>5</v>
-      </c>
-      <c r="C33" s="45">
-        <v>5</v>
-      </c>
-      <c r="D33" s="45">
-        <v>5</v>
-      </c>
-      <c r="E33" s="45">
-        <v>5</v>
-      </c>
-      <c r="F33" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="I33" s="68"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="I34" s="68"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85" t="s">
-        <v>178</v>
-      </c>
-      <c r="I35" s="85"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>3</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36" s="68" t="s">
-        <v>174</v>
-      </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="85" t="s">
-        <v>174</v>
-      </c>
-      <c r="I36" s="85"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>175</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" s="84" t="s">
-        <v>176</v>
-      </c>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84" t="s">
-        <v>179</v>
-      </c>
-      <c r="I37" s="84"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F47" s="83" t="s">
-        <v>146</v>
-      </c>
-      <c r="G47" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="I47" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="J47" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="K47" s="83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F48" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="4">
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="H48" s="4">
-        <v>1</v>
-      </c>
-      <c r="I48" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="J48" s="4">
-        <v>1</v>
-      </c>
-      <c r="K48" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F49" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G49" s="4">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H49" s="4">
-        <v>1</v>
-      </c>
-      <c r="I49" s="4">
-        <v>1</v>
-      </c>
-      <c r="J49" s="4">
-        <v>1</v>
-      </c>
-      <c r="K49" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F50" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="G50" s="4">
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0.97560979999999997</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0.85714287</v>
-      </c>
-      <c r="J50" s="4">
-        <v>1</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0.97560979999999997</v>
-      </c>
-    </row>
-    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F51" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G51" s="4">
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="H51" s="4">
-        <v>0.9512195</v>
-      </c>
-      <c r="I51" s="4">
-        <v>0.85714287</v>
-      </c>
-      <c r="J51" s="4">
-        <v>1</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0.9512195</v>
-      </c>
-    </row>
-    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F52" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="H52" s="4">
-        <v>0.94871795000000003</v>
-      </c>
-      <c r="I52" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J52" s="4">
-        <v>1</v>
-      </c>
-      <c r="K52" s="4">
-        <v>0.94871795000000003</v>
-      </c>
-    </row>
-    <row r="53" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F53" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="4">
-        <v>0.93333333333333324</v>
-      </c>
-      <c r="H53" s="4">
-        <v>0.92682929999999997</v>
-      </c>
-      <c r="I53" s="4">
-        <v>0.67857140000000005</v>
-      </c>
-      <c r="J53" s="4">
-        <v>1</v>
-      </c>
-      <c r="K53" s="4">
-        <v>0.92682929999999997</v>
-      </c>
-    </row>
-    <row r="54" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F54" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G54" s="4">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4">
-        <v>0.84615386000000004</v>
-      </c>
-      <c r="I54" s="4">
-        <v>0.86363639999999997</v>
-      </c>
-      <c r="J54" s="4">
-        <v>1</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0.84615386000000004</v>
-      </c>
-    </row>
-    <row r="55" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F55" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G55" s="4">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="H55" s="4">
-        <v>0.75609755999999995</v>
-      </c>
-      <c r="I55" s="4">
-        <v>0.53571427000000005</v>
-      </c>
-      <c r="J55" s="4">
-        <v>1</v>
-      </c>
-      <c r="K55" s="4">
-        <v>0.75609755999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F56" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="4">
-        <v>1</v>
-      </c>
-      <c r="H56" s="4">
-        <v>0.65853660000000003</v>
-      </c>
-      <c r="I56" s="4">
-        <v>0.67857140000000005</v>
-      </c>
-      <c r="J56" s="4">
-        <v>1</v>
-      </c>
-      <c r="K56" s="4">
-        <v>0.65853660000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F57" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G57" s="4">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H57" s="4">
-        <v>0.39024389999999998</v>
-      </c>
-      <c r="I57" s="4">
-        <v>0.46428570000000002</v>
-      </c>
-      <c r="J57" s="4">
-        <v>0</v>
-      </c>
-      <c r="K57" s="4">
-        <v>0.39024389999999998</v>
-      </c>
+      <c r="B19" s="4">
+        <f>B18/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:E19" si="0">C18/5</f>
+        <v>0.6</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="62"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="4" t="e">
+        <f>B23/SUM(B23:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" s="4" t="e">
+        <f>C23/SUM(B23:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" s="4" t="e">
+        <f>D23/SUM(B23:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="4" t="e">
+        <f>E23/SUM(B23:E23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="62"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="62"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="62"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="62"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="J31" s="52"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="J32" s="52"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="52"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="52"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="52"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="52"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="52"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="52"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="52"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="52"/>
     </row>
   </sheetData>
-  <sortState ref="P3:U12">
-    <sortCondition descending="1" ref="U2"/>
+  <sortState ref="K18:M27">
+    <sortCondition descending="1" ref="M17"/>
   </sortState>
-  <mergeCells count="17">
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6337,15 +5280,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -6358,15 +5301,15 @@
       <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -6419,16 +5362,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="59">
-        <v>1</v>
-      </c>
-      <c r="D5" s="63" t="s">
+      <c r="C5" s="64">
+        <v>1</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -6453,10 +5396,10 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="64"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="69"/>
       <c r="E6" s="29">
         <v>2</v>
       </c>
@@ -6479,12 +5422,12 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="59">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="64">
         <v>2</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="29">
@@ -6509,10 +5452,10 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="68"/>
       <c r="E8" s="29">
         <v>4</v>
       </c>
@@ -6536,10 +5479,10 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="68"/>
       <c r="E9" s="29">
         <v>5</v>
       </c>
@@ -6562,10 +5505,10 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="64"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="29">
         <v>6</v>
       </c>
@@ -6588,12 +5531,12 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="59">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="64">
         <v>3</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="67" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="29">
@@ -6618,10 +5561,10 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="29">
         <v>8</v>
       </c>
@@ -6644,10 +5587,10 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="69"/>
       <c r="E13" s="29">
         <v>9</v>
       </c>
@@ -6670,12 +5613,12 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="59">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="64">
         <v>4</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="67" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="29">
@@ -6700,10 +5643,10 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="29">
         <v>11</v>
       </c>
@@ -6726,12 +5669,12 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="59">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="64">
         <v>5</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="67" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="29">
@@ -6756,10 +5699,10 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="68"/>
       <c r="E17" s="29">
         <v>13</v>
       </c>
@@ -6782,10 +5725,10 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="68"/>
       <c r="E18" s="29">
         <v>14</v>
       </c>
@@ -6808,10 +5751,10 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="64"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="29">
         <v>15</v>
       </c>
@@ -6834,12 +5777,12 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="59">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="64">
         <v>6</v>
       </c>
-      <c r="D20" s="63" t="s">
+      <c r="D20" s="67" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="29">
@@ -6864,10 +5807,10 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="65"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="29">
         <v>17</v>
       </c>
@@ -6890,10 +5833,10 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="65"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="68"/>
       <c r="E22" s="29">
         <v>18</v>
       </c>
@@ -6916,10 +5859,10 @@
       <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="65"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="68"/>
       <c r="E23" s="29">
         <v>19</v>
       </c>
@@ -6942,10 +5885,10 @@
       <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="29">
         <v>20</v>
       </c>
@@ -6968,10 +5911,10 @@
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="65"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="68"/>
       <c r="E25" s="29">
         <v>21</v>
       </c>
@@ -6994,10 +5937,10 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="65"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="68"/>
       <c r="E26" s="29">
         <v>22</v>
       </c>
@@ -7020,10 +5963,10 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="65"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="68"/>
       <c r="E27" s="29">
         <v>23</v>
       </c>
@@ -7046,10 +5989,10 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="64"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="29">
         <v>24</v>
       </c>
@@ -7072,8 +6015,8 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
-      <c r="B29" s="60"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="29">
         <v>7</v>
       </c>
@@ -7102,12 +6045,12 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="59">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="64">
         <v>8</v>
       </c>
-      <c r="D30" s="63" t="s">
+      <c r="D30" s="67" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="29">
@@ -7132,10 +6075,10 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="64"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="29">
         <v>27</v>
       </c>
@@ -7159,16 +6102,16 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="59">
+      <c r="C32" s="64">
         <v>9</v>
       </c>
-      <c r="D32" s="63" t="s">
+      <c r="D32" s="67" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="29">
@@ -7193,10 +6136,10 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="65"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="68"/>
       <c r="E33" s="29">
         <v>29</v>
       </c>
@@ -7219,10 +6162,10 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="65"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="29">
         <v>30</v>
       </c>
@@ -7245,10 +6188,10 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="65"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="68"/>
       <c r="E35" s="29">
         <v>31</v>
       </c>
@@ -7271,10 +6214,10 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="64"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="29">
         <v>32</v>
       </c>
@@ -7297,12 +6240,12 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="59">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="64">
         <v>10</v>
       </c>
-      <c r="D37" s="63" t="s">
+      <c r="D37" s="67" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="29">
@@ -7327,10 +6270,10 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="65"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="68"/>
       <c r="E38" s="29">
         <v>34</v>
       </c>
@@ -7353,10 +6296,10 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="60"/>
-      <c r="B39" s="60"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="64"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="69"/>
       <c r="E39" s="29">
         <v>35</v>
       </c>
@@ -7379,12 +6322,12 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
-      <c r="C40" s="59">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="64">
         <v>11</v>
       </c>
-      <c r="D40" s="63" t="s">
+      <c r="D40" s="67" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="29">
@@ -7409,10 +6352,10 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="60"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="65"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="29">
         <v>37</v>
       </c>
@@ -7435,10 +6378,10 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="64"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="69"/>
       <c r="E42" s="29">
         <v>38</v>
       </c>
@@ -7461,12 +6404,12 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="59">
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="64">
         <v>12</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="67" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="29">
@@ -7491,10 +6434,10 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="64"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="29">
         <v>40</v>
       </c>
@@ -7517,12 +6460,12 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="59">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="64">
         <v>13</v>
       </c>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="67" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="29">
@@ -7547,10 +6490,10 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="65"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="29">
         <v>42</v>
       </c>
@@ -7573,10 +6516,10 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="65"/>
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="29">
         <v>43</v>
       </c>
@@ -7599,10 +6542,10 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="65"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="68"/>
       <c r="E48" s="29">
         <v>44</v>
       </c>
@@ -7625,10 +6568,10 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="64"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="69"/>
       <c r="E49" s="29">
         <v>45</v>
       </c>
@@ -7651,12 +6594,12 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="59">
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="64">
         <v>14</v>
       </c>
-      <c r="D50" s="63" t="s">
+      <c r="D50" s="67" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="29">
@@ -7681,10 +6624,10 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="61"/>
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="64"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="69"/>
       <c r="E51" s="29">
         <v>47</v>
       </c>
@@ -7708,10 +6651,10 @@
       <c r="S51" s="12"/>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="73" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="29">
@@ -7742,8 +6685,8 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
+      <c r="A53" s="73"/>
+      <c r="B53" s="73"/>
       <c r="C53" s="29">
         <v>16</v>
       </c>
@@ -8023,6 +6966,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B1:H1"/>
@@ -8039,24 +7000,6 @@
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8087,7 +7030,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="26">
@@ -8104,7 +7047,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="26">
         <v>4</v>
       </c>
@@ -8119,7 +7062,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="26">
         <v>5</v>
       </c>
@@ -8134,7 +7077,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="26">
         <v>6</v>
       </c>
@@ -8177,7 +7120,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="67" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="26">
@@ -8194,7 +7137,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="26">
         <v>27</v>
       </c>
@@ -8430,31 +7373,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="M1" s="70" t="s">
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="M1" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="71"/>
+      <c r="O2" s="82"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -8602,16 +7545,16 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="71"/>
+      <c r="O9" s="82"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="67"/>
+      <c r="I10" s="78"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -8629,10 +7572,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="68" t="s">
+      <c r="H11" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="68"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -8644,10 +7587,10 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="68"/>
+      <c r="I12" s="79"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -8659,10 +7602,10 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="68" t="s">
+      <c r="H13" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="68"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -8674,10 +7617,10 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="68"/>
+      <c r="I14" s="79"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -8689,10 +7632,10 @@
       <c r="P14" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="71"/>
+      <c r="O16" s="82"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M17" s="18" t="s">
@@ -8741,10 +7684,10 @@
       <c r="P21" s="4"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="69" t="s">
+      <c r="N23" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="69"/>
+      <c r="O23" s="80"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="18" t="s">

--- a/TA R8 NOW/Code/Lembar Survey.xlsx
+++ b/TA R8 NOW/Code/Lembar Survey.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar Survey" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Custom Pref" sheetId="3" r:id="rId4"/>
     <sheet name="List Hotel Syariah Bandung" sheetId="4" r:id="rId5"/>
     <sheet name="Skema" sheetId="2" r:id="rId6"/>
+    <sheet name="Questioner Respon" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="259">
   <si>
     <t>NO</t>
   </si>
@@ -400,48 +401,12 @@
     <t>Nama Hotel</t>
   </si>
   <si>
-    <t>Jl. DR. Rubini No.4, Pasir Kaliki, Cicendo, Kota Bandung, Jawa Barat, Indonesia</t>
-  </si>
-  <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>Ruby Hotel Syariah</t>
-  </si>
-  <si>
-    <t>Cinnamon Hotel Boutique Syariah</t>
-  </si>
-  <si>
-    <t>Jalan Dr. Setiabudhi No. 300, Ledeng, Cidadap, Ledeng, Cidadap, Kota Bandung, Jawa Barat 40154, Indonesia</t>
-  </si>
-  <si>
     <t>Value</t>
   </si>
   <si>
     <t>(....................................................................)</t>
   </si>
   <si>
-    <t>Hotel Sebelas Syariah</t>
-  </si>
-  <si>
-    <t>Jalan Palasari No.32, Lengkong, Bandung, Jawa Barat, Indonesia, 40263</t>
-  </si>
-  <si>
-    <t>The Naripan Hotel</t>
-  </si>
-  <si>
-    <t>Jln Naripan 31 - 35 Bandung, Braga, Bandung, Jawa Barat, Indonesia, 40111</t>
-  </si>
-  <si>
-    <t>Favehotel Braga Bandung</t>
-  </si>
-  <si>
-    <t>Jalan Braga No. 99 - 101, Braga, Bandung, Jawa Barat, Indonesia, 40111</t>
-  </si>
-  <si>
-    <t>https://forms.gle/XGpv7zzypF7GRYrN9</t>
-  </si>
-  <si>
     <t>Grand Asrilia Hotel</t>
   </si>
   <si>
@@ -502,9 +467,6 @@
     <t>Hotel J</t>
   </si>
   <si>
-    <t>pref 2</t>
-  </si>
-  <si>
     <t>HASIL</t>
   </si>
   <si>
@@ -523,31 +485,451 @@
     <t>DATASET HOTEL</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Normalisasi BOBOT</t>
   </si>
   <si>
     <t>SCORING</t>
+  </si>
+  <si>
+    <t>astp</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>hil</t>
+  </si>
+  <si>
+    <t>AC, Resto, SwimmingPool, 24 FrontDesk,Parking,Elevator,Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Fasilitas Umum</t>
+  </si>
+  <si>
+    <t>Fasilitas Syariah</t>
+  </si>
+  <si>
+    <t>Sajadah</t>
+  </si>
+  <si>
+    <t>Alquran</t>
+  </si>
+  <si>
+    <t>No Porn</t>
+  </si>
+  <si>
+    <t>Halal Food</t>
+  </si>
+  <si>
+    <t>Kamar mandi tutup</t>
+  </si>
+  <si>
+    <t>Kolam renang tutup</t>
+  </si>
+  <si>
+    <t>Bahan spa halal</t>
+  </si>
+  <si>
+    <t>Deskripsi</t>
+  </si>
+  <si>
+    <t>Check-in and Check-out Time
+Check-in: 14.00
+Check-out: 12.00
+note : hotel ini sebelumnya bernama MaxOneHotels at Soekarno Hatta Bandung
+Lokasi
+Shakti Hotel Bandung berada di Gedebage.
+Dari Gedebage Station, hotel ini hanya berjarak sekitar 0,85 km.
+Terdapat beberapa tempat menarik di sekitarnya, seperti Gedebage Station yang berjarak sekitar 0,85 km dan Universitas Islam Negri Sunan Gunung Djati berjarak sekitar 2,29 km.
+Tentang Shakti Hotel Bandung
+Shakti Hotel Bandung merupakan hotel rekomendasi untuk Anda, seorang backpacker yang tak hanya mengutamakan bujet, tapi juga kenyamanan saat beristirahat setelah menempuh petualangan seharian penuh.
+Bagi Anda yang menginginkan kualitas pelayanan oke dengan harga yang ramah di kantong, Shakti Hotel Bandung adalah pilihan yang tepat. Karena meski murah, akomodasi ini menyediakan fasilitas memadai dan pelayanan yang tetap terjaga mutunya.
+Shakti Hotel Bandung memiliki segala fasilitas penunjang bisnis untuk Anda dan kolega.
+Shakti Hotel Bandung adalah tempat bermalam yang tepat bagi Anda yang berlibur bersama keluarga. Nikmati segala fasilitas hiburan untuk Anda dan keluarga.
+Jika Anda berniat menginap dalam jangka waktu yang lama, Shakti Hotel Bandung adalah pilihan tepat. Berbagai fasilitas yang tersedia dan kualitas pelayanan yang baik akan membuat Anda merasa sedang berada di rumah sendiri.
+Pengalaman menginap Anda tak akan terlupakan berkat pelayanan istimewa yang disertai oleh berbagai fasilitas pendukung untuk kenyamanan Anda.
+Pusat kebugaran menjadi salah satu fasilitas yang wajib Anda coba saat menginap di tempat ini.
+Tersedia kolam renang untuk Anda bersantai sendiri maupun bersama teman dan keluarga.
+Manjakan diri Anda dengan menikmati fasilitas spa yang memberikan harga dan kualitas pelayanan terbaik.
+Resepsionis siap 24 jam untuk melayani proses check-in, check-out dan kebutuhan Anda yang lain. Jangan ragu untuk menghubungi resepsionis, kami siap melayani Anda.
+Terdapat restoran yang menyajikan menu lezat ala Shakti Hotel Bandung khusus untuk Anda.
+WiFi tersedia di seluruh area publik properti untuk membantu Anda tetap terhubung dengan keluarga dan teman.
+Shakti Hotel Bandung adalah akomodasi dengan fasilitas baik dan kualitas pelayanan memuaskan menurut sebagian besar tamu.
+Nikmati pelayanan mewah dan pengalaman tak terlupakan ala Shakti Hotel Bandung selama Anda menginap di sini.</t>
+  </si>
+  <si>
+    <t>Check-in and Check-out Time
+Check-in: 15.00
+Check-out: 12.00
+Apa pun tujuan Anda berkunjung ke Kota Kembang, Hilton Bandung bisa menjadi pilihan tepat untuk menginap. Hotel pencakar langit ini berada di kawasan yang sangat strategis, sehingga mudah dijangkau dari luar kota sekalipun. Tepatnya beralamat di Jalan H.O.S. Tjokroaminoto No. 41-43 Bandung, akomodasi bintang 5 ini hanya berjarak sekitar 500 meter dari Stasiun Bandung.
+Sementara itu, jarak dari Bandar Udara Internasional Husein Sastranegera menuju hotel ini pun tidak jauh, hanya 4 km. Artinya, jika menggunakan taksi, normalnya Anda hanya akan membutuhkan waktu sekitar 4 menit menuju hotel dari bandara.
+Dari luar, kemewahan Hilton Bandung sudah bisa Anda rasakan. Gedungnya menjulang tinggi dengan kesan kontemporer yang khas dengan permainan kaca bercorak kebiruan. Kesan eksklusif nan hangat juga akan Anda jumpai begitu memasuki gedung. Staf akan menyambut dengan ramah dan sopan, serta siap membantu proses check-in dan kebutuhan lainnya.
+Menginap di hotel ini, Anda bisa memilih kamar tipe Guest, Suites, atau Executive. Semuanya dilengkapi dengan fasilitas yang memanjakan, mulai dari tempat tidur yang nyaman, meja dan kursi ergonomis, pendingin ruangan, hingga kamar mandi pribadi. Jika ingin merasakan pengalaman menginap yang lebih istimewa, Anda bisa memilih kamar dengan pemandangan Kota Bandung yang memukau.
+Selain lokasinya yang strategis dan mudah dijangkau dari pusat transportasi, hotel Hilton Bandung juga berada di kawasan yang cukup ramai dan padat. Berbagai destinasi wisata berada mengelilingi penginapan ini. Pusat kuliner, pusat oleh-oleh, pusat perbelanjaan, rumah sakit, dan berbagai tempat publik lainnya berada dalam radius yang cukup dekat dari hotel. Bahkan, Anda bisa hanya dengan berjalan kaki dalam hitungan menit menuju berbagai lokasi favorit ini.
+Urusan fasilitas, tidak lagi perlu diragukan lagi. Sebagai hotel berkelas internasional, Hotel Hilton Bandung menyediakan fasilitas lengkap untuk akomodasi menginap yang mengutamakan kemudahan dan kenyamanan. Tidak hanya menyiapkan kebutuhan untuk tamu dewasa, akomodasi berkelas ini juga menyediakan fasilitas untuk si kecil berupa klub anak. Dengan adanya fasilitas ini, Anda pun bisa lebih bebas untuk beraktivitas, sementara si buah hati aman dan senang di bawah pengawasan pihak tepercaya.
+Kenyamanan hotel ini tidak hanya berfokus pada fasilitas menginap saja, tetapi juga rekreasi. Salah satunya terwujud dalam fasilitas kolam renang outdoor dengan taman cantik di sekelilingnya. Aktivitas berenang Anda pun akan menjadi lebih menyenangkan. Bagi Anda yang terbiasa berolahraga di pusat kebugaran, Hilton Hotel telah dilengkapi dengan pusat kebugaran yang bisa Anda nikmati. Sauna, jacuzzi, spa, layanan pijat, dan barbeku pun tersedia lengkap di sini.
+Khususnya bagi Anda pencinta kuliner, menginap di Hilton Bandung tidak akan mengecewakan. Selain ketersediaan makanan kelas atas dari hotel, ada juga beragam kuliner di Kota Kembang yang banyak berjejer di sekitar hotel. Salah satunya di Paskal Food Market yang hanya berjarak sekitar 600 meter dari hotel. Daripada berkendara, Anda bisa hanya dengan berjalan kaki dari hotel. Begitu keluar dari hotel, ambillah jalan ke arah kanan, lantas berjalan lurus saja mengikuti trotoar.
+Selain itu, pusat perbelanjaan Istana Plaza berada sekitar 700 meter dari hotel. Jika ke Paskal Food Market Anda pergi ke arah kanan, maka untuk menuju Istana Plaza pergilah ke sisi kiri. Setelah berjalan lurus, Anda akan menemukan perempatan besar. Sekali menyeberangi perempatan tersebut, Anda akan tiba di pusat perbelanjaan yang tepat berada di tikungan perempatan.
+Hotel mewah ini adalah opsi terbaik bagi Anda yang menginginkan hunian mewah, nyaman, strategis, dan berkelas di pusat Kota Bandung. Ditambah dengan pelayanan yang ramah dan sigap, Hilton Bandung tidak akan mengecewakan pengalaman menginap Anda.</t>
+  </si>
+  <si>
+    <t>Kolam Renang, Resto, 24 Resepsionis, Lift, Wifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Check-in and Check-out Time
+Check-in: 14.00
+Check-out: 12.00
+Four Points by Sheraton Bandung merupakan akomodasi bintang 4 yang memberikan pengalaman menginap yang berkelas. Berada di pusat kota, hotel ini menjadi salah satu pilihan akomodasi yang eksklusif dan prestisius, baik untuk kunjungan bisnis maupun liburan.
+Dengan tampilan yang megah, bangunan hotel setinggi 12 lantai ini berada di kawasan komersial Dago yang menjadi salah satu tujuan wisata di Kota Bandung. Hotel ini memiliki 162 kamar yang didesain dalam gaya arsitektur modern klasik dan dominasi warna putih yang membangun nuansa elegan.
+Hotel Four Points Bandung menawarkan dua jenis akomodasi, yaitu Standard dan Suite Room. Untuk Standard, Anda bisa memilih salah satu dari tiga pilihan kamar yang tersedia, seperti Classic, Premium, dan Deluxe. Sementara itu, hotel ini memiliki dua pilihan Suite Room, yaitu Executive dan Premiere Suite.
+Perpaduan antara gaya minimalis dengan nuansa classy hadir di setiap kamar. Beberapa furnitur, seperti tempat tidur dan meja kabinet, memiliki sentuhan art deco yang tampak serasi dengan perlengkapan modern seperti flat-screen TV, coffee maker, dan iPod/iPhone dock. Selain itu, kamar mandi yang tersedia di setiap ruangan memiliki ukuran yang cukup luas. Anda bisa memanjakan diri dengan berendam di free standing bathtub bergaya kontemporer.
+Bagi Anda yang memilih Suite Room, Anda bisa memiliki area ruang keluarga dan ruang makan terpisah. Dengan pemisahan area tersebut, Anda bisa menjamu tamu yang berkunjung sambil mendapatkan privasi yang lebih baik.
+Selain fasilitas yang tersedia di kamar, para pengunjung juga bisa menggunakan beberapa fasilitas umum di Four Points by Sheraton Bandung. Bagi Anda yang ingin bekerja atau mengakses internet, gunakan jaringan internet nirkabel berkecepatan tinggi yang bisa digunakan secara gratis, baik di kamar maupun ruang-ruang publik. Untuk kunjungan yang lebih lama, Anda bisa memanfaatkan layanan laundry untuk mencuci pakaian selama Anda menginap.
+Jaga kebugaran Anda selama berkunjung ke Bandung dengan berolahraga di pusat kebugaran hotel yang terdapat di lantai dua. Bagi Anda yang membawa anak-anak, Anda juga bisa bersenang-senang dan menyejukkan diri bersama si kecil di kolam renang hotel yang berada tepat di depan pusat kebugaran.
+Jika Anda ingin bersantap, Hotel Four Points menawarkan beberapa pilihan restoran yang bisa dikunjungi. Nikmati sajian sarapan pagi yang menggugah di The Saffron yang berada di belakang lobi hotel. Sambil berenang atau selepas berolahraga, Anda juga bisa meneguk segelas jus atau cocktail segar di Citrus Best Brew Pool Bar yang menghadap langsung ke kolam renang.
+Jangan lewatkan kesempatan untuk menikmati pemandangan kota Bandung dari ketinggian 12 lantai di Edelweiss Sky Lounge. Di sini, Anda bisa mencoba beragam sajian internasional dan pilihan minuman sambil bersantai dan mengobrol bersama teman-teman.
+Tidak jauh dari Hotel Four Points, Anda bisa mengunjungi kawasan belanja jalan Riau yang berjarak sekitar 0,6 kilometer. Deretan butik dan factory outlet dengan produk-produk berkualitas siap memuaskan gairah belanja Anda.
+Jangan lupa berkunjung ke ikon kota Bandung, Gedung Sate yang berjarak sekitar 0,5 kilometer dari hotel. Di hari Minggu, Anda bahkan bisa berolahraga dan menikmati suasana lingkungan sekitar di ajang Bandung Car Free Day yang diadakan di sepanjang jalan Ir. H. Juanda.
+Lokasi yang strategis, fasilitas mewah, dan desain bangunan yang elegan menjadi bintang utama yang ditawarkan oleh hotel ini. Bagi Anda yang ingin berkunjung ke Bandung, Four Points by Sheraton Bandung dapat menjadi pilihan akomodasi tepat yang memberikan pengalaman menginap tak terlupakan.</t>
+  </si>
+  <si>
+    <t>Kebijakan</t>
+  </si>
+  <si>
+    <t>Hotel ini akan mengenakan biaya tambahan untuk transportasi sebesar IDR 170,000. Hotel melayani sarapan pagi mulai pukul 06:30 hingga 10:30 Hewan peliharaan tidak diizinkan.</t>
+  </si>
+  <si>
+    <t>Anda harus menunjukkan kartu identitas berfoto sewaktu check-in. Kartu kredit atau deposit tunai bisa jadi diperlukan pada saat check-in untuk menutup biaya tak terduga. Jenis ranjang dan pilihan kamar smoking/non-smoking tidak dapat dijamin ketersediaannya.</t>
+  </si>
+  <si>
+    <t>Hewan peliharaan tidak diizinkan. Hotel ini akan mengenakan biaya tambahan untuk transportasi sebesar IDR 150,000.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Check-in and Check-out Time
+Check-in: 14.00
+Check-out: 12.00
+Hotel Aston Bandung salah satunya terletak di kawasan Pasteur. Alamat lengkapnya berada di JL. Dr. Djunjunan No. 162. Akomodasi ini merupakan hotel bintang 4 yang menawarkan pengalaman menginap mewah dan menyenangkan.
+Aston Pasteur memiliki lokasi yang strategis karena dapat dicapai sekitar 5 menit dari gerbang tol Pasteur, Bandung. Selain itu, letaknya yang berada di jalan utama membuat akomodasi ini mudah untuk ditemukan dan memiliki akses cepat ke berbagai objek wisata maupun fasilitas umum.
+Sebagai hotel pilihan para pelancong, akomodasi ini memiliki ukuran kamar yang cukup luas. Luas kamar yang ditawarkan antara 25 - 55 meter persegi. Dengan begitu, para tamu dapat lebih nyaman berativitas di dalam kamar. Dalam menawarkan akomodasinya, Aston Hotel membagi kamarnya ke beberapa jenis, yaitu Superior Room, Family, Executive Deluxe, dan Suite.
+Meski dibagi ke dalam beberapa jenis, masing-masing kamar sudah dilengkapi fasilitas dasar. Mulai dari AC, TV, kulkas, cofee/ tea maker, meja, serta kursi dapat dinikmati para tamu. Sedangkan kamar mandi di masing-masing kamar juga dilengkapi dengan shower, toiletries, dan hair dryer.
+Bagi tamu yang datang bersama keluarga, tipe kamar Family bisa dijadikan pilihan. Kamar ini memiliki luas 30 meter persegi yang dilengkapi dengan satu double bed dan 1 single bed.
+Fasilitas pendukung yang ada di Hotel Aston Bandung adalah kolam renang luar ruangan dan Kambera Restaurant. Untuk kolam renang, tersedia kolam renang untuk dewasa dengan kedalaman 1,2 meter dan kolam untuk anak-anak dengan kedalaman sekitar 70 meter. Ada pula jacuzzi yang bisa dinikmati oleh para tamu yang menginap.
+Puas berenang, para tamu bisa memuaskan kegiatan bersantap di Kambera Restaurant. Restoran dengan desain rustic ini menawarkan bermacam-macam menu lokal dan internasional. Menariknya, anak-anak berusia 5 tahun ke bawah tidak dikenakan biaya sama sekali di sini. Sedangkan untuk mereka yang berusia 5-12 tahun, hanya dikenakan biaya sebesar 50% saja.
+Tidak hanya fasilitas untuk bersantai dan bersenang-senang saja, Hotel Aston di Bandung ini juga memiliki fasilitas bisnis yang bisa digunakan. Ada 3 jenis ruangan yang bisa digunakan, yaitu Majapahit ballroom dengan kapasitas mencapai 700 orang, ruangan Sriwijaya yang mampu menampung hingga 550 orang, dan 2 ruangan meeting kecil yang terdiri dari Kalingga dan Board Room dengan kapasitas maksimal hanya 60 orang saja.
+Tamu yang menggunakan fasilitas ruang serbaguna di Aston Hotel Pasteur juga akan didukung dengan fasilitas pendukung lainnya. Mulai dari sound system, LCD dan screen, buku, serta pulpen akan melengkapi kegiatan para peserta.
+Selain memiliki fasilitas dan layanan yang lengkap, para tamu yang menginap di akomodasi juga memiliki kemudahan akses ke berbagai fasilitas umum dan objek wisata. Salah satu tempat tujuan wisata yang dekat dari hotel adalah Paris Van Java. Lokasi ini dapat dicapai dengan menempuh jarak 1,15 kilometer. Tempat ini merupakan salah satu pusat perbelanjaan terbesar di Kota Bandung.
+Selain dapat berbelanja dan wisata kuliner di mal tersebut, tamu juga bisa mengunjungi Lactasari Dairy Farm yang berada di lantai teratas mal. Sarana rekreasi ini merupakan sebuah peternakan mini. Di tempat ini, pengunjung yang kebanyakan anak-anak dapat berinteraksi langsung dengan berbagai jenis hewan, seperti domba, kambing, kelinci, dan sapi.
+Bagi tamu yang ingin memuaskan hasrat berbelanja, BTC Fashion Mall juga bisa dijadikan pilihan. Atraksi ini hanya berjarak 190 meter dari hotel. Tempat ini merupakan pusat belanja fashion dengan harga yang cukup terjangkau.
+Hotel Aston Bandung bisa menjadi akomodasi yang tepat bagi keluarga maupun tamu pebisnis. Lokasi yang strategis serta fasilitas yang lengkap akan membuat pengalaman menginap semakin menyenangkan.</t>
+  </si>
+  <si>
+    <t>Kebijakan hotel belum tersedia.</t>
+  </si>
+  <si>
+    <t>AC, Resto, 24 FrontDesk,Parking,Elevator,Wifi</t>
+  </si>
+  <si>
+    <t>Check-in and Check-out Time
+Check-in: 14.00
+Check-out: 12.00
+Yello Hotel Harmoni adalah penginapan yang berlokasi di Jalan Hayam Wuruk No 6, Jakarta Pusat, salah satu sentra bisnis di kawasan ibu kota yang terkenal padat dan sibuk. Akomodasi berbintang 3 ini mengusung konsep seni yang nyentrik, salah satunya terlihat pada lukisan mural abstrak yang tergambar di dinding luar bangunan. Warna kuning cerah yang mendominasi membuat akomodasi ini mudah dikenali.
+Yello Room dan Yello Business Package merupakan 2 tipe kamar yang dimiliki oleh Hotel Yello Jakarta. Nuansa kamarnya dikonsep amat sederhana dengan mengusung kesan unik dan mewah. Setiap kamarnya bernuansa putih dan abu-abu sehingga memunculkan kesan nyaman. Tipe kamar Yello Business Package memiliki lukisan-lukisan yang memenuhi dinding belakang. Dari balik jendela, tamu bisa melihat langsung pemandangan lanskap Kota Jakarta yang memesona.
+Kenyamanan tak terhingga tak hanya bisa didapatkan para tamu di dalam kamar karena akomodasi ini juga dilengkapi dengan berbagai fasilitas out-room yang sangat menarik. Fasilitas pusat kebugaran dengan peralatan canggih tersedia untuk para tamu yang ingin berolahraga dan menyegarkan tubuh. Ada pula NETZONE lengkap dengan perangkat yang bebas digunakan untuk berselancar dan menjelajah dunia maya kapan saja.
+Selanjutnya, Yello Hotel Jakarta juga memiliki sudut Chill Spot sebagai tempat yang pas untuk para tamu berbincang atau menyelesaikan pekerjaan. Kursi-kursi empuk dan meja bulat ditata dengan apik di seluruh ruangan. Sama seperti pada dinding kamar, pada beberapa sisi tempat ini juga ditemukan lukisan mural di dindingnya.
+Selesai berbincang di area Chill Spot, Anda bisa menyegarkan pikiran sejenak dengan bermain di area Gaming Station. Di area ini terdapat bilik-bilik berukuran sedang yang dibatasi dinding tipis tanpa pintu. Setiap bilik berisi sebuah layar komputer. Tak hanya permainan online, para tamu juga bisa menikmati berbagai permainan offline.
+Fasilitas lainnya yang dimiliki oleh Yello Hotel Harmoni Jakarta adalah Wok ‘N’ Tok. Di sini para tamu juga bisa mencicipi aneka sajian lezat dan berbagai camilan ringan. Menariknya, restoran ini buka hingga 24 jam. Jadi, kapan saja perut merasa lapar, Anda bisa segera menuju kemari.
+Hal menarik lain yang dimiliki oleh akomodasi ini bisa dijumpai di ruang pertemuannya. Lantainya berlapiskan karpet dengan pola menyerupai batu bata berwarna kuning dan biru cerah. Langit-langitnya tidak hanya dihias dengan coral putih, tapi juga dilengkapi lukisan yang tak kalah cantik dengan mural-mural di dinding lainnya. Di area ini tersedia sebuah ruang pertemuan berukuran besar dan 2 lainnya dengan ukuran yang lebih kecil untuk menunjang segala aktivitas bisnis dan personal para tamu.
+Berdiri di pusat ibu kota membuat Yello Hotel dekat dengan beberapa destinasi menarik, salah satunya adalah Gajah Mada Plaza. Dari akomodasi, pusat perbelanjaan ini hanya berjarak sekitar 500 meter. Di sini Anda bisa memuaskan mata dengan melihat-lihat aneka produk kelas atas, menyaksikan film-film terbaru di bioskop, atau jalan-jalan santai sekadar cuci mata.
+Selain Gajah Mada Plaza, Istana Merdeka menjadi destinasi berikutnya yang bisa Anda nikmati saat menginap di sini. Meski hanya bisa melihat kemegahannya dari luar, Anda tetap bisa melanjutkan perjalanan menuju Monumen Nasional (Monas) yang terletak persis di depan Istana Merdeka. Ada juga Museum Nasional, museum terbesar di Asia Tenggara, yang memamerkan benda-benda peninggalan bersejarah yang letaknya persis di depan Monas.
+Yello Hotel Harmoni adalah solusi tepat untuk Anda yang mencari akomodasi nyaman berbalut kreativitas yang kental di tengah ibu kota Jakarta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Hewan peliharaan tidak diizinkan.</t>
+  </si>
+  <si>
+    <t>Check-in and Check-out Time
+Check-in: 14.00
+Check-out: 12.00
+Hotel Horison Bandung merupakan tempat nyaman dan representatif untuk liburan bersama keluarga. Sejumlah fasilitas dan layanan eksklusif dihadirkan untuk menunjang keperluan para tamu, khususnya anak-anak. Beragam aktivitas kreatif diadakan ketika musim liburan sekolah.
+Horison Hotel Bandung berlokasi di Jalan Pelajar Pejuang No. 45, hanya 30 menit jika ditempuh dari pusat kota. Bangunannya memiliki arsitektur kekinian yang terdiri dari 10 lantai dengan 253 kamar klasik bergaya modern.
+Interior kamarnya memiliki desain mewah dan berkelas. Penambahan furnitur berwarna kayu menampilkan kesan cantik, tetapi tidak tampak berat saat dipandang. Ada tiga tipe kamar yang bisa dipilih, yaitu Deluxe Single, Super Deluxe, dan Executive.
+Setiap kamar memiliki jendela besar yang menyuguhkan panorama kota dan kolam renang. Sentuhan modern di kamar ini tercermin dari beberapa fasilitas kekinian, seperti televisi LCD dengan channel kabel, akses Wi-Fi gratis, AC, minibar, dan kulkas. Kamar mandinya dilengkapi dengan shower dan bathtub, sehingga memberikan kenyamanan saat membersihkan diri.
+Sebuah kolam renang berskala olimpiade akan memanjakan Anda dengan kesegaran airnya. Kolam di Hotel Horison dilengkapi taman dan tempat santai. Ada pula kolam renang khusus anak-anak dengan papan seluncur beraneka warna.
+Bagi Anda yang ingin menyelenggarakan rapat, terdapat 26 ruang pertemuan. Ruangan ini dilengkapi teknologi modern dengan berbagai pilihan kapasitas peserta. Selain itu, tersedia balai pertemuan luas yang memiliki daya tampung sekitar 3.000 orang. Para tamu bisa menggunakannya untuk acara konferensi, seminar, acara pernikahan, dan gathering.
+Jika Anda gemar berolahraga, tidak ada salahnya menjajal aneka fasilitas olahraga di Hotel Horison. Pusat kebugaran dan lapangan tenis outdoor siap menyegarkan tubuh setiap pagi. Jika ada kesempatan, jogging di taman penginapan pun bisa menjadi olahraga yang asyik sambil menghirup udara segar.
+Tidak ketinggalan, Malabar Coffe Shop siap memenuhi kebutuhan konsumsi Anda. Restoran di Horison Bandung Hotel ini menyajikan aneka makanan nusantara. Masakan tersebut, antara lain nasi goreng kampung, nasi aromatik, soto bangkong, tahu bakso, dan aneka kolak. Anda pun bisa merasakan cita rasa makanan khas pedesaan, seperti ubi, beragam gorengan, pisang, dan talas.
+Bila Anda penasaran dengan kuliner Jepang, Okoh Restoran merupakan restoran bergaya Jepang dengan arsitektur tradisional. Okoh restoran menghidangkan bermacam-macam menu masakan, antara lain ramen, sushi, dan sashimi. Hiasan restoran terbuat dari kayu, mirip rumah makan di Negara Jepang.
+Untuk menunjang kenyamanan para tamu, penginapan bintang 4 di Bandung ini menyediakan layanan spa, sauna, dan pijat gratis. Fasilitas lift, arena bermain anak-anak, olahraga air, dan kids club pun mendukung aktivitas selama menginap di hotel.
+Tempat singgah mewah disertai fasilitas lengkap tentu membuat Anda betah tinggal di dalamnya. Namun, kurang sempurna jika belum berkunjung ke atraksi menarik di Bandung. Trans Studio Bandung berjarak sekitar 1 km dari Horison Bandung. Tempat ini menawarkan beragam zona rekreasi unik dan menantang.
+Sekitar 2,5 km dari hotel, Anda akan menemukan kawasan wisata sejarah Gedung Merdeka. Gedung ini adalah ikon utama di Kota Bandung. Bertempat di Jalan Asia-Afrika dengan desain bangunan bergaya Italia.
+Jika ingin berbelanja, Bandung Supermall menyediakan semua kebutuhan Anda. Jika belum menemukan barang yang ingin dibeli, Anda bisa mampir ke ITC Kebon Kalapa. Kurang lebih 8 menit dari Hotel Horison Bandung, Anda akan tiba di ITC dengan menumpang angkutan umum.</t>
+  </si>
+  <si>
+    <t>Anda mungkin diminta menunjukkan kartu identitas saat check-in, bersama dengan kartu kredit atau uang tunai untuk menutup deposit dan biaya tak terduga. Permintaan khusus mungkin tergantung pada ketersediaan hotel saat check-in dan mungkin dikenakan biaya biaya tambahan. Ketersediaan permintaan khusus tidak dijamin. Hotel ini mungkin membebankan biaya tambahan untuk setiap orang tambahan setelah kapasitas maksimum kamar yang dipesan.</t>
+  </si>
+  <si>
+    <t>Terapis spa sesuai muhrim</t>
+  </si>
+  <si>
+    <t>Hotel ini hotel dummy.</t>
+  </si>
+  <si>
+    <t>Check-in and Check-out Time
+Check-in: 14.00
+Check-out: 12.00
+Lokasi
+Menginap di Grand Asrilia Hotel Convention &amp; Restaurant saat anda sedang berada di Lengkong adalah sebuah pilihan cerdas.
+Lokasi hotel sangat strategis karena hanya berjarak 6,59 km dengan Bandar Udara Internasional Husein Sastranegara (BDO).
+Dari Kiaracondong Station, hotel ini hanya berjarak sekitar 2,8 km.
+hotel ini cukup mudah dijangkau karena berdekatan dengan fasilitas publik.
+Tentang Grand Asrilia Hotel Convention &amp; Restaurant
+Grand Asrilia Hotel Convention &amp; Restaurant merupakan hotel rekomendasi untuk Anda, seorang backpacker yang tak hanya mengutamakan bujet, tapi juga kenyamanan saat beristirahat setelah menempuh petualangan seharian penuh.
+Jika Anda memiliki agenda kegiatan yang membutuhkan ruangan besar, maka Grand Asrilia Hotel Convention &amp; Restaurant adalah pilihan yang tepat. Hotel ini memiliki ruang pertemuan yang luas dan dilengkapi dengan berbagai fasilitas penunjang.
+Grand Asrilia Hotel Convention &amp; Restaurant memiliki segala fasilitas penunjang bisnis untuk Anda dan kolega.
+Pengalaman menginap Anda tak akan terlupakan berkat pelayanan istimewa yang disertai oleh berbagai fasilitas pendukung untuk kenyamanan Anda.
+Resepsionis siap 24 jam untuk melayani proses check-in, check-out dan kebutuhan Anda yang lain. Jangan ragu untuk menghubungi resepsionis, kami siap melayani Anda.
+Terdapat restoran yang menyajikan menu lezat ala Grand Asrilia Hotel Convention &amp; Restaurant khusus untuk Anda.
+WiFi tersedia di seluruh area publik properti untuk membantu Anda tetap terhubung dengan keluarga dan teman.
+Grand Asrilia Hotel Convention &amp; Restaurant adalah akomodasi dengan fasilitas baik dan kualitas pelayanan memuaskan menurut sebagian besar tamu.
+Pengalaman berkesan dan tak terlupakan akan Anda dapatkan selama menginap di hotel Grand Asrilia Hotel Convention &amp; Restaurant.</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Umur</t>
+  </si>
+  <si>
+    <t>Rekomendasi yang dihasilkan aplikasi ini berubah sesuai dengan hotel yang telah saya pesan</t>
+  </si>
+  <si>
+    <t>Saya menyukai rekomendasi hotel yang ditawarkan aplikasi ini</t>
+  </si>
+  <si>
+    <t>Saya dapat mengerti dengan baik cara penggunaan aplikasinya.</t>
+  </si>
+  <si>
+    <t>Saya menyukai interaksi pada aplikasi ini</t>
+  </si>
+  <si>
+    <t>Saya menyukai detail informasi hotel yang ditampilkan pada aplikasi ini</t>
+  </si>
+  <si>
+    <t>Ismail Haq</t>
+  </si>
+  <si>
+    <t>ismail@ursabyte.com</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Ya</t>
+  </si>
+  <si>
+    <t>M Noor Fuadi</t>
+  </si>
+  <si>
+    <t>mnfuadii@gmail.com</t>
+  </si>
+  <si>
+    <t>Sabda Yagra Pratama</t>
+  </si>
+  <si>
+    <t>Pratamasabdayagra@gmail.com</t>
+  </si>
+  <si>
+    <t>ibnu abdul f</t>
+  </si>
+  <si>
+    <t>ibnuabdul16@gmail.com</t>
+  </si>
+  <si>
+    <t>Rizka Febriana Wulandari</t>
+  </si>
+  <si>
+    <t>Febrianaw119@gmail.com</t>
+  </si>
+  <si>
+    <t>andhika purwantara</t>
+  </si>
+  <si>
+    <t>007andhikap@gmail.com</t>
+  </si>
+  <si>
+    <t>Abiyan bagus baskoro</t>
+  </si>
+  <si>
+    <t>Abiyan@live.com</t>
+  </si>
+  <si>
+    <t>R. HATIM M.A</t>
+  </si>
+  <si>
+    <t>hatim6897@gmail.com</t>
+  </si>
+  <si>
+    <t>Agung Nugraha</t>
+  </si>
+  <si>
+    <t>Kesasar17@gmail.com</t>
+  </si>
+  <si>
+    <t>Regi Abdul Rojak</t>
+  </si>
+  <si>
+    <t>reg1zdulzdak5@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhuki Dwi Rachman</t>
+  </si>
+  <si>
+    <t>dhukidwir@gmail.com</t>
+  </si>
+  <si>
+    <t>Muh Ikhdar Isnan</t>
+  </si>
+  <si>
+    <t>ikhdar.isnan@gmail.com</t>
+  </si>
+  <si>
+    <t>Odia Pratama</t>
+  </si>
+  <si>
+    <t>odiapratama@gmail.com</t>
+  </si>
+  <si>
+    <t>Ibnu Kahfi</t>
+  </si>
+  <si>
+    <t>kavs0048@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramdan septiawan</t>
+  </si>
+  <si>
+    <t>ramdan.einstein@gmail.com</t>
+  </si>
+  <si>
+    <t>Mira</t>
+  </si>
+  <si>
+    <t>Haimiraa@gmail.com</t>
+  </si>
+  <si>
+    <t>Muhammad Yugaf Haykal</t>
+  </si>
+  <si>
+    <t>myugaf@gmail.com</t>
+  </si>
+  <si>
+    <t>Carina Mutiara</t>
+  </si>
+  <si>
+    <t>Carinamp99@gmail.com</t>
+  </si>
+  <si>
+    <t>Rafi Indraj</t>
+  </si>
+  <si>
+    <t>99.Rafiindrajati@gmail.com</t>
+  </si>
+  <si>
+    <t>Aldiyan</t>
+  </si>
+  <si>
+    <t>aldiyantanjung@yahoo.co.id</t>
+  </si>
+  <si>
+    <t>Hendy sujarwo</t>
+  </si>
+  <si>
+    <t>hendyway@gmail.com</t>
+  </si>
+  <si>
+    <t>Dito</t>
+  </si>
+  <si>
+    <t>juliantohermawan97@gmail.com</t>
+  </si>
+  <si>
+    <t>Kevin rizqullah</t>
+  </si>
+  <si>
+    <t>kevinrizqullah82@gmail.com</t>
+  </si>
+  <si>
+    <t>hanif salafi</t>
+  </si>
+  <si>
+    <t>hanifsalafi456@gmail.com</t>
+  </si>
+  <si>
+    <t>Agiero</t>
+  </si>
+  <si>
+    <t>Algifajardi@gmail.com</t>
+  </si>
+  <si>
+    <t>Taufan Samudra Akbar</t>
+  </si>
+  <si>
+    <t>Taufan70@gmail.com</t>
+  </si>
+  <si>
+    <t>Aditiyan Iswahyudin</t>
+  </si>
+  <si>
+    <t>aditiyan@student.telkomuniversity.ac.id</t>
+  </si>
+  <si>
+    <t>Basry Suaidi</t>
+  </si>
+  <si>
+    <t>basry_bumimas@yahoo.co.id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,12 +965,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -640,8 +1016,28 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,8 +1068,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -799,12 +1213,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,20 +1329,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -917,7 +1347,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -947,42 +1376,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -995,6 +1424,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1002,6 +1452,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1021,6 +1486,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1616,8 +2099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M1:M1048576"/>
+    <sheetView topLeftCell="C31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,46 +2126,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="A1" s="77" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
     </row>
     <row r="4" spans="1:22" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1707,28 +2190,28 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J4" s="23" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="K4" s="23" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="M4" s="23" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="P4" s="23" t="s">
         <v>117</v>
@@ -1745,16 +2228,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="64">
-        <v>1</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="73">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2">
@@ -1790,19 +2273,19 @@
       <c r="O5" s="25">
         <v>1</v>
       </c>
-      <c r="P5" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="49">
+      <c r="P5" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="44">
         <v>1</v>
       </c>
       <c r="R5" s="25"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1836,21 +2319,21 @@
       <c r="O6" s="25">
         <v>1</v>
       </c>
-      <c r="P6" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="49">
+      <c r="P6" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="44">
         <v>1</v>
       </c>
       <c r="R6" s="25"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="64">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="73">
         <v>2</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="71" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2">
@@ -1886,19 +2369,19 @@
       <c r="O7" s="25">
         <v>0</v>
       </c>
-      <c r="P7" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="49">
+      <c r="P7" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="44">
         <v>1</v>
       </c>
       <c r="R7" s="25"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="68"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1932,20 +2415,20 @@
       <c r="O8" s="25">
         <v>0</v>
       </c>
-      <c r="P8" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="49">
+      <c r="P8" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="44">
         <v>1</v>
       </c>
       <c r="R8" s="25"/>
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="68"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1979,19 +2462,19 @@
       <c r="O9" s="25">
         <v>1</v>
       </c>
-      <c r="P9" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="49">
+      <c r="P9" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="44">
         <v>1</v>
       </c>
       <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="69"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -2025,21 +2508,21 @@
       <c r="O10" s="25">
         <v>1</v>
       </c>
-      <c r="P10" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="49">
+      <c r="P10" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="44">
         <v>1</v>
       </c>
       <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="64">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="73">
         <v>3</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="71" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="2">
@@ -2075,19 +2558,19 @@
       <c r="O11" s="25">
         <v>1</v>
       </c>
-      <c r="P11" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="49">
+      <c r="P11" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="44">
         <v>1</v>
       </c>
       <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -2121,19 +2604,19 @@
       <c r="O12" s="25">
         <v>0</v>
       </c>
-      <c r="P12" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="49">
+      <c r="P12" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="44">
         <v>1</v>
       </c>
       <c r="R12" s="25"/>
     </row>
-    <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="69"/>
+    <row r="13" spans="1:22" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="2">
         <v>9</v>
       </c>
@@ -2167,21 +2650,21 @@
       <c r="O13" s="25">
         <v>1</v>
       </c>
-      <c r="P13" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="49">
+      <c r="P13" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="44">
         <v>1</v>
       </c>
       <c r="R13" s="25"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="64">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="73">
         <v>4</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="71" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="2">
@@ -2217,19 +2700,19 @@
       <c r="O14" s="25">
         <v>0</v>
       </c>
-      <c r="P14" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="49">
+      <c r="P14" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="44">
         <v>1</v>
       </c>
       <c r="R14" s="25"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="69"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="2">
         <v>11</v>
       </c>
@@ -2263,21 +2746,21 @@
       <c r="O15" s="25">
         <v>1</v>
       </c>
-      <c r="P15" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="49">
+      <c r="P15" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="44">
         <v>1</v>
       </c>
       <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="73">
         <v>5</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="71" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="2">
@@ -2313,19 +2796,19 @@
       <c r="O16" s="25">
         <v>1</v>
       </c>
-      <c r="P16" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="49">
+      <c r="P16" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="44">
         <v>1</v>
       </c>
       <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="2">
         <v>13</v>
       </c>
@@ -2359,19 +2842,19 @@
       <c r="O17" s="25">
         <v>1</v>
       </c>
-      <c r="P17" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="49">
+      <c r="P17" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="44">
         <v>1</v>
       </c>
       <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="2">
         <v>14</v>
       </c>
@@ -2405,19 +2888,19 @@
       <c r="O18" s="25">
         <v>0</v>
       </c>
-      <c r="P18" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="49">
+      <c r="P18" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="44">
         <v>1</v>
       </c>
       <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="69"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="2">
         <v>15</v>
       </c>
@@ -2451,21 +2934,21 @@
       <c r="O19" s="25">
         <v>1</v>
       </c>
-      <c r="P19" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="49">
+      <c r="P19" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="44">
         <v>1</v>
       </c>
       <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="64">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="73">
         <v>6</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="2">
@@ -2501,19 +2984,19 @@
       <c r="O20" s="25">
         <v>1</v>
       </c>
-      <c r="P20" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="49">
+      <c r="P20" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="44">
         <v>1</v>
       </c>
       <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="2">
         <v>17</v>
       </c>
@@ -2547,19 +3030,19 @@
       <c r="O21" s="25">
         <v>1</v>
       </c>
-      <c r="P21" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="49">
+      <c r="P21" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="44">
         <v>1</v>
       </c>
       <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="2">
         <v>18</v>
       </c>
@@ -2593,19 +3076,19 @@
       <c r="O22" s="25">
         <v>1</v>
       </c>
-      <c r="P22" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="49">
+      <c r="P22" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="44">
         <v>1</v>
       </c>
       <c r="R22" s="25"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="68"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="2">
         <v>19</v>
       </c>
@@ -2639,19 +3122,19 @@
       <c r="O23" s="25">
         <v>1</v>
       </c>
-      <c r="P23" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="49">
+      <c r="P23" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="44">
         <v>1</v>
       </c>
       <c r="R23" s="25"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="2">
         <v>20</v>
       </c>
@@ -2685,19 +3168,19 @@
       <c r="O24" s="25">
         <v>1</v>
       </c>
-      <c r="P24" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="49">
+      <c r="P24" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="44">
         <v>1</v>
       </c>
       <c r="R24" s="25"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="68"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="2">
         <v>21</v>
       </c>
@@ -2731,19 +3214,19 @@
       <c r="O25" s="25">
         <v>0</v>
       </c>
-      <c r="P25" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="49">
+      <c r="P25" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="44">
         <v>1</v>
       </c>
       <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="68"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="2">
         <v>22</v>
       </c>
@@ -2777,19 +3260,19 @@
       <c r="O26" s="25">
         <v>1</v>
       </c>
-      <c r="P26" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="49">
+      <c r="P26" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="44">
         <v>1</v>
       </c>
       <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="68"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="2">
         <v>23</v>
       </c>
@@ -2823,19 +3306,19 @@
       <c r="O27" s="25">
         <v>1</v>
       </c>
-      <c r="P27" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="49">
+      <c r="P27" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="44">
         <v>1</v>
       </c>
       <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="69"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="2">
         <v>24</v>
       </c>
@@ -2869,17 +3352,17 @@
       <c r="O28" s="25">
         <v>1</v>
       </c>
-      <c r="P28" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="49">
+      <c r="P28" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="44">
         <v>1</v>
       </c>
       <c r="R28" s="25"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="2">
         <v>7</v>
       </c>
@@ -2919,21 +3402,21 @@
       <c r="O29" s="25">
         <v>0</v>
       </c>
-      <c r="P29" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="49">
+      <c r="P29" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="44">
         <v>1</v>
       </c>
       <c r="R29" s="25"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="64">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="73">
         <v>8</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="71" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="2">
@@ -2946,7 +3429,7 @@
         <v>77</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I30" s="16">
         <v>1</v>
@@ -2961,7 +3444,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N30" s="25">
         <v>1</v>
@@ -2969,19 +3452,19 @@
       <c r="O30" s="25">
         <v>1</v>
       </c>
-      <c r="P30" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="49">
+      <c r="P30" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="44">
         <v>1</v>
       </c>
       <c r="R30" s="25"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="69"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="2">
         <v>27</v>
       </c>
@@ -2992,7 +3475,7 @@
         <v>77</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I31" s="16">
         <v>0</v>
@@ -3007,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="M31" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N31" s="25">
         <v>1</v>
@@ -3015,26 +3498,26 @@
       <c r="O31" s="25">
         <v>1</v>
       </c>
-      <c r="P31" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="49">
+      <c r="P31" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="44">
         <v>1</v>
       </c>
       <c r="R31" s="25"/>
       <c r="S31" s="22"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="73">
         <v>9</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="71" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="2">
@@ -3070,19 +3553,19 @@
       <c r="O32" s="25">
         <v>0</v>
       </c>
-      <c r="P32" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="49">
+      <c r="P32" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="44">
         <v>1</v>
       </c>
       <c r="R32" s="25"/>
     </row>
     <row r="33" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="68"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="2">
         <v>29</v>
       </c>
@@ -3116,19 +3599,19 @@
       <c r="O33" s="25">
         <v>1</v>
       </c>
-      <c r="P33" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="49">
+      <c r="P33" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="44">
         <v>1</v>
       </c>
       <c r="R33" s="25"/>
     </row>
     <row r="34" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="68"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="2">
         <v>30</v>
       </c>
@@ -3162,19 +3645,19 @@
       <c r="O34" s="25">
         <v>1</v>
       </c>
-      <c r="P34" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="49">
+      <c r="P34" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="44">
         <v>1</v>
       </c>
       <c r="R34" s="25"/>
     </row>
     <row r="35" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="2">
         <v>31</v>
       </c>
@@ -3208,19 +3691,19 @@
       <c r="O35" s="25">
         <v>0</v>
       </c>
-      <c r="P35" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="49">
+      <c r="P35" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="44">
         <v>1</v>
       </c>
       <c r="R35" s="25"/>
     </row>
     <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="69"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="2">
         <v>32</v>
       </c>
@@ -3254,21 +3737,21 @@
       <c r="O36" s="25">
         <v>1</v>
       </c>
-      <c r="P36" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="49">
+      <c r="P36" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="44">
         <v>1</v>
       </c>
       <c r="R36" s="25"/>
     </row>
     <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="64">
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="73">
         <v>10</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="71" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="2">
@@ -3304,19 +3787,19 @@
       <c r="O37" s="25">
         <v>0</v>
       </c>
-      <c r="P37" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="49">
+      <c r="P37" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="44">
         <v>1</v>
       </c>
       <c r="R37" s="25"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="68"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="2">
         <v>34</v>
       </c>
@@ -3350,19 +3833,19 @@
       <c r="O38" s="25">
         <v>0</v>
       </c>
-      <c r="P38" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="49">
+      <c r="P38" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="44">
         <v>1</v>
       </c>
       <c r="R38" s="25"/>
     </row>
     <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="69"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="2">
         <v>35</v>
       </c>
@@ -3396,21 +3879,21 @@
       <c r="O39" s="25">
         <v>0</v>
       </c>
-      <c r="P39" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="49">
+      <c r="P39" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="44">
         <v>1</v>
       </c>
       <c r="R39" s="25"/>
     </row>
     <row r="40" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="64">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="73">
         <v>11</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="71" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="2">
@@ -3446,19 +3929,19 @@
       <c r="O40" s="25">
         <v>1</v>
       </c>
-      <c r="P40" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="49">
+      <c r="P40" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="44">
         <v>1</v>
       </c>
       <c r="R40" s="25"/>
     </row>
     <row r="41" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="68"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="2">
         <v>37</v>
       </c>
@@ -3492,19 +3975,19 @@
       <c r="O41" s="25">
         <v>1</v>
       </c>
-      <c r="P41" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="49">
+      <c r="P41" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="44">
         <v>1</v>
       </c>
       <c r="R41" s="25"/>
     </row>
     <row r="42" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="69"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="2">
         <v>38</v>
       </c>
@@ -3538,21 +4021,21 @@
       <c r="O42" s="25">
         <v>1</v>
       </c>
-      <c r="P42" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="49">
+      <c r="P42" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="44">
         <v>1</v>
       </c>
       <c r="R42" s="25"/>
     </row>
     <row r="43" spans="1:20" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="64">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="73">
         <v>12</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="71" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="2">
@@ -3565,7 +4048,7 @@
         <v>77</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I43" s="16">
         <v>1</v>
@@ -3588,20 +4071,20 @@
       <c r="O43" s="25">
         <v>0</v>
       </c>
-      <c r="P43" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="49">
+      <c r="P43" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="44">
         <v>1</v>
       </c>
       <c r="R43" s="25"/>
-      <c r="T43" s="44"/>
+      <c r="T43" s="39"/>
     </row>
     <row r="44" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="69"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="2">
         <v>40</v>
       </c>
@@ -3612,7 +4095,7 @@
         <v>77</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I44" s="16">
         <v>1</v>
@@ -3635,22 +4118,22 @@
       <c r="O44" s="25">
         <v>0</v>
       </c>
-      <c r="P44" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="49">
+      <c r="P44" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="44">
         <v>1</v>
       </c>
       <c r="R44" s="25"/>
-      <c r="T44" s="44"/>
+      <c r="T44" s="39"/>
     </row>
     <row r="45" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="64">
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="73">
         <v>13</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="71" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="2">
@@ -3663,7 +4146,7 @@
         <v>8</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I45" s="16">
         <v>1</v>
@@ -3678,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N45" s="25">
         <v>1</v>
@@ -3686,20 +4169,20 @@
       <c r="O45" s="25">
         <v>1</v>
       </c>
-      <c r="P45" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="49">
+      <c r="P45" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="44">
         <v>1</v>
       </c>
       <c r="R45" s="25"/>
-      <c r="T45" s="44"/>
+      <c r="T45" s="39"/>
     </row>
     <row r="46" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="76"/>
       <c r="E46" s="2">
         <v>42</v>
       </c>
@@ -3710,7 +4193,7 @@
         <v>77</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I46" s="16">
         <v>1</v>
@@ -3725,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N46" s="25">
         <v>1</v>
@@ -3733,19 +4216,19 @@
       <c r="O46" s="25">
         <v>1</v>
       </c>
-      <c r="P46" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="49">
+      <c r="P46" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="44">
         <v>1</v>
       </c>
       <c r="R46" s="25"/>
     </row>
     <row r="47" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="68"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="2">
         <v>43</v>
       </c>
@@ -3756,7 +4239,7 @@
         <v>77</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I47" s="16">
         <v>1</v>
@@ -3771,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="M47" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N47" s="25">
         <v>1</v>
@@ -3779,19 +4262,19 @@
       <c r="O47" s="25">
         <v>1</v>
       </c>
-      <c r="P47" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="49">
+      <c r="P47" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="44">
         <v>1</v>
       </c>
       <c r="R47" s="25"/>
     </row>
     <row r="48" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="68"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="2">
         <v>44</v>
       </c>
@@ -3802,7 +4285,7 @@
         <v>77</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I48" s="16">
         <v>0</v>
@@ -3817,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="M48" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N48" s="25">
         <v>1</v>
@@ -3825,19 +4308,19 @@
       <c r="O48" s="25">
         <v>1</v>
       </c>
-      <c r="P48" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="49">
+      <c r="P48" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="44">
         <v>1</v>
       </c>
       <c r="R48" s="25"/>
     </row>
     <row r="49" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="69"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="2">
         <v>45</v>
       </c>
@@ -3848,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I49" s="16">
         <v>1</v>
@@ -3863,7 +4346,7 @@
         <v>1</v>
       </c>
       <c r="M49" s="25" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="N49" s="25">
         <v>1</v>
@@ -3871,21 +4354,21 @@
       <c r="O49" s="25">
         <v>0</v>
       </c>
-      <c r="P49" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="49">
+      <c r="P49" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="44">
         <v>1</v>
       </c>
       <c r="R49" s="25"/>
     </row>
     <row r="50" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="64">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="73">
         <v>14</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="71" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="2">
@@ -3921,19 +4404,19 @@
       <c r="O50" s="25">
         <v>0</v>
       </c>
-      <c r="P50" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="49">
+      <c r="P50" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="44">
         <v>1</v>
       </c>
       <c r="R50" s="25"/>
     </row>
     <row r="51" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="69"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="2">
         <v>47</v>
       </c>
@@ -3967,20 +4450,20 @@
       <c r="O51" s="25">
         <v>0</v>
       </c>
-      <c r="P51" s="49">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="49">
+      <c r="P51" s="44">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="44">
         <v>1</v>
       </c>
       <c r="R51" s="25"/>
       <c r="S51" s="22"/>
     </row>
     <row r="52" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="70" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="2">
@@ -4022,17 +4505,17 @@
       <c r="O52" s="25">
         <v>1</v>
       </c>
-      <c r="P52" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="49">
+      <c r="P52" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="44">
         <v>1</v>
       </c>
       <c r="R52" s="25"/>
     </row>
     <row r="53" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="2">
         <v>16</v>
       </c>
@@ -4072,219 +4555,219 @@
       <c r="O53" s="25">
         <v>1</v>
       </c>
-      <c r="P53" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="49">
+      <c r="P53" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="44">
         <v>1</v>
       </c>
       <c r="R53" s="25"/>
       <c r="S53" s="22"/>
     </row>
     <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="73" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="45"/>
+      <c r="A54" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="40"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="45">
+      <c r="E54" s="40">
         <v>50</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="47">
+        <v>138</v>
+      </c>
+      <c r="G54" s="40"/>
+      <c r="H54" s="42">
         <v>4</v>
       </c>
-      <c r="I54" s="47">
+      <c r="I54" s="42">
         <v>3.5</v>
       </c>
-      <c r="J54" s="47">
+      <c r="J54" s="42">
         <v>4.5</v>
       </c>
-      <c r="K54" s="47">
+      <c r="K54" s="42">
         <v>4.5</v>
       </c>
-      <c r="L54" s="47">
+      <c r="L54" s="42">
         <v>4.5</v>
       </c>
-      <c r="M54" s="47">
+      <c r="M54" s="42">
         <v>4.5</v>
       </c>
-      <c r="N54" s="47">
+      <c r="N54" s="42">
         <v>4.5</v>
       </c>
-      <c r="O54" s="47">
+      <c r="O54" s="42">
         <v>3.5</v>
       </c>
-      <c r="P54" s="50"/>
-      <c r="Q54" s="50"/>
-      <c r="R54" s="48"/>
-      <c r="S54" s="46"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="41"/>
     </row>
     <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="73"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="45"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="40"/>
       <c r="D55" s="27"/>
-      <c r="E55" s="45">
+      <c r="E55" s="40">
         <v>51</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45">
+        <v>140</v>
+      </c>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40">
         <v>3</v>
       </c>
-      <c r="I55" s="45">
+      <c r="I55" s="40">
         <v>3.5</v>
       </c>
-      <c r="J55" s="47">
+      <c r="J55" s="42">
         <v>4.5</v>
       </c>
-      <c r="K55" s="45">
+      <c r="K55" s="40">
         <v>4</v>
       </c>
-      <c r="L55" s="45">
+      <c r="L55" s="40">
         <v>4</v>
       </c>
-      <c r="M55" s="47">
+      <c r="M55" s="42">
         <v>4.5</v>
       </c>
-      <c r="N55" s="47">
+      <c r="N55" s="42">
         <v>4.5</v>
       </c>
-      <c r="O55" s="45">
+      <c r="O55" s="40">
         <v>4</v>
       </c>
-      <c r="P55" s="49"/>
-      <c r="Q55" s="49"/>
-      <c r="R55" s="45"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="40"/>
     </row>
     <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="73"/>
-      <c r="B56" s="73"/>
-      <c r="C56" s="45"/>
+      <c r="A56" s="70"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="40"/>
       <c r="D56" s="27"/>
-      <c r="E56" s="45">
+      <c r="E56" s="40">
         <v>52</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45">
+        <v>139</v>
+      </c>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40">
         <v>4.5</v>
       </c>
-      <c r="I56" s="45">
+      <c r="I56" s="40">
         <v>3.5</v>
       </c>
-      <c r="J56" s="47">
+      <c r="J56" s="42">
         <v>4.5</v>
       </c>
-      <c r="K56" s="45">
+      <c r="K56" s="40">
         <v>4.5</v>
       </c>
-      <c r="L56" s="45">
+      <c r="L56" s="40">
         <v>4</v>
       </c>
-      <c r="M56" s="47">
+      <c r="M56" s="42">
         <v>4.5</v>
       </c>
-      <c r="N56" s="47">
+      <c r="N56" s="42">
         <v>4.5</v>
       </c>
-      <c r="O56" s="45">
+      <c r="O56" s="40">
         <v>4</v>
       </c>
-      <c r="P56" s="49"/>
-      <c r="Q56" s="49"/>
-      <c r="R56" s="45"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="40"/>
     </row>
     <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="45"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="27"/>
-      <c r="E57" s="45">
+      <c r="E57" s="40">
         <v>53</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G57" s="45"/>
-      <c r="H57" s="45">
+        <v>123</v>
+      </c>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40">
         <v>4.5</v>
       </c>
-      <c r="I57" s="45">
+      <c r="I57" s="40">
         <v>3.5</v>
       </c>
-      <c r="J57" s="47">
+      <c r="J57" s="42">
         <v>4.5</v>
       </c>
-      <c r="K57" s="45">
+      <c r="K57" s="40">
         <v>4</v>
       </c>
-      <c r="L57" s="45">
+      <c r="L57" s="40">
         <v>4</v>
       </c>
-      <c r="M57" s="47">
+      <c r="M57" s="42">
         <v>4.5</v>
       </c>
-      <c r="N57" s="47">
+      <c r="N57" s="42">
         <v>4</v>
       </c>
-      <c r="O57" s="45">
+      <c r="O57" s="40">
         <v>4</v>
       </c>
-      <c r="P57" s="49"/>
-      <c r="Q57" s="49"/>
-      <c r="R57" s="45"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="40"/>
     </row>
     <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="45"/>
+      <c r="A58" s="70"/>
+      <c r="B58" s="70"/>
+      <c r="C58" s="40"/>
       <c r="D58" s="27"/>
-      <c r="E58" s="45">
+      <c r="E58" s="40">
         <v>54</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45">
+        <v>137</v>
+      </c>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40">
         <v>4.5</v>
       </c>
-      <c r="I58" s="45">
+      <c r="I58" s="40">
         <v>3.5</v>
       </c>
-      <c r="J58" s="47">
+      <c r="J58" s="42">
         <v>4.5</v>
       </c>
-      <c r="K58" s="45">
+      <c r="K58" s="40">
         <v>4</v>
       </c>
-      <c r="L58" s="45">
+      <c r="L58" s="40">
         <v>4</v>
       </c>
-      <c r="M58" s="47">
+      <c r="M58" s="42">
         <v>4.5</v>
       </c>
-      <c r="N58" s="47">
+      <c r="N58" s="42">
         <v>4.5</v>
       </c>
-      <c r="O58" s="45">
+      <c r="O58" s="40">
         <v>4</v>
       </c>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="45"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="40"/>
       <c r="S58" s="22">
         <v>5</v>
       </c>
@@ -4293,53 +4776,53 @@
       </c>
     </row>
     <row r="59" spans="1:21" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="B59" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="71"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="71"/>
-      <c r="F59" s="71"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="47">
+      <c r="A59" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="68"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="42">
         <f t="shared" ref="H59:O59" si="0">SUM(H54:H58)/25</f>
         <v>0.82</v>
       </c>
-      <c r="I59" s="47">
+      <c r="I59" s="42">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="J59" s="47">
+      <c r="J59" s="42">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="K59" s="47">
+      <c r="K59" s="42">
         <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
-      <c r="L59" s="47">
+      <c r="L59" s="42">
         <f t="shared" si="0"/>
         <v>0.82</v>
       </c>
-      <c r="M59" s="47">
+      <c r="M59" s="42">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="N59" s="47">
+      <c r="N59" s="42">
         <f t="shared" si="0"/>
         <v>0.88</v>
       </c>
-      <c r="O59" s="47">
+      <c r="O59" s="42">
         <f t="shared" si="0"/>
         <v>0.78</v>
       </c>
-      <c r="P59" s="51">
+      <c r="P59" s="46">
         <v>0.6</v>
       </c>
-      <c r="Q59" s="51">
+      <c r="Q59" s="46">
         <v>0.3</v>
       </c>
     </row>
@@ -4468,26 +4951,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D20:D28"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
     <mergeCell ref="A1:R2"/>
     <mergeCell ref="A5:A31"/>
     <mergeCell ref="B32:B51"/>
@@ -4504,6 +4967,26 @@
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D37:D39"/>
     <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4512,15 +4995,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL40"/>
+  <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" style="33" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
@@ -4529,7 +5012,7 @@
     <col min="8" max="8" width="31.28515625" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="16.140625" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="14.28515625" customWidth="1"/>
@@ -4537,124 +5020,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="H1" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="I1" s="74"/>
-      <c r="N1" s="59"/>
+      <c r="A1" s="78" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="H1" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="78"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:38" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="O2" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF2" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+    </row>
+    <row r="3" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="61">
+        <v>0.82</v>
+      </c>
+      <c r="C3" s="61">
+        <v>0.94871795000000003</v>
+      </c>
+      <c r="D3" s="61">
+        <v>0.9</v>
+      </c>
+      <c r="E3" s="61">
+        <v>1</v>
+      </c>
+      <c r="G3" s="62">
+        <v>1</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="61">
+        <f>(B22*B3)+(C22*C3)+(D22*D3)+(E22*E3)</f>
+        <v>3.2382512832999999</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="62">
+        <v>1</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="O3" s="61">
+        <v>3.2382512832999999</v>
+      </c>
+      <c r="AF3" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="40" t="s">
+      <c r="AG3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH3" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI3" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="AJ3" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="AK3" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="I2" s="61" t="s">
-        <v>158</v>
-      </c>
-      <c r="AF2" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-    </row>
-    <row r="3" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="C3" s="42">
-        <v>0.94871795000000003</v>
-      </c>
-      <c r="D3" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="42">
-        <v>1</v>
-      </c>
-      <c r="H3" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="4">
-        <f>(B19*B3)+(C19*C3)+(D19*D3)+(E19*E3)</f>
-        <v>1.8732307700000002</v>
-      </c>
-      <c r="AF3" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG3" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH3" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="AI3" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJ3" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK3" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="AL3" s="41" t="s">
-        <v>158</v>
+      <c r="AL3" s="37" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="A4" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="61">
         <v>0.7</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="61">
         <v>0.97560979999999997</v>
       </c>
-      <c r="D4" s="42">
+      <c r="D4" s="61">
         <v>0.85714287</v>
       </c>
-      <c r="E4" s="42">
-        <v>1</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I4" s="4">
-        <f>(B19*B4)+(C19*C4)+(D19*D4)+(E19*E4)</f>
-        <v>1.839651602</v>
+      <c r="E4" s="61">
+        <v>1</v>
+      </c>
+      <c r="G4" s="62">
+        <v>2</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="61">
+        <f>(B22*B4)+(C22*C4)+(D22*D4)+(E22*E4)</f>
+        <v>3.1565296717</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M4" s="62">
+        <v>7</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="61">
+        <v>3.2335735194999997</v>
       </c>
       <c r="AF4" s="4">
         <v>5</v>
       </c>
-      <c r="AG4" s="38" t="s">
-        <v>137</v>
+      <c r="AG4" s="34" t="s">
+        <v>125</v>
       </c>
       <c r="AH4" s="4">
         <f>(B3)/(B8)</f>
@@ -4672,39 +5200,54 @@
         <f>(E3)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL4" s="58">
-        <f>(B19*AH4)+(C19*AI4)+(D19*AJ4)+(E19*AK4)</f>
-        <v>1.8914529922222223</v>
+      <c r="AL4" s="49">
+        <f>(B22*AH4)+(C22*AI4)+(D22*AJ4)+(E22*AK4)</f>
+        <v>3.289273505522222</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="61">
         <v>0.9</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="61">
         <v>0.65853660000000003</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="61">
         <v>0.67857140000000005</v>
       </c>
-      <c r="E5" s="42">
-        <v>1</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="4">
-        <f>(B19*B5)+(C19*C5)+(D19*D5)+(E19*E5)</f>
-        <v>1.5822647999999999</v>
+      <c r="E5" s="61">
+        <v>1</v>
+      </c>
+      <c r="G5" s="62">
+        <v>3</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="61">
+        <f>(B22*B5)+(C22*C5)+(D22*D5)+(E22*E5)</f>
+        <v>2.7900574784000001</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="62">
+        <v>2</v>
+      </c>
+      <c r="N5" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="O5" s="61">
+        <v>3.1565296717</v>
       </c>
       <c r="AF5" s="4">
         <v>3</v>
       </c>
-      <c r="AG5" s="38" t="s">
-        <v>138</v>
+      <c r="AG5" s="34" t="s">
+        <v>126</v>
       </c>
       <c r="AH5" s="4">
         <f>(B4)/(B8)</f>
@@ -4722,39 +5265,54 @@
         <f>(E4)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL5" s="58">
-        <f>(B19*AH5)+(C19*AI5)+(D19*AJ5)+(E19*AK5)</f>
-        <v>1.8552071575555558</v>
+      <c r="AL5" s="49">
+        <f>(B22*AH5)+(C22*AI5)+(D22*AJ5)+(E22*AK5)</f>
+        <v>3.2000852272555553</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="61">
         <v>0.84</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="61">
         <v>0.92682929999999997</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="61">
         <v>0.67857140000000005</v>
       </c>
-      <c r="E6" s="42">
-        <v>1</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="4">
-        <f>(B19*B6)+(C19*C6)+(D19*D6)+(E19*E6)</f>
-        <v>1.7312404200000002</v>
+      <c r="E6" s="61">
+        <v>1</v>
+      </c>
+      <c r="G6" s="62">
+        <v>4</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="61">
+        <f>(B22*B6)+(C22*C6)+(D22*D6)+(E22*E6)</f>
+        <v>3.0177745682000001</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="62">
+        <v>6</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="61">
+        <v>3.1486084396399998</v>
       </c>
       <c r="AF6" s="4">
         <v>9</v>
       </c>
-      <c r="AG6" s="38" t="s">
-        <v>140</v>
+      <c r="AG6" s="34" t="s">
+        <v>128</v>
       </c>
       <c r="AH6" s="4">
         <f>(B5)/(B8)</f>
@@ -4772,39 +5330,54 @@
         <f>(E5)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL6" s="58">
-        <f>(B19*AH6)+(C19*AI6)+(D19*AJ6)+(E19*AK6)</f>
-        <v>1.6022647999999999</v>
+      <c r="AL6" s="49">
+        <f>(B22*AH6)+(C22*AI6)+(D22*AJ6)+(E22*AK6)</f>
+        <v>2.8460574784000001</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="61">
         <v>0.82</v>
       </c>
-      <c r="C7" s="42">
-        <v>1</v>
-      </c>
-      <c r="D7" s="42">
+      <c r="C7" s="61">
+        <v>1</v>
+      </c>
+      <c r="D7" s="61">
         <v>0.75</v>
       </c>
-      <c r="E7" s="42">
-        <v>1</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="4">
-        <f>(B19*B7)+(C19*C7)+(D19*D7)+(E19*E7)</f>
-        <v>1.8140000000000001</v>
+      <c r="E7" s="61">
+        <v>1</v>
+      </c>
+      <c r="G7" s="62">
+        <v>5</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="61">
+        <f>(B22*B7)+(C22*C7)+(D22*D7)+(E22*E7)</f>
+        <v>3.1456999999999997</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="M7" s="62">
+        <v>5</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" s="61">
+        <v>3.1456999999999997</v>
       </c>
       <c r="AF7" s="4">
         <v>6</v>
       </c>
-      <c r="AG7" s="38" t="s">
-        <v>141</v>
+      <c r="AG7" s="34" t="s">
+        <v>129</v>
       </c>
       <c r="AH7" s="4">
         <f>(B6)/(B8)</f>
@@ -4822,39 +5395,54 @@
         <f>(E6)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL7" s="58">
-        <f>(B19*AH7)+(C19*AI7)+(D19*AJ7)+(E19*AK7)</f>
-        <v>1.7499070866666666</v>
+      <c r="AL7" s="49">
+        <f>(B22*AH7)+(C22*AI7)+(D22*AJ7)+(E22*AK7)</f>
+        <v>3.0700412348666664</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="54">
+      <c r="A8" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="63">
         <v>0.9</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="61">
         <v>0.84615386000000004</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="61">
         <v>0.86363639999999997</v>
       </c>
-      <c r="E8" s="42">
-        <v>1</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="4">
-        <f>(B19*B8)+(C19*C8)+(D19*D8)+(E19*E8)</f>
-        <v>1.8058741560000002</v>
+      <c r="E8" s="61">
+        <v>1</v>
+      </c>
+      <c r="G8" s="62">
+        <v>6</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="61">
+        <f>(B22*B8)+(C22*C8)+(D22*D8)+(E22*E8)</f>
+        <v>3.1486084396399998</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="M8" s="62">
+        <v>10</v>
+      </c>
+      <c r="N8" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="61">
+        <v>3.0919999999999996</v>
       </c>
       <c r="AF8" s="4">
         <v>1</v>
       </c>
-      <c r="AG8" s="38" t="s">
-        <v>142</v>
+      <c r="AG8" s="34" t="s">
+        <v>130</v>
       </c>
       <c r="AH8" s="4">
         <f>(B7)/(B8)</f>
@@ -4872,39 +5460,54 @@
         <f>(E7)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL8" s="58">
-        <f>(B19*AH8)+(C19*AI8)+(D19*AJ8)+(E19*AK8)</f>
-        <v>1.8322222222222222</v>
+      <c r="AL8" s="49">
+        <f>(B22*AH8)+(C22*AI8)+(D22*AJ8)+(E22*AK8)</f>
+        <v>3.1967222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="61">
         <v>0.88</v>
       </c>
-      <c r="C9" s="42">
+      <c r="C9" s="61">
         <v>0.9512195</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="61">
         <v>0.85714287</v>
       </c>
-      <c r="E9" s="42">
-        <v>1</v>
-      </c>
-      <c r="H9" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="4">
-        <f>(B19*B9)+(C19*C9)+(D19*D9)+(E19*E9)</f>
-        <v>1.8610174220000002</v>
+      <c r="E9" s="61">
+        <v>1</v>
+      </c>
+      <c r="G9" s="62">
+        <v>7</v>
+      </c>
+      <c r="H9" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="I9" s="61">
+        <f>(B22*B9)+(C22*C9)+(D22*D9)+(E22*E9)</f>
+        <v>3.2335735194999997</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="62">
+        <v>4</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="O9" s="61">
+        <v>3.0177745682000001</v>
       </c>
       <c r="AF9" s="4">
         <v>7</v>
       </c>
-      <c r="AG9" s="38" t="s">
-        <v>143</v>
+      <c r="AG9" s="34" t="s">
+        <v>131</v>
       </c>
       <c r="AH9" s="4">
         <f>(B8)/(B8)</f>
@@ -4922,39 +5525,54 @@
         <f>(E8)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL9" s="58">
-        <f>(B19*AH9)+(C19*AI9)+(D19*AJ9)+(E19*AK9)</f>
-        <v>1.8258741559999998</v>
+      <c r="AL9" s="49">
+        <f>(B22*AH9)+(C22*AI9)+(D22*AJ9)+(E22*AK9)</f>
+        <v>3.2046084396399999</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="61">
         <v>0.78</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="61">
         <v>0.75609755999999995</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="61">
         <v>0.53571427000000005</v>
       </c>
-      <c r="E10" s="42">
-        <v>1</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="4">
-        <f>(B19*B10)+(C19*C10)+(D19*D10)+(E19*E10)</f>
-        <v>1.531087098</v>
+      <c r="E10" s="61">
+        <v>1</v>
+      </c>
+      <c r="G10" s="62">
+        <v>8</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10" s="61">
+        <f>(B22*B10)+(C22*C10)+(D22*D10)+(E22*E10)</f>
+        <v>2.6821675799399998</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="62">
+        <v>3</v>
+      </c>
+      <c r="N10" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="O10" s="61">
+        <v>2.7900574784000001</v>
       </c>
       <c r="AF10" s="4">
         <v>4</v>
       </c>
-      <c r="AG10" s="38" t="s">
-        <v>144</v>
+      <c r="AG10" s="34" t="s">
+        <v>132</v>
       </c>
       <c r="AH10" s="4">
         <f>(B9)/(B8)</f>
@@ -4972,39 +5590,54 @@
         <f>(E9)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL10" s="58">
-        <f>(B19*AH10)+(C19*AI10)+(D19*AJ10)+(E19*AK10)</f>
-        <v>1.8805729775555555</v>
+      <c r="AL10" s="49">
+        <f>(B22*AH10)+(C22*AI10)+(D22*AJ10)+(E22*AK10)</f>
+        <v>3.2883290750555556</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="61">
         <v>0.6</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="64">
         <v>0.39024389999999998</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="65">
         <v>0.46428570000000002</v>
       </c>
-      <c r="E11" s="56">
-        <v>0</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="4">
-        <f>(B19*B11)+(C19*C11)+(D19*D11)+(E19*E11)</f>
-        <v>0.63271776000000002</v>
+      <c r="E11" s="65">
+        <v>0</v>
+      </c>
+      <c r="G11" s="62">
+        <v>9</v>
+      </c>
+      <c r="H11" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="I11" s="61">
+        <f>(B22*B11)+(C22*C11)+(D22*D11)+(E22*E11)</f>
+        <v>1.1571689736000002</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="62">
+        <v>8</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" s="61">
+        <v>2.6821675799399998</v>
       </c>
       <c r="AF11" s="4">
         <v>8</v>
       </c>
-      <c r="AG11" s="38" t="s">
-        <v>145</v>
+      <c r="AG11" s="34" t="s">
+        <v>133</v>
       </c>
       <c r="AH11" s="4">
         <f>(B10)/(B8)</f>
@@ -5022,39 +5655,54 @@
         <f>(E10)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL11" s="58">
-        <f>(B19*AH11)+(C19*AI11)+(D19*AJ11)+(E19*AK11)</f>
-        <v>1.5484204313333332</v>
+      <c r="AL11" s="49">
+        <f>(B22*AH11)+(C22*AI11)+(D22*AJ11)+(E22*AK11)</f>
+        <v>2.7307009132733331</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="55">
+      <c r="A12" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="64">
         <v>0.3</v>
       </c>
-      <c r="C12" s="57">
-        <v>1</v>
-      </c>
-      <c r="D12" s="57">
-        <v>1</v>
-      </c>
-      <c r="E12" s="57">
-        <v>1</v>
-      </c>
-      <c r="H12" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="I12" s="4">
-        <f>(B19*B12)+(C19*C12)+(D19*D12)+(E19*E12)</f>
-        <v>1.8599999999999999</v>
+      <c r="C12" s="66">
+        <v>1</v>
+      </c>
+      <c r="D12" s="66">
+        <v>1</v>
+      </c>
+      <c r="E12" s="66">
+        <v>1</v>
+      </c>
+      <c r="G12" s="62">
+        <v>10</v>
+      </c>
+      <c r="H12" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="61">
+        <f>(B22*B12)+(C22*C12)+(D22*D12)+(E22*E12)</f>
+        <v>3.0919999999999996</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="M12" s="62">
+        <v>9</v>
+      </c>
+      <c r="N12" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" s="61">
+        <v>1.1571689736000002</v>
       </c>
       <c r="AF12" s="4">
         <v>10</v>
       </c>
-      <c r="AG12" s="53" t="s">
-        <v>155</v>
+      <c r="AG12" s="48" t="s">
+        <v>143</v>
       </c>
       <c r="AH12" s="4">
         <f>(B11)/(B8)</f>
@@ -5072,22 +5720,22 @@
         <f>(E11)/(E12)</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="58">
-        <f>(B19*AH12)+(C19*AI12)+(D19*AJ12)+(E19*AK12)</f>
-        <v>0.64605109333333333</v>
+      <c r="AL12" s="49">
+        <f>(B22*AH12)+(C22*AI12)+(D22*AJ12)+(E22*AK12)</f>
+        <v>1.1945023069333334</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="G13" s="12"/>
-      <c r="H13" s="60"/>
+      <c r="H13" s="51"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
       <c r="AF13" s="4">
         <v>2</v>
       </c>
-      <c r="AG13" s="53" t="s">
-        <v>156</v>
+      <c r="AG13" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="AH13" s="4">
         <f>(B12)/(B8)</f>
@@ -5105,148 +5753,168 @@
         <f>(E12)/(E12)</f>
         <v>1</v>
       </c>
-      <c r="AL13" s="58">
-        <f>(B19*AH13)+(C19*AI13)+(D19*AJ13)+(E19*AK13)</f>
-        <v>1.8666666666666667</v>
+      <c r="AL13" s="49">
+        <f>(B22*AH13)+(C22*AI13)+(D22*AJ13)+(E22*AK13)</f>
+        <v>3.1106666666666669</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="75" t="s">
-        <v>161</v>
-      </c>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="K17" s="52"/>
+      <c r="A17" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="K17" s="47"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="53" t="s">
-        <v>157</v>
+      <c r="A18" s="48" t="s">
+        <v>153</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C18" s="4">
-        <v>3</v>
+        <v>4.74</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="K18" s="52"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="47"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="53" t="s">
-        <v>160</v>
+      <c r="A19" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="B19" s="4">
-        <f>B18/5</f>
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" ref="C19:E19" si="0">C18/5</f>
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="K20" s="54"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="48"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="K21" s="54"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" ref="B22:D22" si="0">(SUM(B18:B21)/COUNT(B18:B21))/5</f>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="E19" s="4">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>0.6</v>
-      </c>
-      <c r="K19" s="52"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="K20" s="52"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="62"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="62"/>
+        <v>0.95</v>
+      </c>
+      <c r="E22" s="4">
+        <f>(SUM(E18:E21)/COUNT(E18:E21))/5</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="47"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="62"/>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="4" t="e">
-        <f>B23/SUM(B23:E23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C24" s="4" t="e">
-        <f>C23/SUM(B23:E23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D24" s="4" t="e">
-        <f>D23/SUM(B23:E23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="4" t="e">
-        <f>E23/SUM(B23:E23)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K24" s="62"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="K23" s="47"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="53"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="62"/>
+      <c r="K25" s="53"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="62"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="J31" s="52"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="J32" s="52"/>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J33" s="52"/>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J34" s="52"/>
-    </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J35" s="52"/>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J36" s="52"/>
-    </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J37" s="52"/>
-    </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J38" s="52"/>
-    </row>
-    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J39" s="52"/>
-    </row>
-    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J40" s="52"/>
+      <c r="K26" s="53"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="53"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="53"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="53"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="53"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="J34" s="47"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="J35" s="47"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="47"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="47"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="47"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="47"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="47"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="47"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="47"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="47"/>
     </row>
   </sheetData>
-  <sortState ref="K18:M27">
-    <sortCondition descending="1" ref="M17"/>
+  <sortState ref="L3:O12">
+    <sortCondition descending="1" ref="O2"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
@@ -5280,15 +5948,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -5301,15 +5969,15 @@
       <c r="R1" s="30"/>
     </row>
     <row r="2" spans="1:22" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -5344,7 +6012,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I4" s="24"/>
       <c r="J4" s="24"/>
@@ -5362,16 +6030,16 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="64">
-        <v>1</v>
-      </c>
-      <c r="D5" s="67" t="s">
+      <c r="C5" s="73">
+        <v>1</v>
+      </c>
+      <c r="D5" s="71" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="29">
@@ -5396,10 +6064,10 @@
       <c r="R5" s="11"/>
     </row>
     <row r="6" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="69"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="72"/>
       <c r="E6" s="29">
         <v>2</v>
       </c>
@@ -5422,12 +6090,12 @@
       <c r="R6" s="11"/>
     </row>
     <row r="7" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="64">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="73">
         <v>2</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="71" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="29">
@@ -5452,10 +6120,10 @@
       <c r="R7" s="11"/>
     </row>
     <row r="8" spans="1:22" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="68"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="29">
         <v>4</v>
       </c>
@@ -5479,10 +6147,10 @@
       <c r="S8" s="21"/>
     </row>
     <row r="9" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="68"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="29">
         <v>5</v>
       </c>
@@ -5505,10 +6173,10 @@
       <c r="R9" s="11"/>
     </row>
     <row r="10" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="69"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="72"/>
       <c r="E10" s="29">
         <v>6</v>
       </c>
@@ -5531,12 +6199,12 @@
       <c r="R10" s="11"/>
     </row>
     <row r="11" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="64">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="73">
         <v>3</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="71" t="s">
         <v>58</v>
       </c>
       <c r="E11" s="29">
@@ -5561,10 +6229,10 @@
       <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="76"/>
       <c r="E12" s="29">
         <v>8</v>
       </c>
@@ -5587,10 +6255,10 @@
       <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="69"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="72"/>
       <c r="E13" s="29">
         <v>9</v>
       </c>
@@ -5613,12 +6281,12 @@
       <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:22" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="64">
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="73">
         <v>4</v>
       </c>
-      <c r="D14" s="67" t="s">
+      <c r="D14" s="71" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="29">
@@ -5643,10 +6311,10 @@
       <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="69"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="29">
         <v>11</v>
       </c>
@@ -5669,12 +6337,12 @@
       <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="64">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="73">
         <v>5</v>
       </c>
-      <c r="D16" s="67" t="s">
+      <c r="D16" s="71" t="s">
         <v>60</v>
       </c>
       <c r="E16" s="29">
@@ -5699,10 +6367,10 @@
       <c r="R16" s="11"/>
     </row>
     <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="68"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="29">
         <v>13</v>
       </c>
@@ -5725,10 +6393,10 @@
       <c r="R17" s="11"/>
     </row>
     <row r="18" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="29">
         <v>14</v>
       </c>
@@ -5751,10 +6419,10 @@
       <c r="R18" s="11"/>
     </row>
     <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="69"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="29">
         <v>15</v>
       </c>
@@ -5777,12 +6445,12 @@
       <c r="R19" s="11"/>
     </row>
     <row r="20" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="64">
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="73">
         <v>6</v>
       </c>
-      <c r="D20" s="67" t="s">
+      <c r="D20" s="71" t="s">
         <v>61</v>
       </c>
       <c r="E20" s="29">
@@ -5807,10 +6475,10 @@
       <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="29">
         <v>17</v>
       </c>
@@ -5833,10 +6501,10 @@
       <c r="R21" s="11"/>
     </row>
     <row r="22" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="29">
         <v>18</v>
       </c>
@@ -5859,10 +6527,10 @@
       <c r="R22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="68"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="29">
         <v>19</v>
       </c>
@@ -5885,10 +6553,10 @@
       <c r="R23" s="11"/>
     </row>
     <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="29">
         <v>20</v>
       </c>
@@ -5911,10 +6579,10 @@
       <c r="R24" s="11"/>
     </row>
     <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="68"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="29">
         <v>21</v>
       </c>
@@ -5937,10 +6605,10 @@
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="68"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="29">
         <v>22</v>
       </c>
@@ -5963,10 +6631,10 @@
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="68"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="29">
         <v>23</v>
       </c>
@@ -5989,10 +6657,10 @@
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="69"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="29">
         <v>24</v>
       </c>
@@ -6015,8 +6683,8 @@
       <c r="R28" s="11"/>
     </row>
     <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="29">
         <v>7</v>
       </c>
@@ -6045,12 +6713,12 @@
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="64">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="73">
         <v>8</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="71" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="29">
@@ -6075,10 +6743,10 @@
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="69"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="29">
         <v>27</v>
       </c>
@@ -6102,16 +6770,16 @@
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="64">
+      <c r="C32" s="73">
         <v>9</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="71" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="29">
@@ -6136,10 +6804,10 @@
       <c r="R32" s="11"/>
     </row>
     <row r="33" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="68"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="29">
         <v>29</v>
       </c>
@@ -6162,10 +6830,10 @@
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="68"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="29">
         <v>30</v>
       </c>
@@ -6188,10 +6856,10 @@
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="68"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="29">
         <v>31</v>
       </c>
@@ -6214,10 +6882,10 @@
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="69"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="72"/>
       <c r="E36" s="29">
         <v>32</v>
       </c>
@@ -6240,12 +6908,12 @@
       <c r="R36" s="11"/>
     </row>
     <row r="37" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="64">
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="73">
         <v>10</v>
       </c>
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="71" t="s">
         <v>65</v>
       </c>
       <c r="E37" s="29">
@@ -6270,10 +6938,10 @@
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="68"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="29">
         <v>34</v>
       </c>
@@ -6296,10 +6964,10 @@
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="69"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="29">
         <v>35</v>
       </c>
@@ -6322,12 +6990,12 @@
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="64">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="73">
         <v>11</v>
       </c>
-      <c r="D40" s="67" t="s">
+      <c r="D40" s="71" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="29">
@@ -6352,10 +7020,10 @@
       <c r="R40" s="11"/>
     </row>
     <row r="41" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="68"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="29">
         <v>37</v>
       </c>
@@ -6378,10 +7046,10 @@
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="69"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="72"/>
       <c r="E42" s="29">
         <v>38</v>
       </c>
@@ -6404,12 +7072,12 @@
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="64">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="73">
         <v>12</v>
       </c>
-      <c r="D43" s="67" t="s">
+      <c r="D43" s="71" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="29">
@@ -6434,10 +7102,10 @@
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="69"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="72"/>
       <c r="E44" s="29">
         <v>40</v>
       </c>
@@ -6460,12 +7128,12 @@
       <c r="R44" s="11"/>
     </row>
     <row r="45" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="64">
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="73">
         <v>13</v>
       </c>
-      <c r="D45" s="67" t="s">
+      <c r="D45" s="71" t="s">
         <v>68</v>
       </c>
       <c r="E45" s="29">
@@ -6490,10 +7158,10 @@
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="68"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="76"/>
       <c r="E46" s="29">
         <v>42</v>
       </c>
@@ -6516,10 +7184,10 @@
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="68"/>
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="29">
         <v>43</v>
       </c>
@@ -6542,10 +7210,10 @@
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="68"/>
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="29">
         <v>44</v>
       </c>
@@ -6568,10 +7236,10 @@
       <c r="R48" s="11"/>
     </row>
     <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="69"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="75"/>
+      <c r="D49" s="72"/>
       <c r="E49" s="29">
         <v>45</v>
       </c>
@@ -6594,12 +7262,12 @@
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="64">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="73">
         <v>14</v>
       </c>
-      <c r="D50" s="67" t="s">
+      <c r="D50" s="71" t="s">
         <v>69</v>
       </c>
       <c r="E50" s="29">
@@ -6624,10 +7292,10 @@
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="66"/>
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="69"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="75"/>
+      <c r="D51" s="72"/>
       <c r="E51" s="29">
         <v>47</v>
       </c>
@@ -6651,10 +7319,10 @@
       <c r="S51" s="12"/>
     </row>
     <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="73" t="s">
+      <c r="A52" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="70" t="s">
         <v>76</v>
       </c>
       <c r="C52" s="29">
@@ -6685,8 +7353,8 @@
       <c r="R52" s="11"/>
     </row>
     <row r="53" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="73"/>
-      <c r="B53" s="73"/>
+      <c r="A53" s="70"/>
+      <c r="B53" s="70"/>
       <c r="C53" s="29">
         <v>16</v>
       </c>
@@ -6817,7 +7485,7 @@
       <c r="D59" s="15"/>
       <c r="E59" s="11"/>
       <c r="F59" s="14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -6966,24 +7634,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A5:A31"/>
-    <mergeCell ref="B5:B31"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="C20:C28"/>
-    <mergeCell ref="D20:D28"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="B52:B53"/>
     <mergeCell ref="B1:H1"/>
@@ -7000,6 +7650,24 @@
     <mergeCell ref="B32:B51"/>
     <mergeCell ref="C32:C36"/>
     <mergeCell ref="D32:D36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="D20:D28"/>
+    <mergeCell ref="A5:A31"/>
+    <mergeCell ref="B5:B31"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7010,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7030,7 +7698,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="26">
@@ -7047,7 +7715,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
+      <c r="A3" s="76"/>
       <c r="B3" s="26">
         <v>4</v>
       </c>
@@ -7062,7 +7730,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="26">
         <v>5</v>
       </c>
@@ -7077,7 +7745,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="26">
         <v>6</v>
       </c>
@@ -7120,7 +7788,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="71" t="s">
         <v>63</v>
       </c>
       <c r="B8" s="26">
@@ -7137,7 +7805,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="26">
         <v>27</v>
       </c>
@@ -7159,10 +7827,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,183 +7838,653 @@
     <col min="1" max="1" width="5.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="3" width="70.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="C1" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="M1" s="81" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="K2" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>1</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="C3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C4" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="L8" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C9" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="C10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="B11" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="B12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>12</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="31">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>19</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>136</v>
-      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7373,31 +8511,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
       <c r="F1" s="19"/>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="M1" s="81" t="s">
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="M1" s="90" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G2" s="1"/>
-      <c r="N2" s="82" t="s">
+      <c r="N2" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="82"/>
+      <c r="O2" s="91"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -7545,16 +8683,16 @@
       <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N9" s="82" t="s">
+      <c r="N9" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="82"/>
+      <c r="O9" s="91"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="18" t="s">
         <v>105</v>
       </c>
@@ -7572,10 +8710,10 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="8">
         <v>0.25</v>
       </c>
@@ -7587,10 +8725,10 @@
       <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="88"/>
       <c r="J12" s="8">
         <v>0.5</v>
       </c>
@@ -7602,10 +8740,10 @@
       <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="79" t="s">
+      <c r="H13" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="79"/>
+      <c r="I13" s="88"/>
       <c r="J13" s="8">
         <v>0.75</v>
       </c>
@@ -7617,10 +8755,10 @@
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="8">
         <v>0.9</v>
       </c>
@@ -7632,10 +8770,10 @@
       <c r="P14" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="N16" s="82" t="s">
+      <c r="N16" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="82"/>
+      <c r="O16" s="91"/>
     </row>
     <row r="17" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M17" s="18" t="s">
@@ -7684,10 +8822,10 @@
       <c r="P21" s="4"/>
     </row>
     <row r="23" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="N23" s="80" t="s">
+      <c r="N23" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="O23" s="80"/>
+      <c r="O23" s="89"/>
     </row>
     <row r="24" spans="13:16" x14ac:dyDescent="0.25">
       <c r="M24" s="18" t="s">
@@ -7754,4 +8892,872 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="59"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" customWidth="1"/>
+    <col min="9" max="9" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="93" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="93" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="60">
+        <v>1</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="92">
+        <v>29</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I2" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="92">
+        <v>23</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="60">
+        <v>3</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="92">
+        <v>22</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="60">
+        <v>4</v>
+      </c>
+      <c r="B5" s="96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="97" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="92">
+        <v>22</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="60">
+        <v>5</v>
+      </c>
+      <c r="B6" s="96" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="92">
+        <v>21</v>
+      </c>
+      <c r="E6" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="60">
+        <v>6</v>
+      </c>
+      <c r="B7" s="96" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="92">
+        <v>25</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="60">
+        <v>7</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="92">
+        <v>22</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60">
+        <v>8</v>
+      </c>
+      <c r="B9" s="96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="97" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="92">
+        <v>22</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="60">
+        <v>9</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="92">
+        <v>22</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H10" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I10" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="97" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="92">
+        <v>26</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="60">
+        <v>11</v>
+      </c>
+      <c r="B12" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="92">
+        <v>22</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I12" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60">
+        <v>12</v>
+      </c>
+      <c r="B13" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="92">
+        <v>21</v>
+      </c>
+      <c r="E13" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H13" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I13" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60">
+        <v>13</v>
+      </c>
+      <c r="B14" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="92">
+        <v>22</v>
+      </c>
+      <c r="E14" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F14" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H14" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="60">
+        <v>14</v>
+      </c>
+      <c r="B15" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="92">
+        <v>22</v>
+      </c>
+      <c r="E15" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I15" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="60">
+        <v>15</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="92">
+        <v>24</v>
+      </c>
+      <c r="E16" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I16" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="60">
+        <v>16</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="92">
+        <v>25</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="60">
+        <v>17</v>
+      </c>
+      <c r="B18" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C18" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="92">
+        <v>21</v>
+      </c>
+      <c r="E18" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H18" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="60">
+        <v>18</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="92">
+        <v>20</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I19" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="60">
+        <v>19</v>
+      </c>
+      <c r="B20" s="96" t="s">
+        <v>239</v>
+      </c>
+      <c r="C20" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="92">
+        <v>22</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H20" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I20" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="60">
+        <v>20</v>
+      </c>
+      <c r="B21" s="96" t="s">
+        <v>241</v>
+      </c>
+      <c r="C21" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="D21" s="92">
+        <v>22</v>
+      </c>
+      <c r="E21" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="60">
+        <v>21</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="92">
+        <v>22</v>
+      </c>
+      <c r="E22" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F22" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="60">
+        <v>22</v>
+      </c>
+      <c r="B23" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="92">
+        <v>22</v>
+      </c>
+      <c r="E23" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F23" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I23" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="60">
+        <v>23</v>
+      </c>
+      <c r="B24" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="92">
+        <v>23</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I24" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="60">
+        <v>24</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="92">
+        <v>22</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F25" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I25" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="60">
+        <v>25</v>
+      </c>
+      <c r="B26" s="96" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="D26" s="92">
+        <v>22</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F26" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I26" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="60">
+        <v>26</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="92">
+        <v>23</v>
+      </c>
+      <c r="E27" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F27" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I27" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="60">
+        <v>27</v>
+      </c>
+      <c r="B28" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="C28" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="92">
+        <v>22</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="I28" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="60">
+        <v>28</v>
+      </c>
+      <c r="B29" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="92">
+        <v>54</v>
+      </c>
+      <c r="E29" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="F29" s="92" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="I29" s="92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>